--- a/00_management/WBSガントチャート.xlsx
+++ b/00_management/WBSガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67DD807-B1A9-46AD-A6F5-A8AD1FD198EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5967A3E-3182-4184-AE64-E20FE57E291E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="195" windowWidth="19125" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
   <si>
     <t>チケット予約システム</t>
   </si>
@@ -176,9 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>月</t>
-  </si>
-  <si>
     <t>火</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>金</t>
+  </si>
+  <si>
+    <t>月</t>
   </si>
   <si>
     <t>1日目</t>
@@ -251,171 +251,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>午前</t>
-    <rPh sb="0" eb="2">
-      <t>ゴゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>午後</t>
-    <rPh sb="0" eb="2">
-      <t>ゴゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トータル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予定</t>
-    <rPh sb="0" eb="2">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実績</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A.計画</t>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B.要件分析</t>
-  </si>
-  <si>
-    <t>C.分析</t>
-  </si>
-  <si>
-    <t>反復計画書</t>
-  </si>
-  <si>
-    <t>WBS＆ガントチャート</t>
-  </si>
-  <si>
-    <t>成果物作成</t>
-  </si>
-  <si>
-    <t>レビュー</t>
-  </si>
-  <si>
-    <t>D.設計</t>
-  </si>
-  <si>
-    <t>ユースケース図</t>
-  </si>
-  <si>
-    <t>ユースケース記述</t>
-  </si>
-  <si>
-    <t>非機能要求一覧</t>
-  </si>
-  <si>
-    <t>システムテスト仕様書</t>
-  </si>
-  <si>
-    <t>E.実装</t>
-  </si>
-  <si>
-    <t>レビュー指摘修正＆内部レビュー</t>
-  </si>
-  <si>
-    <t>レビュー議事録作成</t>
-  </si>
-  <si>
-    <t>新規作成</t>
-  </si>
-  <si>
-    <t>着手</t>
-  </si>
-  <si>
-    <t>F.テスト</t>
-  </si>
-  <si>
-    <t>横井</t>
-  </si>
-  <si>
-    <t>G.振り返り</t>
-  </si>
-  <si>
-    <t>クラス図</t>
-  </si>
-  <si>
-    <t>シーケンス図</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>オブジェクト図</t>
-  </si>
-  <si>
-    <t>横井、鈴木、今竹、栢沼、浜崎</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>テスト仕様書【結果記入済】</t>
-  </si>
-  <si>
-    <t>非機能要求一覧【結果記入済】</t>
-  </si>
-  <si>
-    <t>成果物</t>
-  </si>
-  <si>
-    <t>ソースコード</t>
-  </si>
-  <si>
-    <t>KPTによる振り返り、開発体験シート</t>
-  </si>
-  <si>
-    <t>メトリクス評価</t>
-  </si>
-  <si>
-    <t>今竹</t>
-  </si>
-  <si>
-    <t>レビュー参加</t>
-  </si>
-  <si>
-    <t>栢沼</t>
-  </si>
-  <si>
-    <t>横井、浜崎</t>
-  </si>
-  <si>
-    <t>今竹、鈴木</t>
-  </si>
-  <si>
-    <t>横井、栢沼</t>
-  </si>
-  <si>
     <t>7日目</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
@@ -456,22 +291,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト仕様書</t>
+    <t>午前</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストコード</t>
+    <t>午後</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>横井、鈴木、栢沼、浜崎</t>
+    <t>トータル</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鈴木</t>
+    <t>予定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受け入れレビュー</t>
+    <t>横井、鈴木、今竹、栢沼、浜崎</t>
   </si>
   <si>
-    <t>受け入れレビュー議事録作成</t>
+    <t>実績</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A.計画</t>
+  </si>
+  <si>
+    <t>成果物作成</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書</t>
+  </si>
+  <si>
+    <t>新規作成</t>
+  </si>
+  <si>
+    <t>着手</t>
+  </si>
+  <si>
+    <t>横井</t>
   </si>
   <si>
     <t>横井</t>
@@ -481,14 +355,144 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WBS＆ガントチャート</t>
+  </si>
+  <si>
     <t>横井、鈴木、今竹、栢沼、浜崎</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+  </si>
+  <si>
+    <t>レビュー参加</t>
+  </si>
+  <si>
+    <t>レビュー指摘修正＆内部レビュー</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>レビュー議事録作成</t>
+  </si>
+  <si>
+    <t>今竹</t>
   </si>
   <si>
     <t>今竹</t>
     <rPh sb="0" eb="2">
       <t>イマタケ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B.要件分析</t>
+  </si>
+  <si>
+    <t>ユースケース図</t>
+  </si>
+  <si>
+    <t>栢沼</t>
+  </si>
+  <si>
+    <t>ユースケース記述</t>
+  </si>
+  <si>
+    <t>横井、浜崎</t>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非機能要求一覧</t>
+  </si>
+  <si>
+    <t>今竹、鈴木</t>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテスト仕様書</t>
+  </si>
+  <si>
+    <t>横井、栢沼</t>
+  </si>
+  <si>
+    <t>C.分析</t>
+  </si>
+  <si>
+    <t>オブジェクト図</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>クラス図</t>
+  </si>
+  <si>
+    <t>シーケンス図</t>
+  </si>
+  <si>
+    <t>D.設計</t>
+  </si>
+  <si>
+    <t>テスト仕様書</t>
+  </si>
+  <si>
+    <t>E.実装</t>
+  </si>
+  <si>
+    <t>成果物</t>
+  </si>
+  <si>
+    <t>ソースコード</t>
+  </si>
+  <si>
+    <t>テストコード</t>
+  </si>
+  <si>
+    <t>F.テスト</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>テスト仕様書【結果記入済】</t>
+  </si>
+  <si>
+    <t>横井、鈴木、栢沼、浜崎</t>
+  </si>
+  <si>
+    <t>非機能要求一覧【結果記入済】</t>
+  </si>
+  <si>
+    <t>受け入れレビュー</t>
+  </si>
+  <si>
+    <t>受け入れレビュー議事録作成</t>
+  </si>
+  <si>
+    <t>鈴木</t>
+  </si>
+  <si>
+    <t>G.振り返り</t>
+  </si>
+  <si>
+    <t>KPTによる振り返り、開発体験シート</t>
+  </si>
+  <si>
+    <t>メトリクス評価</t>
+  </si>
+  <si>
+    <t>栢沼</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1386,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1529,9 +1533,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1545,9 +1546,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1582,6 +1580,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2495,10 +2502,10 @@
   <dimension ref="A1:AI115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2517,284 +2524,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="109" t="s">
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="132" t="s">
+      <c r="K1" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="72">
+      <c r="L1" s="73">
         <v>43984</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="72">
+      <c r="M1" s="74"/>
+      <c r="N1" s="73">
         <v>43985</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="72">
+      <c r="O1" s="74"/>
+      <c r="P1" s="73">
         <v>43986</v>
       </c>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="72">
+      <c r="Q1" s="74"/>
+      <c r="R1" s="73">
         <v>43987</v>
       </c>
-      <c r="S1" s="73"/>
-      <c r="T1" s="72">
+      <c r="S1" s="74"/>
+      <c r="T1" s="73">
         <v>43990</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="72">
+      <c r="U1" s="74"/>
+      <c r="V1" s="73">
         <v>43991</v>
       </c>
-      <c r="W1" s="73"/>
-      <c r="X1" s="72">
+      <c r="W1" s="74"/>
+      <c r="X1" s="73">
         <v>43992</v>
       </c>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="72">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="73">
         <v>43993</v>
       </c>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="72">
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="73">
         <v>43994</v>
       </c>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="72">
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="73">
         <v>43997</v>
       </c>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
     </row>
     <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="69" t="s">
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="71"/>
+      <c r="N2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="69" t="s">
+      <c r="O2" s="71"/>
+      <c r="P2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="69" t="s">
+      <c r="Q2" s="71"/>
+      <c r="R2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="69" t="s">
+      <c r="S2" s="71"/>
+      <c r="T2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="70"/>
-      <c r="T2" s="69" t="s">
+      <c r="U2" s="71"/>
+      <c r="V2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="70"/>
-      <c r="V2" s="69" t="s">
+      <c r="W2" s="71"/>
+      <c r="X2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="69" t="s">
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="69" t="s">
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="69" t="s">
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
     </row>
     <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="107" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="105" t="s">
+      <c r="M3" s="107"/>
+      <c r="N3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="105" t="s">
+      <c r="O3" s="107"/>
+      <c r="P3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="71" t="s">
+      <c r="Q3" s="107"/>
+      <c r="R3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71" t="s">
+      <c r="S3" s="72"/>
+      <c r="T3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71" t="s">
+      <c r="U3" s="72"/>
+      <c r="V3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
     </row>
     <row r="4" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="134"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="135"/>
       <c r="L4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
+        <v>24</v>
+      </c>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
     </row>
     <row r="5" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="118" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="139"/>
+      <c r="A5" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J5" s="17">
         <v>5</v>
@@ -2883,27 +2890,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
     </row>
     <row r="6" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="140"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="49">
         <f>SUM(K8,K24,K44)</f>
-        <v>11.35</v>
+        <v>27.759999999999998</v>
       </c>
       <c r="L6" s="29">
         <f t="shared" ref="L6:M6" si="2">SUM(L8,L24,L44)</f>
@@ -2911,11 +2918,11 @@
       </c>
       <c r="M6" s="30">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>13.75</v>
       </c>
       <c r="N6" s="30">
         <f t="shared" ref="N6:AE6" si="3">SUM(N8,N24,N44,N62,N80,N88,N102)</f>
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="O6" s="30">
         <f t="shared" si="3"/>
@@ -2985,26 +2992,26 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="129"/>
+      <c r="A7" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="14">
@@ -3091,27 +3098,27 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="60"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="130"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f t="shared" ref="K8:W8" si="6">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>11.35</v>
+        <v>14.2</v>
       </c>
       <c r="L8" s="40">
         <f t="shared" si="6"/>
@@ -3119,7 +3126,7 @@
       </c>
       <c r="M8" s="32">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="N8" s="32">
         <f t="shared" si="6"/>
@@ -3193,28 +3200,28 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="60"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
     </row>
     <row r="9" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="83">
+      <c r="A9" s="84">
         <v>1</v>
       </c>
-      <c r="B9" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="78"/>
+      <c r="B9" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="104"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="59"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
       <c r="O9" s="33"/>
@@ -3226,27 +3233,27 @@
       <c r="U9" s="33"/>
       <c r="V9" s="33"/>
       <c r="W9" s="33"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="84"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="79"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -3263,41 +3270,41 @@
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
       <c r="W10" s="34"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="83"/>
-      <c r="B11" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="85" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="76"/>
+      <c r="C11" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="77"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J11" s="8">
         <v>1</v>
@@ -3320,35 +3327,37 @@
       <c r="U11" s="33"/>
       <c r="V11" s="33"/>
       <c r="W11" s="33"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="58"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="84"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="50" t="str">
+      <c r="A12" s="85"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="67" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I12" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="50"/>
+      <c r="I12" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="67">
+        <v>1</v>
+      </c>
       <c r="K12" s="10">
         <f t="shared" ref="K12:K22" si="8">SUM(L12:W12)</f>
         <v>1</v>
@@ -3367,41 +3376,41 @@
       <c r="U12" s="34"/>
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="60"/>
-      <c r="AI12" s="60"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="83"/>
-      <c r="B13" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="76"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="87"/>
+      <c r="E13" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="77"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J13" s="8">
         <v>5</v>
@@ -3426,35 +3435,37 @@
       <c r="U13" s="33"/>
       <c r="V13" s="33"/>
       <c r="W13" s="33"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="60"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="84"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="50" t="str">
+      <c r="A14" s="85"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="67" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I14" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="50"/>
+      <c r="I14" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="67">
+        <v>5</v>
+      </c>
       <c r="K14" s="10">
         <f t="shared" si="8"/>
         <v>6.5</v>
@@ -3475,31 +3486,31 @@
       <c r="U14" s="34"/>
       <c r="V14" s="34"/>
       <c r="W14" s="34"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="60"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="58"/>
     </row>
     <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="83">
+      <c r="A15" s="84">
         <v>2</v>
       </c>
-      <c r="B15" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="78"/>
+      <c r="B15" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="79"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3519,27 +3530,27 @@
       <c r="U15" s="33"/>
       <c r="V15" s="33"/>
       <c r="W15" s="33"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="58"/>
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="84"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="79"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3559,41 +3570,41 @@
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
       <c r="W16" s="34"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="83"/>
-      <c r="B17" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="108" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="76"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J17" s="8">
         <v>5</v>
@@ -3618,43 +3629,47 @@
       <c r="U17" s="33"/>
       <c r="V17" s="33"/>
       <c r="W17" s="33"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="60"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="84"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="50" t="str">
+      <c r="A18" s="85"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="67" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="50"/>
+      <c r="I18" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="67">
+        <v>5</v>
+      </c>
       <c r="K18" s="10">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L18" s="43">
         <v>1.25</v>
       </c>
-      <c r="M18" s="34"/>
+      <c r="M18" s="34">
+        <v>1.25</v>
+      </c>
       <c r="N18" s="34"/>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
@@ -3665,147 +3680,151 @@
       <c r="U18" s="34"/>
       <c r="V18" s="34"/>
       <c r="W18" s="34"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="60"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="89"/>
-      <c r="B19" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="85" t="s">
+      <c r="A19" s="90"/>
+      <c r="B19" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="87"/>
+      <c r="E19" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="141"/>
-      <c r="H19" s="55" t="str">
+      <c r="F19" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="142"/>
+      <c r="H19" s="54" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I19" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="55">
+      <c r="I19" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="54">
         <v>5</v>
       </c>
       <c r="K19" s="9">
         <f>SUM(L19:W19)</f>
         <v>4</v>
       </c>
-      <c r="L19" s="51">
+      <c r="L19" s="50">
         <v>2.5</v>
       </c>
-      <c r="M19" s="52">
+      <c r="M19" s="51">
         <v>1.5</v>
       </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="90"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="56" t="str">
+      <c r="A20" s="91"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="68" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I20" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="56"/>
+      <c r="I20" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="68">
+        <v>5</v>
+      </c>
       <c r="K20" s="10">
         <f>SUM(L20:W20)</f>
+        <v>4</v>
+      </c>
+      <c r="L20" s="52">
         <v>2.5</v>
       </c>
-      <c r="L20" s="53">
-        <v>2.5</v>
-      </c>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
+      <c r="M20" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="83"/>
-      <c r="B21" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="74" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="C21" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="76"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="77"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
@@ -3830,43 +3849,47 @@
       <c r="U21" s="33"/>
       <c r="V21" s="33"/>
       <c r="W21" s="33"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="60"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="84"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="50" t="str">
+      <c r="A22" s="85"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="67" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I22" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="50"/>
+      <c r="I22" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="67">
+        <v>1</v>
+      </c>
       <c r="K22" s="10">
         <f t="shared" si="8"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L22" s="43">
         <v>0.1</v>
       </c>
-      <c r="M22" s="34"/>
+      <c r="M22" s="34">
+        <v>0.1</v>
+      </c>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
@@ -3877,34 +3900,34 @@
       <c r="U22" s="34"/>
       <c r="V22" s="34"/>
       <c r="W22" s="34"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="60"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="58"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="135"/>
+      <c r="A23" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="136"/>
       <c r="H23" s="20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="21">
@@ -3991,27 +4014,27 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="60"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="58"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="136"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f t="shared" ref="K24:W24" si="11">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>0</v>
+        <v>12.31</v>
       </c>
       <c r="L24" s="44">
         <f t="shared" si="11"/>
@@ -4019,11 +4042,11 @@
       </c>
       <c r="M24" s="38">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="N24" s="38">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="O24" s="38">
         <f t="shared" si="11"/>
@@ -4093,23 +4116,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="60"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="60"/>
+      <c r="AF24" s="58"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="58"/>
+      <c r="AI24" s="58"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="83">
+      <c r="A25" s="84">
         <v>1</v>
       </c>
-      <c r="B25" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="78"/>
+      <c r="B25" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -4129,27 +4152,27 @@
       <c r="U25" s="33"/>
       <c r="V25" s="33"/>
       <c r="W25" s="33"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="60"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="58"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="84"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="79"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -4169,39 +4192,39 @@
       <c r="U26" s="34"/>
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="60"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="60"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="83"/>
-      <c r="B27" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="76"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="87"/>
+      <c r="E27" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="75"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I27" s="55" t="s">
-        <v>63</v>
+      <c r="I27" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="J27" s="8">
         <v>1</v>
@@ -4224,39 +4247,45 @@
       <c r="U27" s="33"/>
       <c r="V27" s="33"/>
       <c r="W27" s="33"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="58"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="84"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="50" t="str">
+      <c r="A28" s="85"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="67" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="I28" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="67">
+        <v>5</v>
+      </c>
       <c r="K28" s="10">
         <f t="shared" ref="K28:K34" si="13">SUM(L28:W28)</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L28" s="43"/>
-      <c r="M28" s="34"/>
+      <c r="M28" s="34">
+        <v>0.8</v>
+      </c>
       <c r="N28" s="34"/>
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
@@ -4267,39 +4296,39 @@
       <c r="U28" s="34"/>
       <c r="V28" s="34"/>
       <c r="W28" s="34"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="60"/>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="60"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="58"/>
+      <c r="AI28" s="58"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="83"/>
-      <c r="B29" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="85" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="76"/>
+      <c r="C29" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="87"/>
+      <c r="E29" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="75"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I29" s="55" t="s">
-        <v>64</v>
+      <c r="I29" s="54" t="s">
+        <v>51</v>
       </c>
       <c r="J29" s="8">
         <v>2</v>
@@ -4322,39 +4351,45 @@
       <c r="U29" s="33"/>
       <c r="V29" s="33"/>
       <c r="W29" s="33"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="60"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="58"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="84"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="50" t="str">
+      <c r="A30" s="85"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="67" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
+      <c r="I30" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="67">
+        <v>5</v>
+      </c>
       <c r="K30" s="10">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L30" s="43"/>
-      <c r="M30" s="34"/>
+      <c r="M30" s="34">
+        <v>7.5</v>
+      </c>
       <c r="N30" s="34"/>
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
@@ -4365,39 +4400,39 @@
       <c r="U30" s="34"/>
       <c r="V30" s="34"/>
       <c r="W30" s="34"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="58"/>
+      <c r="AI30" s="58"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="83"/>
-      <c r="B31" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="74"/>
-      <c r="G31" s="76"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="87"/>
+      <c r="E31" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="75"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I31" s="55" t="s">
-        <v>65</v>
+      <c r="I31" s="54" t="s">
+        <v>54</v>
       </c>
       <c r="J31" s="8">
         <v>2</v>
@@ -4420,39 +4455,45 @@
       <c r="U31" s="33"/>
       <c r="V31" s="33"/>
       <c r="W31" s="33"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="60"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="58"/>
+      <c r="AG31" s="58"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="58"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="84"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="50" t="str">
+      <c r="A32" s="85"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="67" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
+      <c r="I32" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="67">
+        <v>1</v>
+      </c>
       <c r="K32" s="10">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L32" s="43"/>
-      <c r="M32" s="34"/>
+      <c r="M32" s="34">
+        <v>0.5</v>
+      </c>
       <c r="N32" s="34"/>
       <c r="O32" s="34"/>
       <c r="P32" s="34"/>
@@ -4463,39 +4504,39 @@
       <c r="U32" s="34"/>
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="54"/>
-      <c r="AF32" s="60"/>
-      <c r="AG32" s="60"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="60"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="58"/>
+      <c r="AG32" s="58"/>
+      <c r="AH32" s="58"/>
+      <c r="AI32" s="58"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="83"/>
-      <c r="B33" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="74"/>
-      <c r="G33" s="76"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="87"/>
+      <c r="E33" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="75"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I33" s="55" t="s">
-        <v>66</v>
+      <c r="I33" s="54" t="s">
+        <v>57</v>
       </c>
       <c r="J33" s="8">
         <v>2</v>
@@ -4518,39 +4559,45 @@
       <c r="U33" s="33"/>
       <c r="V33" s="33"/>
       <c r="W33" s="33"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="60"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
+      <c r="AI33" s="58"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="84"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="50" t="str">
+      <c r="A34" s="85"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="67" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
+      <c r="I34" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="67">
+        <v>1</v>
+      </c>
       <c r="K34" s="10">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L34" s="43"/>
-      <c r="M34" s="34"/>
+      <c r="M34" s="34">
+        <v>0.6</v>
+      </c>
       <c r="N34" s="34"/>
       <c r="O34" s="34"/>
       <c r="P34" s="34"/>
@@ -4561,31 +4608,31 @@
       <c r="U34" s="34"/>
       <c r="V34" s="34"/>
       <c r="W34" s="34"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="54"/>
-      <c r="AF34" s="60"/>
-      <c r="AG34" s="60"/>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="60"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="53"/>
+      <c r="AD34" s="53"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="58"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="83">
+      <c r="A35" s="84">
         <v>2</v>
       </c>
-      <c r="B35" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="78"/>
+      <c r="B35" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -4605,27 +4652,27 @@
       <c r="U35" s="33"/>
       <c r="V35" s="33"/>
       <c r="W35" s="33"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="60"/>
-      <c r="AG35" s="60"/>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="60"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="58"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="84"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="79"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -4645,39 +4692,39 @@
       <c r="U36" s="34"/>
       <c r="V36" s="34"/>
       <c r="W36" s="34"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
-      <c r="AE36" s="54"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="60"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="58"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="83"/>
-      <c r="B37" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="86"/>
-      <c r="E37" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="76"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="87"/>
+      <c r="E37" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="75"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I37" s="55" t="s">
-        <v>53</v>
+      <c r="I37" s="54" t="s">
+        <v>27</v>
       </c>
       <c r="J37" s="8">
         <v>5</v>
@@ -4687,7 +4734,7 @@
         <v>1.25</v>
       </c>
       <c r="L37" s="35"/>
-      <c r="M37" s="52">
+      <c r="M37" s="51">
         <v>1.25</v>
       </c>
       <c r="N37" s="33"/>
@@ -4700,40 +4747,46 @@
       <c r="U37" s="33"/>
       <c r="V37" s="33"/>
       <c r="W37" s="33"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="60"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="58"/>
+      <c r="AG37" s="58"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="58"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="84"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="50" t="str">
+      <c r="A38" s="85"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="67" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
+      <c r="I38" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="67">
+        <v>5</v>
+      </c>
       <c r="K38" s="10">
         <f t="shared" ref="K38:K42" si="14">SUM(L38:W38)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L38" s="43"/>
       <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
+      <c r="N38" s="34">
+        <v>1.25</v>
+      </c>
       <c r="O38" s="34"/>
       <c r="P38" s="34"/>
       <c r="Q38" s="34"/>
@@ -4743,137 +4796,143 @@
       <c r="U38" s="34"/>
       <c r="V38" s="34"/>
       <c r="W38" s="34"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="60"/>
-      <c r="AG38" s="60"/>
-      <c r="AH38" s="60"/>
-      <c r="AI38" s="60"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="58"/>
+      <c r="AG38" s="58"/>
+      <c r="AH38" s="58"/>
+      <c r="AI38" s="58"/>
     </row>
     <row r="39" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="89"/>
-      <c r="B39" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="85" t="s">
+      <c r="A39" s="90"/>
+      <c r="B39" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="87"/>
+      <c r="E39" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="93"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="55" t="str">
+      <c r="F39" s="94"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="54" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I39" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" s="55">
+      <c r="I39" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="54">
         <v>5</v>
       </c>
       <c r="K39" s="9">
         <f>SUM(L39:W39)</f>
         <v>1.25</v>
       </c>
-      <c r="L39" s="51"/>
-      <c r="M39" s="52">
+      <c r="L39" s="50"/>
+      <c r="M39" s="51">
         <v>1.25</v>
       </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="60"/>
-      <c r="AG39" s="60"/>
-      <c r="AH39" s="60"/>
-      <c r="AI39" s="60"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="58"/>
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="90"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="56" t="str">
+      <c r="A40" s="91"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="68" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
+      <c r="I40" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="68">
+        <v>5</v>
+      </c>
       <c r="K40" s="10">
         <f>SUM(L40:W40)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="53"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="54"/>
-      <c r="AF40" s="60"/>
-      <c r="AG40" s="60"/>
-      <c r="AH40" s="60"/>
-      <c r="AI40" s="60"/>
+        <v>1.5</v>
+      </c>
+      <c r="L40" s="52"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="58"/>
+      <c r="AG40" s="58"/>
+      <c r="AH40" s="58"/>
+      <c r="AI40" s="58"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="83"/>
-      <c r="B41" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="74" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="74"/>
-      <c r="G41" s="76"/>
+      <c r="C41" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="87"/>
+      <c r="E41" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="75"/>
+      <c r="G41" s="77"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J41" s="8">
         <v>1</v>
@@ -4883,7 +4942,7 @@
         <v>0.1</v>
       </c>
       <c r="L41" s="35"/>
-      <c r="M41" s="52">
+      <c r="M41" s="51">
         <v>0.1</v>
       </c>
       <c r="N41" s="33"/>
@@ -4896,40 +4955,46 @@
       <c r="U41" s="33"/>
       <c r="V41" s="33"/>
       <c r="W41" s="33"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="60"/>
-      <c r="AG41" s="60"/>
-      <c r="AH41" s="60"/>
-      <c r="AI41" s="60"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="51"/>
+      <c r="AD41" s="51"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
+      <c r="AH41" s="58"/>
+      <c r="AI41" s="58"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="84"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="50" t="str">
+      <c r="A42" s="85"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="67" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
+      <c r="I42" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="67">
+        <v>1</v>
+      </c>
       <c r="K42" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L42" s="43"/>
       <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
+      <c r="N42" s="34">
+        <v>0.16</v>
+      </c>
       <c r="O42" s="34"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="34"/>
@@ -4939,31 +5004,31 @@
       <c r="U42" s="34"/>
       <c r="V42" s="34"/>
       <c r="W42" s="34"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="54"/>
-      <c r="AF42" s="60"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="60"/>
-      <c r="AI42" s="60"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="58"/>
+      <c r="AI42" s="58"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="135"/>
+      <c r="A43" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="136"/>
       <c r="H43" s="20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -5051,27 +5116,27 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF43" s="60"/>
-      <c r="AG43" s="60"/>
-      <c r="AH43" s="60"/>
-      <c r="AI43" s="60"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="58"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="98"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="136"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="137"/>
       <c r="H44" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="22">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L44" s="40">
         <f t="shared" ref="L44:W44" si="17">SUMPRODUCT((MOD(ROW(L$45:L$60),2)=0)*L$45:L$60)</f>
@@ -5083,7 +5148,7 @@
       </c>
       <c r="N44" s="39">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O44" s="39">
         <f t="shared" si="17"/>
@@ -5153,23 +5218,23 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="60"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="60"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="58"/>
+      <c r="AI44" s="58"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="83">
+      <c r="A45" s="84">
         <v>1</v>
       </c>
-      <c r="B45" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="103"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="78"/>
+      <c r="B45" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="104"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -5189,27 +5254,27 @@
       <c r="U45" s="33"/>
       <c r="V45" s="33"/>
       <c r="W45" s="33"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="52"/>
-      <c r="AF45" s="60"/>
-      <c r="AG45" s="60"/>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="60"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="51"/>
+      <c r="AC45" s="51"/>
+      <c r="AD45" s="51"/>
+      <c r="AE45" s="51"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="58"/>
+      <c r="AI45" s="58"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="84"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="79"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -5229,137 +5294,143 @@
       <c r="U46" s="34"/>
       <c r="V46" s="34"/>
       <c r="W46" s="34"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="54"/>
-      <c r="AB46" s="54"/>
-      <c r="AC46" s="54"/>
-      <c r="AD46" s="54"/>
-      <c r="AE46" s="54"/>
-      <c r="AF46" s="60"/>
-      <c r="AG46" s="60"/>
-      <c r="AH46" s="60"/>
-      <c r="AI46" s="60"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="53"/>
+      <c r="AD46" s="53"/>
+      <c r="AE46" s="53"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="58"/>
+      <c r="AI46" s="58"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="89"/>
-      <c r="B47" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="86"/>
-      <c r="E47" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="93"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="55" t="str">
+      <c r="A47" s="90"/>
+      <c r="B47" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="87"/>
+      <c r="E47" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="94"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="54" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I47" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" s="55">
+      <c r="I47" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="54">
         <v>5</v>
       </c>
       <c r="K47" s="9">
         <f>SUM(L47:W47)</f>
         <v>3</v>
       </c>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52">
+      <c r="L47" s="50"/>
+      <c r="M47" s="51">
         <v>3</v>
       </c>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="52"/>
-      <c r="X47" s="52"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="52"/>
-      <c r="AF47" s="60"/>
-      <c r="AG47" s="60"/>
-      <c r="AH47" s="60"/>
-      <c r="AI47" s="60"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="51"/>
+      <c r="AE47" s="51"/>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="58"/>
+      <c r="AI47" s="58"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="90"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="56" t="str">
+      <c r="A48" s="91"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="68" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
+      <c r="I48" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="68">
+        <v>5</v>
+      </c>
       <c r="K48" s="10">
         <f>SUM(L48:W48)</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="53"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="54"/>
-      <c r="AB48" s="54"/>
-      <c r="AC48" s="54"/>
-      <c r="AD48" s="54"/>
-      <c r="AE48" s="54"/>
-      <c r="AF48" s="60"/>
-      <c r="AG48" s="60"/>
-      <c r="AH48" s="60"/>
-      <c r="AI48" s="60"/>
+        <v>0.25</v>
+      </c>
+      <c r="L48" s="52"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="53"/>
+      <c r="AF48" s="58"/>
+      <c r="AG48" s="58"/>
+      <c r="AH48" s="58"/>
+      <c r="AI48" s="58"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="83"/>
-      <c r="B49" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="86"/>
-      <c r="E49" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="74"/>
-      <c r="G49" s="76"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="87"/>
+      <c r="E49" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="75"/>
+      <c r="G49" s="77"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J49" s="8">
         <v>5</v>
@@ -5382,40 +5453,46 @@
       <c r="U49" s="33"/>
       <c r="V49" s="33"/>
       <c r="W49" s="33"/>
-      <c r="X49" s="52"/>
-      <c r="Y49" s="52"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="60"/>
-      <c r="AG49" s="60"/>
-      <c r="AH49" s="60"/>
-      <c r="AI49" s="60"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="51"/>
+      <c r="AD49" s="51"/>
+      <c r="AE49" s="51"/>
+      <c r="AF49" s="58"/>
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="58"/>
+      <c r="AI49" s="58"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="84"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="50" t="str">
+      <c r="A50" s="85"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="67" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
+      <c r="I50" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="67">
+        <v>5</v>
+      </c>
       <c r="K50" s="10">
         <f t="shared" ref="K50:K60" si="19">SUM(L50:W50)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L50" s="43"/>
       <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
+      <c r="N50" s="34">
+        <v>0.25</v>
+      </c>
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="34"/>
@@ -5425,129 +5502,135 @@
       <c r="U50" s="34"/>
       <c r="V50" s="34"/>
       <c r="W50" s="34"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="54"/>
-      <c r="AB50" s="54"/>
-      <c r="AC50" s="54"/>
-      <c r="AD50" s="54"/>
-      <c r="AE50" s="54"/>
-      <c r="AF50" s="60"/>
-      <c r="AG50" s="60"/>
-      <c r="AH50" s="60"/>
-      <c r="AI50" s="60"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="53"/>
+      <c r="AD50" s="53"/>
+      <c r="AE50" s="53"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="58"/>
+      <c r="AI50" s="58"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="89"/>
-      <c r="B51" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="86"/>
-      <c r="E51" s="93" t="s">
+      <c r="A51" s="90"/>
+      <c r="B51" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="93"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="55" t="str">
+      <c r="C51" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="87"/>
+      <c r="E51" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="94"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="54" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I51" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J51" s="55">
+      <c r="I51" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="54">
         <v>5</v>
       </c>
       <c r="K51" s="9">
         <f>SUM(L51:W51)</f>
         <v>3</v>
       </c>
-      <c r="L51" s="51"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52">
+      <c r="L51" s="50"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51">
         <v>3</v>
       </c>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="52"/>
-      <c r="AC51" s="52"/>
-      <c r="AD51" s="52"/>
-      <c r="AE51" s="52"/>
-      <c r="AF51" s="60"/>
-      <c r="AG51" s="60"/>
-      <c r="AH51" s="60"/>
-      <c r="AI51" s="60"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="51"/>
+      <c r="AC51" s="51"/>
+      <c r="AD51" s="51"/>
+      <c r="AE51" s="51"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="58"/>
+      <c r="AH51" s="58"/>
+      <c r="AI51" s="58"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="90"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="56" t="str">
+      <c r="A52" s="91"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="68" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
+      <c r="I52" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="68">
+        <v>5</v>
+      </c>
       <c r="K52" s="10">
         <f>SUM(L52:W52)</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="53"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="54"/>
-      <c r="AD52" s="54"/>
-      <c r="AE52" s="54"/>
-      <c r="AF52" s="60"/>
-      <c r="AG52" s="60"/>
-      <c r="AH52" s="60"/>
-      <c r="AI52" s="60"/>
+        <v>0.75</v>
+      </c>
+      <c r="L52" s="52"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="53"/>
+      <c r="Z52" s="53"/>
+      <c r="AA52" s="53"/>
+      <c r="AB52" s="53"/>
+      <c r="AC52" s="53"/>
+      <c r="AD52" s="53"/>
+      <c r="AE52" s="53"/>
+      <c r="AF52" s="58"/>
+      <c r="AG52" s="58"/>
+      <c r="AH52" s="58"/>
+      <c r="AI52" s="58"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="83">
+      <c r="A53" s="84">
         <v>2</v>
       </c>
-      <c r="B53" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="103"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="78"/>
+      <c r="B53" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="104"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -5567,27 +5650,27 @@
       <c r="U53" s="33"/>
       <c r="V53" s="33"/>
       <c r="W53" s="33"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="52"/>
-      <c r="AD53" s="52"/>
-      <c r="AE53" s="52"/>
-      <c r="AF53" s="60"/>
-      <c r="AG53" s="60"/>
-      <c r="AH53" s="60"/>
-      <c r="AI53" s="60"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="51"/>
+      <c r="AD53" s="51"/>
+      <c r="AE53" s="51"/>
+      <c r="AF53" s="58"/>
+      <c r="AG53" s="58"/>
+      <c r="AH53" s="58"/>
+      <c r="AI53" s="58"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="84"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="79"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="80"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -5607,39 +5690,39 @@
       <c r="U54" s="34"/>
       <c r="V54" s="34"/>
       <c r="W54" s="34"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="54"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="54"/>
-      <c r="AD54" s="54"/>
-      <c r="AE54" s="54"/>
-      <c r="AF54" s="60"/>
-      <c r="AG54" s="60"/>
-      <c r="AH54" s="60"/>
-      <c r="AI54" s="60"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="53"/>
+      <c r="AA54" s="53"/>
+      <c r="AB54" s="53"/>
+      <c r="AC54" s="53"/>
+      <c r="AD54" s="53"/>
+      <c r="AE54" s="53"/>
+      <c r="AF54" s="58"/>
+      <c r="AG54" s="58"/>
+      <c r="AH54" s="58"/>
+      <c r="AI54" s="58"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="83"/>
-      <c r="B55" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="86"/>
-      <c r="E55" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="F55" s="74"/>
-      <c r="G55" s="76"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="87"/>
+      <c r="E55" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="75"/>
+      <c r="G55" s="77"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J55" s="8">
         <v>5</v>
@@ -5662,33 +5745,33 @@
       <c r="U55" s="33"/>
       <c r="V55" s="33"/>
       <c r="W55" s="33"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-      <c r="AC55" s="52"/>
-      <c r="AD55" s="52"/>
-      <c r="AE55" s="52"/>
-      <c r="AF55" s="60"/>
-      <c r="AG55" s="60"/>
-      <c r="AH55" s="60"/>
-      <c r="AI55" s="60"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="58"/>
+      <c r="AG55" s="58"/>
+      <c r="AH55" s="58"/>
+      <c r="AI55" s="58"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="84"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="50" t="str">
+      <c r="A56" s="85"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="67" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
       <c r="K56" s="10">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -5705,39 +5788,39 @@
       <c r="U56" s="34"/>
       <c r="V56" s="34"/>
       <c r="W56" s="34"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="54"/>
-      <c r="AE56" s="54"/>
-      <c r="AF56" s="60"/>
-      <c r="AG56" s="60"/>
-      <c r="AH56" s="60"/>
-      <c r="AI56" s="60"/>
+      <c r="X56" s="53"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="53"/>
+      <c r="AA56" s="53"/>
+      <c r="AB56" s="53"/>
+      <c r="AC56" s="53"/>
+      <c r="AD56" s="53"/>
+      <c r="AE56" s="53"/>
+      <c r="AF56" s="58"/>
+      <c r="AG56" s="58"/>
+      <c r="AH56" s="58"/>
+      <c r="AI56" s="58"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="83"/>
-      <c r="B57" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="85" t="s">
+      <c r="A57" s="84"/>
+      <c r="B57" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="87"/>
+      <c r="E57" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="86"/>
-      <c r="E57" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" s="74"/>
-      <c r="G57" s="76"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="77"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I57" s="55" t="s">
-        <v>53</v>
+      <c r="I57" s="54" t="s">
+        <v>27</v>
       </c>
       <c r="J57" s="8">
         <v>5</v>
@@ -5748,7 +5831,7 @@
       </c>
       <c r="L57" s="35"/>
       <c r="M57" s="33"/>
-      <c r="N57" s="51">
+      <c r="N57" s="50">
         <v>1.25</v>
       </c>
       <c r="O57" s="33"/>
@@ -5760,33 +5843,33 @@
       <c r="U57" s="33"/>
       <c r="V57" s="33"/>
       <c r="W57" s="33"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="52"/>
-      <c r="AC57" s="52"/>
-      <c r="AD57" s="52"/>
-      <c r="AE57" s="52"/>
-      <c r="AF57" s="60"/>
-      <c r="AG57" s="60"/>
-      <c r="AH57" s="60"/>
-      <c r="AI57" s="60"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="51"/>
+      <c r="Z57" s="51"/>
+      <c r="AA57" s="51"/>
+      <c r="AB57" s="51"/>
+      <c r="AC57" s="51"/>
+      <c r="AD57" s="51"/>
+      <c r="AE57" s="51"/>
+      <c r="AF57" s="58"/>
+      <c r="AG57" s="58"/>
+      <c r="AH57" s="58"/>
+      <c r="AI57" s="58"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="84"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="50" t="str">
+      <c r="A58" s="85"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="67" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
       <c r="K58" s="10">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -5803,39 +5886,39 @@
       <c r="U58" s="34"/>
       <c r="V58" s="34"/>
       <c r="W58" s="34"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="54"/>
-      <c r="AF58" s="60"/>
-      <c r="AG58" s="60"/>
-      <c r="AH58" s="60"/>
-      <c r="AI58" s="60"/>
+      <c r="X58" s="53"/>
+      <c r="Y58" s="53"/>
+      <c r="Z58" s="53"/>
+      <c r="AA58" s="53"/>
+      <c r="AB58" s="53"/>
+      <c r="AC58" s="53"/>
+      <c r="AD58" s="53"/>
+      <c r="AE58" s="53"/>
+      <c r="AF58" s="58"/>
+      <c r="AG58" s="58"/>
+      <c r="AH58" s="58"/>
+      <c r="AI58" s="58"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="83"/>
-      <c r="B59" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="86"/>
-      <c r="E59" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="74"/>
-      <c r="G59" s="76"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="87"/>
+      <c r="E59" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="75"/>
+      <c r="G59" s="77"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J59" s="8">
         <v>1</v>
@@ -5846,7 +5929,7 @@
       </c>
       <c r="L59" s="35"/>
       <c r="M59" s="33"/>
-      <c r="N59" s="51">
+      <c r="N59" s="50">
         <v>0.1</v>
       </c>
       <c r="O59" s="33"/>
@@ -5858,33 +5941,33 @@
       <c r="U59" s="33"/>
       <c r="V59" s="33"/>
       <c r="W59" s="33"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="60"/>
-      <c r="AG59" s="60"/>
-      <c r="AH59" s="60"/>
-      <c r="AI59" s="60"/>
+      <c r="X59" s="51"/>
+      <c r="Y59" s="51"/>
+      <c r="Z59" s="51"/>
+      <c r="AA59" s="51"/>
+      <c r="AB59" s="51"/>
+      <c r="AC59" s="51"/>
+      <c r="AD59" s="51"/>
+      <c r="AE59" s="51"/>
+      <c r="AF59" s="58"/>
+      <c r="AG59" s="58"/>
+      <c r="AH59" s="58"/>
+      <c r="AI59" s="58"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="84"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="50" t="str">
+      <c r="A60" s="85"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="67" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
       <c r="K60" s="10">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -5901,137 +5984,137 @@
       <c r="U60" s="46"/>
       <c r="V60" s="46"/>
       <c r="W60" s="46"/>
-      <c r="X60" s="58"/>
-      <c r="Y60" s="58"/>
-      <c r="Z60" s="58"/>
-      <c r="AA60" s="58"/>
-      <c r="AB60" s="58"/>
-      <c r="AC60" s="58"/>
-      <c r="AD60" s="58"/>
-      <c r="AE60" s="58"/>
-      <c r="AF60" s="60"/>
-      <c r="AG60" s="60"/>
-      <c r="AH60" s="60"/>
-      <c r="AI60" s="60"/>
+      <c r="X60" s="56"/>
+      <c r="Y60" s="56"/>
+      <c r="Z60" s="56"/>
+      <c r="AA60" s="56"/>
+      <c r="AB60" s="56"/>
+      <c r="AC60" s="56"/>
+      <c r="AD60" s="56"/>
+      <c r="AE60" s="56"/>
+      <c r="AF60" s="58"/>
+      <c r="AG60" s="58"/>
+      <c r="AH60" s="58"/>
+      <c r="AI60" s="58"/>
     </row>
     <row r="61" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="96"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="135"/>
+      <c r="A61" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="136"/>
       <c r="H61" s="20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
-      <c r="K61" s="67" cm="1">
+      <c r="K61" s="65" cm="1">
         <f t="array" ref="K61">SUMPRODUCT((MOD(ROW(K$63:K$78),2)=1)*K$63:K$78)</f>
         <v>14.149999999999999</v>
       </c>
-      <c r="L61" s="66" cm="1">
+      <c r="L61" s="64" cm="1">
         <f t="array" ref="L61">SUMPRODUCT((MOD(ROW(L$63:L$78),2)=1)*L$63:L$78)</f>
         <v>0</v>
       </c>
-      <c r="M61" s="66" cm="1">
+      <c r="M61" s="64" cm="1">
         <f t="array" ref="M61">SUMPRODUCT((MOD(ROW(M$63:M$78),2)=1)*M$63:M$78)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="66" cm="1">
+      <c r="N61" s="64" cm="1">
         <f t="array" ref="N61">SUMPRODUCT((MOD(ROW(N$63:N$78),2)=1)*N$63:N$78)</f>
         <v>5</v>
       </c>
-      <c r="O61" s="66" cm="1">
+      <c r="O61" s="64" cm="1">
         <f t="array" ref="O61">SUMPRODUCT((MOD(ROW(O$63:O$78),2)=1)*O$63:O$78)</f>
         <v>9.1499999999999986</v>
       </c>
-      <c r="P61" s="66" cm="1">
+      <c r="P61" s="64" cm="1">
         <f t="array" ref="P61">SUMPRODUCT((MOD(ROW(P$63:P$78),2)=1)*P$63:P$78)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="66" cm="1">
+      <c r="Q61" s="64" cm="1">
         <f t="array" ref="Q61">SUMPRODUCT((MOD(ROW(Q$63:Q$78),2)=1)*Q$63:Q$78)</f>
         <v>0</v>
       </c>
-      <c r="R61" s="66" cm="1">
+      <c r="R61" s="64" cm="1">
         <f t="array" ref="R61">SUMPRODUCT((MOD(ROW(R$63:R$78),2)=1)*R$63:R$78)</f>
         <v>0</v>
       </c>
-      <c r="S61" s="66" cm="1">
+      <c r="S61" s="64" cm="1">
         <f t="array" ref="S61">SUMPRODUCT((MOD(ROW(S$63:S$78),2)=1)*S$63:S$78)</f>
         <v>0</v>
       </c>
-      <c r="T61" s="66" cm="1">
+      <c r="T61" s="64" cm="1">
         <f t="array" ref="T61">SUMPRODUCT((MOD(ROW(T$63:T$78),2)=1)*T$63:T$78)</f>
         <v>0</v>
       </c>
-      <c r="U61" s="66" cm="1">
+      <c r="U61" s="64" cm="1">
         <f t="array" ref="U61">SUMPRODUCT((MOD(ROW(U$63:U$78),2)=1)*U$63:U$78)</f>
         <v>0</v>
       </c>
-      <c r="V61" s="66" cm="1">
+      <c r="V61" s="64" cm="1">
         <f t="array" ref="V61">SUMPRODUCT((MOD(ROW(V$63:V$78),2)=1)*V$63:V$78)</f>
         <v>0</v>
       </c>
-      <c r="W61" s="66" cm="1">
+      <c r="W61" s="64" cm="1">
         <f t="array" ref="W61">SUMPRODUCT((MOD(ROW(W$63:W$78),2)=1)*W$63:W$78)</f>
         <v>0</v>
       </c>
-      <c r="X61" s="66" cm="1">
+      <c r="X61" s="64" cm="1">
         <f t="array" ref="X61">SUMPRODUCT((MOD(ROW(X$63:X$78),2)=1)*X$63:X$78)</f>
         <v>0</v>
       </c>
-      <c r="Y61" s="66" cm="1">
+      <c r="Y61" s="64" cm="1">
         <f t="array" ref="Y61">SUMPRODUCT((MOD(ROW(Y$63:Y$78),2)=1)*Y$63:Y$78)</f>
         <v>0</v>
       </c>
-      <c r="Z61" s="66" cm="1">
+      <c r="Z61" s="64" cm="1">
         <f t="array" ref="Z61">SUMPRODUCT((MOD(ROW(Z$63:Z$78),2)=1)*Z$63:Z$78)</f>
         <v>0</v>
       </c>
-      <c r="AA61" s="66" cm="1">
+      <c r="AA61" s="64" cm="1">
         <f t="array" ref="AA61">SUMPRODUCT((MOD(ROW(AA$63:AA$78),2)=1)*AA$63:AA$78)</f>
         <v>0</v>
       </c>
-      <c r="AB61" s="66" cm="1">
+      <c r="AB61" s="64" cm="1">
         <f t="array" ref="AB61">SUMPRODUCT((MOD(ROW(AB$63:AB$78),2)=1)*AB$63:AB$78)</f>
         <v>0</v>
       </c>
-      <c r="AC61" s="66" cm="1">
+      <c r="AC61" s="64" cm="1">
         <f t="array" ref="AC61">SUMPRODUCT((MOD(ROW(AC$63:AC$78),2)=1)*AC$63:AC$78)</f>
         <v>0</v>
       </c>
-      <c r="AD61" s="66" cm="1">
+      <c r="AD61" s="64" cm="1">
         <f t="array" ref="AD61">SUMPRODUCT((MOD(ROW(AD$63:AD$78),2)=1)*AD$63:AD$78)</f>
         <v>0</v>
       </c>
-      <c r="AE61" s="66" cm="1">
+      <c r="AE61" s="64" cm="1">
         <f t="array" ref="AE61">SUMPRODUCT((MOD(ROW(AE$63:AE$78),2)=1)*AE$63:AE$78)</f>
         <v>0</v>
       </c>
-      <c r="AF61" s="60"/>
-      <c r="AG61" s="60"/>
-      <c r="AH61" s="60"/>
-      <c r="AI61" s="60"/>
+      <c r="AF61" s="58"/>
+      <c r="AG61" s="58"/>
+      <c r="AH61" s="58"/>
+      <c r="AI61" s="58"/>
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="98"/>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="136"/>
+      <c r="A62" s="99"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="137"/>
       <c r="H62" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
-      <c r="K62" s="68" cm="1">
+      <c r="K62" s="66" cm="1">
         <f t="array" ref="K62">SUMPRODUCT((MOD(ROW(K$63:K$78),2)=0)*K$63:K$78)</f>
         <v>0</v>
       </c>
@@ -6115,23 +6198,23 @@
         <f t="array" ref="AE62">SUMPRODUCT((MOD(ROW(AE$63:AE$78),2)=0)*AE$63:AE$78)</f>
         <v>0</v>
       </c>
-      <c r="AF62" s="60"/>
-      <c r="AG62" s="60"/>
-      <c r="AH62" s="60"/>
-      <c r="AI62" s="60"/>
+      <c r="AF62" s="58"/>
+      <c r="AG62" s="58"/>
+      <c r="AH62" s="58"/>
+      <c r="AI62" s="58"/>
     </row>
     <row r="63" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="89">
+      <c r="A63" s="90">
         <v>1</v>
       </c>
-      <c r="B63" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="103"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="78"/>
+      <c r="B63" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="104"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="79"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -6139,39 +6222,39 @@
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="26"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52"/>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="52"/>
-      <c r="AC63" s="52"/>
-      <c r="AD63" s="52"/>
-      <c r="AE63" s="52"/>
-      <c r="AF63" s="60"/>
-      <c r="AG63" s="60"/>
-      <c r="AH63" s="60"/>
-      <c r="AI63" s="60"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="51"/>
+      <c r="V63" s="51"/>
+      <c r="W63" s="51"/>
+      <c r="X63" s="51"/>
+      <c r="Y63" s="51"/>
+      <c r="Z63" s="51"/>
+      <c r="AA63" s="51"/>
+      <c r="AB63" s="51"/>
+      <c r="AC63" s="51"/>
+      <c r="AD63" s="51"/>
+      <c r="AE63" s="51"/>
+      <c r="AF63" s="58"/>
+      <c r="AG63" s="58"/>
+      <c r="AH63" s="58"/>
+      <c r="AI63" s="58"/>
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="90"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="79"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="80"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -6179,339 +6262,339 @@
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
       <c r="K64" s="27"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="54"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="54"/>
-      <c r="AD64" s="54"/>
-      <c r="AE64" s="54"/>
-      <c r="AF64" s="60"/>
-      <c r="AG64" s="60"/>
-      <c r="AH64" s="60"/>
-      <c r="AI64" s="60"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="53"/>
+      <c r="R64" s="53"/>
+      <c r="S64" s="53"/>
+      <c r="T64" s="53"/>
+      <c r="U64" s="53"/>
+      <c r="V64" s="53"/>
+      <c r="W64" s="53"/>
+      <c r="X64" s="53"/>
+      <c r="Y64" s="53"/>
+      <c r="Z64" s="53"/>
+      <c r="AA64" s="53"/>
+      <c r="AB64" s="53"/>
+      <c r="AC64" s="53"/>
+      <c r="AD64" s="53"/>
+      <c r="AE64" s="53"/>
+      <c r="AF64" s="58"/>
+      <c r="AG64" s="58"/>
+      <c r="AH64" s="58"/>
+      <c r="AI64" s="58"/>
     </row>
     <row r="65" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="89"/>
-      <c r="B65" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="86"/>
-      <c r="E65" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65" s="93"/>
-      <c r="G65" s="141"/>
-      <c r="H65" s="55" t="str">
+      <c r="A65" s="90"/>
+      <c r="B65" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="87"/>
+      <c r="E65" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="94"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="54" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I65" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J65" s="55">
+      <c r="I65" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="54">
         <v>5</v>
       </c>
       <c r="K65" s="9">
         <f t="shared" ref="K65:K70" si="20">SUM(L65:W65)</f>
         <v>3</v>
       </c>
-      <c r="L65" s="51"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52">
+      <c r="L65" s="50"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51">
         <v>3</v>
       </c>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52"/>
-      <c r="W65" s="52"/>
-      <c r="X65" s="52"/>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="52"/>
-      <c r="AC65" s="52"/>
-      <c r="AD65" s="52"/>
-      <c r="AE65" s="52"/>
-      <c r="AF65" s="60"/>
-      <c r="AG65" s="60"/>
-      <c r="AH65" s="60"/>
-      <c r="AI65" s="60"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="51"/>
+      <c r="W65" s="51"/>
+      <c r="X65" s="51"/>
+      <c r="Y65" s="51"/>
+      <c r="Z65" s="51"/>
+      <c r="AA65" s="51"/>
+      <c r="AB65" s="51"/>
+      <c r="AC65" s="51"/>
+      <c r="AD65" s="51"/>
+      <c r="AE65" s="51"/>
+      <c r="AF65" s="58"/>
+      <c r="AG65" s="58"/>
+      <c r="AH65" s="58"/>
+      <c r="AI65" s="58"/>
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="90"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="56" t="str">
+      <c r="A66" s="91"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="68" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
       <c r="K66" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L66" s="53"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
-      <c r="V66" s="54"/>
-      <c r="W66" s="54"/>
-      <c r="X66" s="54"/>
-      <c r="Y66" s="54"/>
-      <c r="Z66" s="54"/>
-      <c r="AA66" s="54"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="54"/>
-      <c r="AD66" s="54"/>
-      <c r="AE66" s="54"/>
-      <c r="AF66" s="60"/>
-      <c r="AG66" s="60"/>
-      <c r="AH66" s="60"/>
-      <c r="AI66" s="60"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="53"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="53"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="53"/>
+      <c r="W66" s="53"/>
+      <c r="X66" s="53"/>
+      <c r="Y66" s="53"/>
+      <c r="Z66" s="53"/>
+      <c r="AA66" s="53"/>
+      <c r="AB66" s="53"/>
+      <c r="AC66" s="53"/>
+      <c r="AD66" s="53"/>
+      <c r="AE66" s="53"/>
+      <c r="AF66" s="58"/>
+      <c r="AG66" s="58"/>
+      <c r="AH66" s="58"/>
+      <c r="AI66" s="58"/>
     </row>
     <row r="67" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="89"/>
-      <c r="B67" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="86"/>
-      <c r="E67" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F67" s="93"/>
-      <c r="G67" s="141"/>
-      <c r="H67" s="55" t="str">
+      <c r="A67" s="90"/>
+      <c r="B67" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="87"/>
+      <c r="E67" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="94"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="54" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I67" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J67" s="55">
+      <c r="I67" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="54">
         <v>5</v>
       </c>
       <c r="K67" s="9">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="L67" s="51"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52">
+      <c r="L67" s="50"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51">
         <v>2</v>
       </c>
-      <c r="O67" s="52">
+      <c r="O67" s="51">
         <v>1</v>
       </c>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52"/>
-      <c r="W67" s="52"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="52"/>
-      <c r="Z67" s="52"/>
-      <c r="AA67" s="52"/>
-      <c r="AB67" s="52"/>
-      <c r="AC67" s="52"/>
-      <c r="AD67" s="52"/>
-      <c r="AE67" s="52"/>
-      <c r="AF67" s="60"/>
-      <c r="AG67" s="60"/>
-      <c r="AH67" s="60"/>
-      <c r="AI67" s="60"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="51"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="51"/>
+      <c r="T67" s="51"/>
+      <c r="U67" s="51"/>
+      <c r="V67" s="51"/>
+      <c r="W67" s="51"/>
+      <c r="X67" s="51"/>
+      <c r="Y67" s="51"/>
+      <c r="Z67" s="51"/>
+      <c r="AA67" s="51"/>
+      <c r="AB67" s="51"/>
+      <c r="AC67" s="51"/>
+      <c r="AD67" s="51"/>
+      <c r="AE67" s="51"/>
+      <c r="AF67" s="58"/>
+      <c r="AG67" s="58"/>
+      <c r="AH67" s="58"/>
+      <c r="AI67" s="58"/>
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="90"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="56" t="str">
+      <c r="A68" s="91"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="68" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
       <c r="K68" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L68" s="53"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
-      <c r="V68" s="54"/>
-      <c r="W68" s="54"/>
-      <c r="X68" s="54"/>
-      <c r="Y68" s="54"/>
-      <c r="Z68" s="54"/>
-      <c r="AA68" s="54"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="54"/>
-      <c r="AD68" s="54"/>
-      <c r="AE68" s="54"/>
-      <c r="AF68" s="60"/>
-      <c r="AG68" s="60"/>
-      <c r="AH68" s="60"/>
-      <c r="AI68" s="60"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="53"/>
+      <c r="T68" s="53"/>
+      <c r="U68" s="53"/>
+      <c r="V68" s="53"/>
+      <c r="W68" s="53"/>
+      <c r="X68" s="53"/>
+      <c r="Y68" s="53"/>
+      <c r="Z68" s="53"/>
+      <c r="AA68" s="53"/>
+      <c r="AB68" s="53"/>
+      <c r="AC68" s="53"/>
+      <c r="AD68" s="53"/>
+      <c r="AE68" s="53"/>
+      <c r="AF68" s="58"/>
+      <c r="AG68" s="58"/>
+      <c r="AH68" s="58"/>
+      <c r="AI68" s="58"/>
     </row>
     <row r="69" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="89"/>
-      <c r="B69" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="86"/>
-      <c r="E69" s="93" t="s">
+      <c r="A69" s="90"/>
+      <c r="B69" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="93"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="55" t="str">
+      <c r="C69" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="87"/>
+      <c r="E69" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="94"/>
+      <c r="G69" s="142"/>
+      <c r="H69" s="54" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I69" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J69" s="55">
+      <c r="I69" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="54">
         <v>5</v>
       </c>
       <c r="K69" s="9">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="L69" s="51"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52">
+      <c r="L69" s="50"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="51">
         <v>5</v>
       </c>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="52"/>
-      <c r="U69" s="52"/>
-      <c r="V69" s="52"/>
-      <c r="W69" s="52"/>
-      <c r="X69" s="52"/>
-      <c r="Y69" s="52"/>
-      <c r="Z69" s="52"/>
-      <c r="AA69" s="52"/>
-      <c r="AB69" s="52"/>
-      <c r="AC69" s="52"/>
-      <c r="AD69" s="52"/>
-      <c r="AE69" s="52"/>
-      <c r="AF69" s="60"/>
-      <c r="AG69" s="60"/>
-      <c r="AH69" s="60"/>
-      <c r="AI69" s="60"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="51"/>
+      <c r="V69" s="51"/>
+      <c r="W69" s="51"/>
+      <c r="X69" s="51"/>
+      <c r="Y69" s="51"/>
+      <c r="Z69" s="51"/>
+      <c r="AA69" s="51"/>
+      <c r="AB69" s="51"/>
+      <c r="AC69" s="51"/>
+      <c r="AD69" s="51"/>
+      <c r="AE69" s="51"/>
+      <c r="AF69" s="58"/>
+      <c r="AG69" s="58"/>
+      <c r="AH69" s="58"/>
+      <c r="AI69" s="58"/>
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="90"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="87"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="56" t="str">
+      <c r="A70" s="91"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="68" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="68"/>
       <c r="K70" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L70" s="53"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54"/>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="54"/>
-      <c r="R70" s="54"/>
-      <c r="S70" s="54"/>
-      <c r="T70" s="54"/>
-      <c r="U70" s="54"/>
-      <c r="V70" s="54"/>
-      <c r="W70" s="54"/>
-      <c r="X70" s="54"/>
-      <c r="Y70" s="54"/>
-      <c r="Z70" s="54"/>
-      <c r="AA70" s="54"/>
-      <c r="AB70" s="54"/>
-      <c r="AC70" s="54"/>
-      <c r="AD70" s="54"/>
-      <c r="AE70" s="54"/>
-      <c r="AF70" s="60"/>
-      <c r="AG70" s="60"/>
-      <c r="AH70" s="60"/>
-      <c r="AI70" s="60"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="53"/>
+      <c r="R70" s="53"/>
+      <c r="S70" s="53"/>
+      <c r="T70" s="53"/>
+      <c r="U70" s="53"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="53"/>
+      <c r="X70" s="53"/>
+      <c r="Y70" s="53"/>
+      <c r="Z70" s="53"/>
+      <c r="AA70" s="53"/>
+      <c r="AB70" s="53"/>
+      <c r="AC70" s="53"/>
+      <c r="AD70" s="53"/>
+      <c r="AE70" s="53"/>
+      <c r="AF70" s="58"/>
+      <c r="AG70" s="58"/>
+      <c r="AH70" s="58"/>
+      <c r="AI70" s="58"/>
     </row>
     <row r="71" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="89">
+      <c r="A71" s="90">
         <v>2</v>
       </c>
-      <c r="B71" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="103"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="78"/>
+      <c r="B71" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="104"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="79"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -6519,39 +6602,39 @@
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
       <c r="K71" s="26"/>
-      <c r="L71" s="51"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="52"/>
-      <c r="S71" s="52"/>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
-      <c r="W71" s="52"/>
-      <c r="X71" s="52"/>
-      <c r="Y71" s="52"/>
-      <c r="Z71" s="52"/>
-      <c r="AA71" s="52"/>
-      <c r="AB71" s="52"/>
-      <c r="AC71" s="52"/>
-      <c r="AD71" s="52"/>
-      <c r="AE71" s="52"/>
-      <c r="AF71" s="60"/>
-      <c r="AG71" s="60"/>
-      <c r="AH71" s="60"/>
-      <c r="AI71" s="60"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="51"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="51"/>
+      <c r="Q71" s="51"/>
+      <c r="R71" s="51"/>
+      <c r="S71" s="51"/>
+      <c r="T71" s="51"/>
+      <c r="U71" s="51"/>
+      <c r="V71" s="51"/>
+      <c r="W71" s="51"/>
+      <c r="X71" s="51"/>
+      <c r="Y71" s="51"/>
+      <c r="Z71" s="51"/>
+      <c r="AA71" s="51"/>
+      <c r="AB71" s="51"/>
+      <c r="AC71" s="51"/>
+      <c r="AD71" s="51"/>
+      <c r="AE71" s="51"/>
+      <c r="AF71" s="58"/>
+      <c r="AG71" s="58"/>
+      <c r="AH71" s="58"/>
+      <c r="AI71" s="58"/>
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="90"/>
-      <c r="B72" s="87"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="79"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="80"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -6559,443 +6642,443 @@
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
       <c r="K72" s="27"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="54"/>
-      <c r="S72" s="54"/>
-      <c r="T72" s="54"/>
-      <c r="U72" s="54"/>
-      <c r="V72" s="54"/>
-      <c r="W72" s="54"/>
-      <c r="X72" s="54"/>
-      <c r="Y72" s="54"/>
-      <c r="Z72" s="54"/>
-      <c r="AA72" s="54"/>
-      <c r="AB72" s="54"/>
-      <c r="AC72" s="54"/>
-      <c r="AD72" s="54"/>
-      <c r="AE72" s="54"/>
-      <c r="AF72" s="60"/>
-      <c r="AG72" s="60"/>
-      <c r="AH72" s="60"/>
-      <c r="AI72" s="60"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="53"/>
+      <c r="Q72" s="53"/>
+      <c r="R72" s="53"/>
+      <c r="S72" s="53"/>
+      <c r="T72" s="53"/>
+      <c r="U72" s="53"/>
+      <c r="V72" s="53"/>
+      <c r="W72" s="53"/>
+      <c r="X72" s="53"/>
+      <c r="Y72" s="53"/>
+      <c r="Z72" s="53"/>
+      <c r="AA72" s="53"/>
+      <c r="AB72" s="53"/>
+      <c r="AC72" s="53"/>
+      <c r="AD72" s="53"/>
+      <c r="AE72" s="53"/>
+      <c r="AF72" s="58"/>
+      <c r="AG72" s="58"/>
+      <c r="AH72" s="58"/>
+      <c r="AI72" s="58"/>
     </row>
     <row r="73" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="89"/>
-      <c r="B73" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" s="86"/>
-      <c r="E73" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F73" s="93"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="55" t="str">
+      <c r="A73" s="90"/>
+      <c r="B73" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="87"/>
+      <c r="E73" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="94"/>
+      <c r="G73" s="142"/>
+      <c r="H73" s="54" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I73" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J73" s="55">
+      <c r="I73" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" s="54">
         <v>5</v>
       </c>
       <c r="K73" s="9">
         <f t="shared" ref="K73:K78" si="21">SUM(L73:W73)</f>
         <v>1.7</v>
       </c>
-      <c r="L73" s="51"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52">
+      <c r="L73" s="50"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51">
         <v>1.7</v>
       </c>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="52"/>
-      <c r="S73" s="52"/>
-      <c r="T73" s="52"/>
-      <c r="U73" s="52"/>
-      <c r="V73" s="52"/>
-      <c r="W73" s="52"/>
-      <c r="X73" s="52"/>
-      <c r="Y73" s="52"/>
-      <c r="Z73" s="52"/>
-      <c r="AA73" s="52"/>
-      <c r="AB73" s="52"/>
-      <c r="AC73" s="52"/>
-      <c r="AD73" s="52"/>
-      <c r="AE73" s="52"/>
-      <c r="AF73" s="60"/>
-      <c r="AG73" s="60"/>
-      <c r="AH73" s="60"/>
-      <c r="AI73" s="60"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="51"/>
+      <c r="U73" s="51"/>
+      <c r="V73" s="51"/>
+      <c r="W73" s="51"/>
+      <c r="X73" s="51"/>
+      <c r="Y73" s="51"/>
+      <c r="Z73" s="51"/>
+      <c r="AA73" s="51"/>
+      <c r="AB73" s="51"/>
+      <c r="AC73" s="51"/>
+      <c r="AD73" s="51"/>
+      <c r="AE73" s="51"/>
+      <c r="AF73" s="58"/>
+      <c r="AG73" s="58"/>
+      <c r="AH73" s="58"/>
+      <c r="AI73" s="58"/>
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="90"/>
-      <c r="B74" s="92"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="56" t="str">
+      <c r="A74" s="91"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="68" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
       <c r="K74" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L74" s="53"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
-      <c r="U74" s="54"/>
-      <c r="V74" s="54"/>
-      <c r="W74" s="54"/>
-      <c r="X74" s="54"/>
-      <c r="Y74" s="54"/>
-      <c r="Z74" s="54"/>
-      <c r="AA74" s="54"/>
-      <c r="AB74" s="54"/>
-      <c r="AC74" s="54"/>
-      <c r="AD74" s="54"/>
-      <c r="AE74" s="54"/>
-      <c r="AF74" s="60"/>
-      <c r="AG74" s="60"/>
-      <c r="AH74" s="60"/>
-      <c r="AI74" s="60"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="53"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="53"/>
+      <c r="R74" s="53"/>
+      <c r="S74" s="53"/>
+      <c r="T74" s="53"/>
+      <c r="U74" s="53"/>
+      <c r="V74" s="53"/>
+      <c r="W74" s="53"/>
+      <c r="X74" s="53"/>
+      <c r="Y74" s="53"/>
+      <c r="Z74" s="53"/>
+      <c r="AA74" s="53"/>
+      <c r="AB74" s="53"/>
+      <c r="AC74" s="53"/>
+      <c r="AD74" s="53"/>
+      <c r="AE74" s="53"/>
+      <c r="AF74" s="58"/>
+      <c r="AG74" s="58"/>
+      <c r="AH74" s="58"/>
+      <c r="AI74" s="58"/>
     </row>
     <row r="75" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="89"/>
-      <c r="B75" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="85" t="s">
+      <c r="A75" s="90"/>
+      <c r="B75" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="87"/>
+      <c r="E75" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="86"/>
-      <c r="E75" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F75" s="93"/>
-      <c r="G75" s="141"/>
-      <c r="H75" s="55" t="str">
+      <c r="F75" s="94"/>
+      <c r="G75" s="142"/>
+      <c r="H75" s="54" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I75" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J75" s="55">
+      <c r="I75" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="54">
         <v>5</v>
       </c>
       <c r="K75" s="9">
         <f t="shared" si="21"/>
         <v>1.25</v>
       </c>
-      <c r="L75" s="51"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52">
+      <c r="L75" s="50"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51">
         <v>1.25</v>
       </c>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="52"/>
-      <c r="S75" s="52"/>
-      <c r="T75" s="52"/>
-      <c r="U75" s="52"/>
-      <c r="V75" s="52"/>
-      <c r="W75" s="52"/>
-      <c r="X75" s="52"/>
-      <c r="Y75" s="52"/>
-      <c r="Z75" s="52"/>
-      <c r="AA75" s="52"/>
-      <c r="AB75" s="52"/>
-      <c r="AC75" s="52"/>
-      <c r="AD75" s="52"/>
-      <c r="AE75" s="52"/>
-      <c r="AF75" s="60"/>
-      <c r="AG75" s="60"/>
-      <c r="AH75" s="60"/>
-      <c r="AI75" s="60"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+      <c r="T75" s="51"/>
+      <c r="U75" s="51"/>
+      <c r="V75" s="51"/>
+      <c r="W75" s="51"/>
+      <c r="X75" s="51"/>
+      <c r="Y75" s="51"/>
+      <c r="Z75" s="51"/>
+      <c r="AA75" s="51"/>
+      <c r="AB75" s="51"/>
+      <c r="AC75" s="51"/>
+      <c r="AD75" s="51"/>
+      <c r="AE75" s="51"/>
+      <c r="AF75" s="58"/>
+      <c r="AG75" s="58"/>
+      <c r="AH75" s="58"/>
+      <c r="AI75" s="58"/>
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="90"/>
-      <c r="B76" s="92"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="94"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="56" t="str">
+      <c r="A76" s="91"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="68" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
       <c r="K76" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L76" s="53"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="54"/>
-      <c r="T76" s="54"/>
-      <c r="U76" s="54"/>
-      <c r="V76" s="54"/>
-      <c r="W76" s="54"/>
-      <c r="X76" s="54"/>
-      <c r="Y76" s="54"/>
-      <c r="Z76" s="54"/>
-      <c r="AA76" s="54"/>
-      <c r="AB76" s="54"/>
-      <c r="AC76" s="54"/>
-      <c r="AD76" s="54"/>
-      <c r="AE76" s="54"/>
-      <c r="AF76" s="60"/>
-      <c r="AG76" s="60"/>
-      <c r="AH76" s="60"/>
-      <c r="AI76" s="60"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="53"/>
+      <c r="Q76" s="53"/>
+      <c r="R76" s="53"/>
+      <c r="S76" s="53"/>
+      <c r="T76" s="53"/>
+      <c r="U76" s="53"/>
+      <c r="V76" s="53"/>
+      <c r="W76" s="53"/>
+      <c r="X76" s="53"/>
+      <c r="Y76" s="53"/>
+      <c r="Z76" s="53"/>
+      <c r="AA76" s="53"/>
+      <c r="AB76" s="53"/>
+      <c r="AC76" s="53"/>
+      <c r="AD76" s="53"/>
+      <c r="AE76" s="53"/>
+      <c r="AF76" s="58"/>
+      <c r="AG76" s="58"/>
+      <c r="AH76" s="58"/>
+      <c r="AI76" s="58"/>
     </row>
     <row r="77" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="89"/>
-      <c r="B77" s="91" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="86"/>
-      <c r="E77" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" s="93"/>
-      <c r="G77" s="141"/>
-      <c r="H77" s="55" t="str">
+      <c r="A77" s="90"/>
+      <c r="B77" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="87"/>
+      <c r="E77" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="94"/>
+      <c r="G77" s="142"/>
+      <c r="H77" s="54" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I77" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J77" s="55">
+      <c r="I77" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="J77" s="54">
         <v>1</v>
       </c>
       <c r="K77" s="9">
         <f t="shared" si="21"/>
         <v>0.2</v>
       </c>
-      <c r="L77" s="51"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52">
+      <c r="L77" s="50"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51">
         <v>0.2</v>
       </c>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="52"/>
-      <c r="S77" s="52"/>
-      <c r="T77" s="52"/>
-      <c r="U77" s="52"/>
-      <c r="V77" s="52"/>
-      <c r="W77" s="52"/>
-      <c r="X77" s="52"/>
-      <c r="Y77" s="52"/>
-      <c r="Z77" s="52"/>
-      <c r="AA77" s="52"/>
-      <c r="AB77" s="52"/>
-      <c r="AC77" s="52"/>
-      <c r="AD77" s="52"/>
-      <c r="AE77" s="52"/>
-      <c r="AF77" s="60"/>
-      <c r="AG77" s="60"/>
-      <c r="AH77" s="60"/>
-      <c r="AI77" s="60"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+      <c r="T77" s="51"/>
+      <c r="U77" s="51"/>
+      <c r="V77" s="51"/>
+      <c r="W77" s="51"/>
+      <c r="X77" s="51"/>
+      <c r="Y77" s="51"/>
+      <c r="Z77" s="51"/>
+      <c r="AA77" s="51"/>
+      <c r="AB77" s="51"/>
+      <c r="AC77" s="51"/>
+      <c r="AD77" s="51"/>
+      <c r="AE77" s="51"/>
+      <c r="AF77" s="58"/>
+      <c r="AG77" s="58"/>
+      <c r="AH77" s="58"/>
+      <c r="AI77" s="58"/>
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="90"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="87"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="94"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="56" t="str">
+      <c r="A78" s="91"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="93"/>
+      <c r="H78" s="68" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="68"/>
       <c r="K78" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L78" s="57"/>
-      <c r="M78" s="58"/>
-      <c r="N78" s="58"/>
-      <c r="O78" s="58"/>
-      <c r="P78" s="58"/>
-      <c r="Q78" s="58"/>
-      <c r="R78" s="58"/>
-      <c r="S78" s="58"/>
-      <c r="T78" s="58"/>
-      <c r="U78" s="58"/>
-      <c r="V78" s="58"/>
-      <c r="W78" s="58"/>
-      <c r="X78" s="58"/>
-      <c r="Y78" s="58"/>
-      <c r="Z78" s="58"/>
-      <c r="AA78" s="58"/>
-      <c r="AB78" s="58"/>
-      <c r="AC78" s="58"/>
-      <c r="AD78" s="58"/>
-      <c r="AE78" s="58"/>
-      <c r="AF78" s="60"/>
-      <c r="AG78" s="60"/>
-      <c r="AH78" s="60"/>
-      <c r="AI78" s="60"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="56"/>
+      <c r="P78" s="56"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="56"/>
+      <c r="U78" s="56"/>
+      <c r="V78" s="56"/>
+      <c r="W78" s="56"/>
+      <c r="X78" s="56"/>
+      <c r="Y78" s="56"/>
+      <c r="Z78" s="56"/>
+      <c r="AA78" s="56"/>
+      <c r="AB78" s="56"/>
+      <c r="AC78" s="56"/>
+      <c r="AD78" s="56"/>
+      <c r="AE78" s="56"/>
+      <c r="AF78" s="58"/>
+      <c r="AG78" s="58"/>
+      <c r="AH78" s="58"/>
+      <c r="AI78" s="58"/>
     </row>
     <row r="79" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" s="96"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="101"/>
-      <c r="F79" s="101"/>
-      <c r="G79" s="135"/>
+      <c r="A79" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="136"/>
       <c r="H79" s="20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
-      <c r="K79" s="67" cm="1">
+      <c r="K79" s="65" cm="1">
         <f t="array" ref="K79">SUMPRODUCT((MOD(ROW(K$81:K$86),2)=1)*K$81:K$86)</f>
         <v>16</v>
       </c>
-      <c r="L79" s="66" cm="1">
+      <c r="L79" s="64" cm="1">
         <f t="array" ref="L79">SUMPRODUCT((MOD(ROW(L$81:L$86),2)=1)*L$81:L$86)</f>
         <v>0</v>
       </c>
-      <c r="M79" s="66" cm="1">
+      <c r="M79" s="64" cm="1">
         <f t="array" ref="M79">SUMPRODUCT((MOD(ROW(M$81:M$86),2)=1)*M$81:M$86)</f>
         <v>0</v>
       </c>
-      <c r="N79" s="66" cm="1">
+      <c r="N79" s="64" cm="1">
         <f t="array" ref="N79">SUMPRODUCT((MOD(ROW(N$81:N$86),2)=1)*N$81:N$86)</f>
         <v>0</v>
       </c>
-      <c r="O79" s="66" cm="1">
+      <c r="O79" s="64" cm="1">
         <f t="array" ref="O79">SUMPRODUCT((MOD(ROW(O$81:O$86),2)=1)*O$81:O$86)</f>
         <v>6</v>
       </c>
-      <c r="P79" s="66" cm="1">
+      <c r="P79" s="64" cm="1">
         <f t="array" ref="P79">SUMPRODUCT((MOD(ROW(P$81:P$86),2)=1)*P$81:P$86)</f>
         <v>10</v>
       </c>
-      <c r="Q79" s="66" cm="1">
+      <c r="Q79" s="64" cm="1">
         <f t="array" ref="Q79">SUMPRODUCT((MOD(ROW(Q$81:Q$86),2)=1)*Q$81:Q$86)</f>
         <v>0</v>
       </c>
-      <c r="R79" s="66" cm="1">
+      <c r="R79" s="64" cm="1">
         <f t="array" ref="R79">SUMPRODUCT((MOD(ROW(R$81:R$86),2)=1)*R$81:R$86)</f>
         <v>0</v>
       </c>
-      <c r="S79" s="66" cm="1">
+      <c r="S79" s="64" cm="1">
         <f t="array" ref="S79">SUMPRODUCT((MOD(ROW(S$81:S$86),2)=1)*S$81:S$86)</f>
         <v>0</v>
       </c>
-      <c r="T79" s="66" cm="1">
+      <c r="T79" s="64" cm="1">
         <f t="array" ref="T79">SUMPRODUCT((MOD(ROW(T$81:T$86),2)=1)*T$81:T$86)</f>
         <v>0</v>
       </c>
-      <c r="U79" s="66" cm="1">
+      <c r="U79" s="64" cm="1">
         <f t="array" ref="U79">SUMPRODUCT((MOD(ROW(U$81:U$86),2)=1)*U$81:U$86)</f>
         <v>0</v>
       </c>
-      <c r="V79" s="66" cm="1">
+      <c r="V79" s="64" cm="1">
         <f t="array" ref="V79">SUMPRODUCT((MOD(ROW(V$81:V$86),2)=1)*V$81:V$86)</f>
         <v>0</v>
       </c>
-      <c r="W79" s="66" cm="1">
+      <c r="W79" s="64" cm="1">
         <f t="array" ref="W79">SUMPRODUCT((MOD(ROW(W$81:W$86),2)=1)*W$81:W$86)</f>
         <v>0</v>
       </c>
-      <c r="X79" s="66" cm="1">
+      <c r="X79" s="64" cm="1">
         <f t="array" ref="X79">SUMPRODUCT((MOD(ROW(X$81:X$86),2)=1)*X$81:X$86)</f>
         <v>0</v>
       </c>
-      <c r="Y79" s="66" cm="1">
+      <c r="Y79" s="64" cm="1">
         <f t="array" ref="Y79">SUMPRODUCT((MOD(ROW(Y$81:Y$86),2)=1)*Y$81:Y$86)</f>
         <v>0</v>
       </c>
-      <c r="Z79" s="66" cm="1">
+      <c r="Z79" s="64" cm="1">
         <f t="array" ref="Z79">SUMPRODUCT((MOD(ROW(Z$81:Z$86),2)=1)*Z$81:Z$86)</f>
         <v>0</v>
       </c>
-      <c r="AA79" s="66" cm="1">
+      <c r="AA79" s="64" cm="1">
         <f t="array" ref="AA79">SUMPRODUCT((MOD(ROW(AA$81:AA$86),2)=1)*AA$81:AA$86)</f>
         <v>0</v>
       </c>
-      <c r="AB79" s="66" cm="1">
+      <c r="AB79" s="64" cm="1">
         <f t="array" ref="AB79">SUMPRODUCT((MOD(ROW(AB$81:AB$86),2)=1)*AB$81:AB$86)</f>
         <v>0</v>
       </c>
-      <c r="AC79" s="66" cm="1">
+      <c r="AC79" s="64" cm="1">
         <f t="array" ref="AC79">SUMPRODUCT((MOD(ROW(AC$81:AC$86),2)=1)*AC$81:AC$86)</f>
         <v>0</v>
       </c>
-      <c r="AD79" s="66" cm="1">
+      <c r="AD79" s="64" cm="1">
         <f t="array" ref="AD79">SUMPRODUCT((MOD(ROW(AD$81:AD$86),2)=1)*AD$81:AD$86)</f>
         <v>0</v>
       </c>
-      <c r="AE79" s="66" cm="1">
+      <c r="AE79" s="64" cm="1">
         <f t="array" ref="AE79">SUMPRODUCT((MOD(ROW(AE$81:AE$86),2)=1)*AE$81:AE$86)</f>
         <v>0</v>
       </c>
-      <c r="AF79" s="60"/>
-      <c r="AG79" s="60"/>
-      <c r="AH79" s="60"/>
-      <c r="AI79" s="60"/>
+      <c r="AF79" s="58"/>
+      <c r="AG79" s="58"/>
+      <c r="AH79" s="58"/>
+      <c r="AI79" s="58"/>
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="98"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="100"/>
-      <c r="E80" s="102"/>
-      <c r="F80" s="102"/>
-      <c r="G80" s="136"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="137"/>
       <c r="H80" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" s="68" cm="1">
+      <c r="K80" s="66" cm="1">
         <f t="array" ref="K80">SUMPRODUCT((MOD(ROW(K$81:K$86),2)=0)*K$81:K$86)</f>
         <v>0</v>
       </c>
@@ -7079,25 +7162,25 @@
         <f t="array" ref="AE80">SUMPRODUCT((MOD(ROW(AE$81:AE$86),2)=0)*AE$81:AE$86)</f>
         <v>0</v>
       </c>
-      <c r="AF80" s="60"/>
-      <c r="AG80" s="60"/>
-      <c r="AH80" s="60"/>
-      <c r="AI80" s="60"/>
+      <c r="AF80" s="58"/>
+      <c r="AG80" s="58"/>
+      <c r="AH80" s="58"/>
+      <c r="AI80" s="58"/>
     </row>
     <row r="81" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="89">
+      <c r="A81" s="90">
         <v>1</v>
       </c>
-      <c r="B81" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="103"/>
-      <c r="D81" s="86"/>
-      <c r="E81" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="F81" s="80"/>
-      <c r="G81" s="78"/>
+      <c r="B81" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="104"/>
+      <c r="D81" s="87"/>
+      <c r="E81" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" s="81"/>
+      <c r="G81" s="79"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -7105,39 +7188,39 @@
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
       <c r="K81" s="26"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="52"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
-      <c r="R81" s="52"/>
-      <c r="S81" s="52"/>
-      <c r="T81" s="52"/>
-      <c r="U81" s="52"/>
-      <c r="V81" s="52"/>
-      <c r="W81" s="52"/>
-      <c r="X81" s="52"/>
-      <c r="Y81" s="52"/>
-      <c r="Z81" s="52"/>
-      <c r="AA81" s="52"/>
-      <c r="AB81" s="52"/>
-      <c r="AC81" s="52"/>
-      <c r="AD81" s="52"/>
-      <c r="AE81" s="52"/>
-      <c r="AF81" s="60"/>
-      <c r="AG81" s="60"/>
-      <c r="AH81" s="60"/>
-      <c r="AI81" s="60"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51"/>
+      <c r="T81" s="51"/>
+      <c r="U81" s="51"/>
+      <c r="V81" s="51"/>
+      <c r="W81" s="51"/>
+      <c r="X81" s="51"/>
+      <c r="Y81" s="51"/>
+      <c r="Z81" s="51"/>
+      <c r="AA81" s="51"/>
+      <c r="AB81" s="51"/>
+      <c r="AC81" s="51"/>
+      <c r="AD81" s="51"/>
+      <c r="AE81" s="51"/>
+      <c r="AF81" s="58"/>
+      <c r="AG81" s="58"/>
+      <c r="AH81" s="58"/>
+      <c r="AI81" s="58"/>
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="90"/>
-      <c r="B82" s="87"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="88"/>
-      <c r="E82" s="81"/>
-      <c r="F82" s="81"/>
-      <c r="G82" s="79"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="80"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -7145,245 +7228,245 @@
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
       <c r="K82" s="27"/>
-      <c r="L82" s="53"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="54"/>
-      <c r="P82" s="54"/>
-      <c r="Q82" s="54"/>
-      <c r="R82" s="54"/>
-      <c r="S82" s="54"/>
-      <c r="T82" s="54"/>
-      <c r="U82" s="54"/>
-      <c r="V82" s="54"/>
-      <c r="W82" s="54"/>
-      <c r="X82" s="54"/>
-      <c r="Y82" s="54"/>
-      <c r="Z82" s="54"/>
-      <c r="AA82" s="54"/>
-      <c r="AB82" s="54"/>
-      <c r="AC82" s="54"/>
-      <c r="AD82" s="54"/>
-      <c r="AE82" s="54"/>
-      <c r="AF82" s="60"/>
-      <c r="AG82" s="60"/>
-      <c r="AH82" s="60"/>
-      <c r="AI82" s="60"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="53"/>
+      <c r="N82" s="53"/>
+      <c r="O82" s="53"/>
+      <c r="P82" s="53"/>
+      <c r="Q82" s="53"/>
+      <c r="R82" s="53"/>
+      <c r="S82" s="53"/>
+      <c r="T82" s="53"/>
+      <c r="U82" s="53"/>
+      <c r="V82" s="53"/>
+      <c r="W82" s="53"/>
+      <c r="X82" s="53"/>
+      <c r="Y82" s="53"/>
+      <c r="Z82" s="53"/>
+      <c r="AA82" s="53"/>
+      <c r="AB82" s="53"/>
+      <c r="AC82" s="53"/>
+      <c r="AD82" s="53"/>
+      <c r="AE82" s="53"/>
+      <c r="AF82" s="58"/>
+      <c r="AG82" s="58"/>
+      <c r="AH82" s="58"/>
+      <c r="AI82" s="58"/>
     </row>
     <row r="83" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="89"/>
-      <c r="B83" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="D83" s="86"/>
-      <c r="E83" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="93"/>
-      <c r="G83" s="141"/>
-      <c r="H83" s="55" t="str">
+      <c r="A83" s="90"/>
+      <c r="B83" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="87"/>
+      <c r="E83" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" s="94"/>
+      <c r="G83" s="142"/>
+      <c r="H83" s="54" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I83" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J83" s="55">
+      <c r="I83" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" s="54">
         <v>5</v>
       </c>
       <c r="K83" s="9">
         <f t="shared" ref="K83:K86" si="22">SUM(L83:W83)</f>
         <v>11</v>
       </c>
-      <c r="L83" s="51"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="52">
+      <c r="L83" s="50"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
+      <c r="O83" s="51">
         <v>6</v>
       </c>
-      <c r="P83" s="52">
+      <c r="P83" s="51">
         <v>5</v>
       </c>
-      <c r="Q83" s="52"/>
-      <c r="R83" s="52"/>
-      <c r="S83" s="52"/>
-      <c r="T83" s="52"/>
-      <c r="U83" s="52"/>
-      <c r="V83" s="52"/>
-      <c r="W83" s="52"/>
-      <c r="X83" s="52"/>
-      <c r="Y83" s="52"/>
-      <c r="Z83" s="52"/>
-      <c r="AA83" s="52"/>
-      <c r="AB83" s="52"/>
-      <c r="AC83" s="52"/>
-      <c r="AD83" s="52"/>
-      <c r="AE83" s="52"/>
-      <c r="AF83" s="60"/>
-      <c r="AG83" s="60"/>
-      <c r="AH83" s="60"/>
-      <c r="AI83" s="60"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
+      <c r="T83" s="51"/>
+      <c r="U83" s="51"/>
+      <c r="V83" s="51"/>
+      <c r="W83" s="51"/>
+      <c r="X83" s="51"/>
+      <c r="Y83" s="51"/>
+      <c r="Z83" s="51"/>
+      <c r="AA83" s="51"/>
+      <c r="AB83" s="51"/>
+      <c r="AC83" s="51"/>
+      <c r="AD83" s="51"/>
+      <c r="AE83" s="51"/>
+      <c r="AF83" s="58"/>
+      <c r="AG83" s="58"/>
+      <c r="AH83" s="58"/>
+      <c r="AI83" s="58"/>
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="90"/>
-      <c r="B84" s="92"/>
-      <c r="C84" s="87"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="92"/>
-      <c r="H84" s="56" t="str">
+      <c r="A84" s="91"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="95"/>
+      <c r="F84" s="95"/>
+      <c r="G84" s="93"/>
+      <c r="H84" s="68" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
       <c r="K84" s="10">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L84" s="53"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="54"/>
-      <c r="P84" s="54"/>
-      <c r="Q84" s="54"/>
-      <c r="R84" s="54"/>
-      <c r="S84" s="54"/>
-      <c r="T84" s="54"/>
-      <c r="U84" s="54"/>
-      <c r="V84" s="54"/>
-      <c r="W84" s="54"/>
-      <c r="X84" s="54"/>
-      <c r="Y84" s="54"/>
-      <c r="Z84" s="54"/>
-      <c r="AA84" s="54"/>
-      <c r="AB84" s="54"/>
-      <c r="AC84" s="54"/>
-      <c r="AD84" s="54"/>
-      <c r="AE84" s="54"/>
-      <c r="AF84" s="60"/>
-      <c r="AG84" s="60"/>
-      <c r="AH84" s="60"/>
-      <c r="AI84" s="60"/>
+      <c r="L84" s="52"/>
+      <c r="M84" s="53"/>
+      <c r="N84" s="53"/>
+      <c r="O84" s="53"/>
+      <c r="P84" s="53"/>
+      <c r="Q84" s="53"/>
+      <c r="R84" s="53"/>
+      <c r="S84" s="53"/>
+      <c r="T84" s="53"/>
+      <c r="U84" s="53"/>
+      <c r="V84" s="53"/>
+      <c r="W84" s="53"/>
+      <c r="X84" s="53"/>
+      <c r="Y84" s="53"/>
+      <c r="Z84" s="53"/>
+      <c r="AA84" s="53"/>
+      <c r="AB84" s="53"/>
+      <c r="AC84" s="53"/>
+      <c r="AD84" s="53"/>
+      <c r="AE84" s="53"/>
+      <c r="AF84" s="58"/>
+      <c r="AG84" s="58"/>
+      <c r="AH84" s="58"/>
+      <c r="AI84" s="58"/>
     </row>
     <row r="85" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="89"/>
-      <c r="B85" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="86"/>
-      <c r="E85" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F85" s="93"/>
-      <c r="G85" s="141"/>
-      <c r="H85" s="55" t="str">
+      <c r="A85" s="90"/>
+      <c r="B85" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="87"/>
+      <c r="E85" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" s="94"/>
+      <c r="G85" s="142"/>
+      <c r="H85" s="54" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I85" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J85" s="55">
+      <c r="I85" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" s="54">
         <v>5</v>
       </c>
       <c r="K85" s="9">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="L85" s="51"/>
-      <c r="M85" s="52"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="52"/>
-      <c r="P85" s="52">
+      <c r="L85" s="50"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51">
         <v>5</v>
       </c>
-      <c r="Q85" s="52"/>
-      <c r="R85" s="52"/>
-      <c r="S85" s="52"/>
-      <c r="T85" s="52"/>
-      <c r="U85" s="52"/>
-      <c r="V85" s="52"/>
-      <c r="W85" s="52"/>
-      <c r="X85" s="52"/>
-      <c r="Y85" s="52"/>
-      <c r="Z85" s="52"/>
-      <c r="AA85" s="52"/>
-      <c r="AB85" s="52"/>
-      <c r="AC85" s="52"/>
-      <c r="AD85" s="52"/>
-      <c r="AE85" s="52"/>
-      <c r="AF85" s="60"/>
-      <c r="AG85" s="60"/>
-      <c r="AH85" s="60"/>
-      <c r="AI85" s="60"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
+      <c r="S85" s="51"/>
+      <c r="T85" s="51"/>
+      <c r="U85" s="51"/>
+      <c r="V85" s="51"/>
+      <c r="W85" s="51"/>
+      <c r="X85" s="51"/>
+      <c r="Y85" s="51"/>
+      <c r="Z85" s="51"/>
+      <c r="AA85" s="51"/>
+      <c r="AB85" s="51"/>
+      <c r="AC85" s="51"/>
+      <c r="AD85" s="51"/>
+      <c r="AE85" s="51"/>
+      <c r="AF85" s="58"/>
+      <c r="AG85" s="58"/>
+      <c r="AH85" s="58"/>
+      <c r="AI85" s="58"/>
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="90"/>
-      <c r="B86" s="92"/>
-      <c r="C86" s="87"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="56" t="str">
+      <c r="A86" s="91"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="93"/>
+      <c r="H86" s="68" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="68"/>
       <c r="K86" s="10">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L86" s="53"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="54"/>
-      <c r="P86" s="54"/>
-      <c r="Q86" s="54"/>
-      <c r="R86" s="54"/>
-      <c r="S86" s="54"/>
-      <c r="T86" s="54"/>
-      <c r="U86" s="54"/>
-      <c r="V86" s="54"/>
-      <c r="W86" s="54"/>
-      <c r="X86" s="54"/>
-      <c r="Y86" s="54"/>
-      <c r="Z86" s="54"/>
-      <c r="AA86" s="54"/>
-      <c r="AB86" s="54"/>
-      <c r="AC86" s="54"/>
-      <c r="AD86" s="54"/>
-      <c r="AE86" s="54"/>
-      <c r="AF86" s="60"/>
-      <c r="AG86" s="60"/>
-      <c r="AH86" s="60"/>
-      <c r="AI86" s="60"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="53"/>
+      <c r="N86" s="53"/>
+      <c r="O86" s="53"/>
+      <c r="P86" s="53"/>
+      <c r="Q86" s="53"/>
+      <c r="R86" s="53"/>
+      <c r="S86" s="53"/>
+      <c r="T86" s="53"/>
+      <c r="U86" s="53"/>
+      <c r="V86" s="53"/>
+      <c r="W86" s="53"/>
+      <c r="X86" s="53"/>
+      <c r="Y86" s="53"/>
+      <c r="Z86" s="53"/>
+      <c r="AA86" s="53"/>
+      <c r="AB86" s="53"/>
+      <c r="AC86" s="53"/>
+      <c r="AD86" s="53"/>
+      <c r="AE86" s="53"/>
+      <c r="AF86" s="58"/>
+      <c r="AG86" s="58"/>
+      <c r="AH86" s="58"/>
+      <c r="AI86" s="58"/>
     </row>
     <row r="87" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" s="96"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="101"/>
-      <c r="F87" s="101"/>
-      <c r="G87" s="135"/>
+      <c r="A87" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="136"/>
       <c r="H87" s="20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
-      <c r="K87" s="63" cm="1">
+      <c r="K87" s="61" cm="1">
         <f t="array" ref="K87">SUMPRODUCT((MOD(ROW(K$89:K$100),2)=1)*K$89:K$100)</f>
         <v>3.6500000000000004</v>
       </c>
@@ -7463,29 +7546,29 @@
         <f t="array" ref="AD87">SUMPRODUCT((MOD(ROW(AD$89:AD$100),2)=1)*AD$89:AD$100)</f>
         <v>0</v>
       </c>
-      <c r="AE87" s="61" cm="1">
+      <c r="AE87" s="59" cm="1">
         <f t="array" ref="AE87">SUMPRODUCT((MOD(ROW(AE$89:AE$100),2)=1)*AE$89:AE$100)</f>
         <v>0</v>
       </c>
-      <c r="AF87" s="60"/>
-      <c r="AG87" s="60"/>
-      <c r="AH87" s="60"/>
-      <c r="AI87" s="60"/>
+      <c r="AF87" s="58"/>
+      <c r="AG87" s="58"/>
+      <c r="AH87" s="58"/>
+      <c r="AI87" s="58"/>
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="98"/>
-      <c r="B88" s="99"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="100"/>
-      <c r="E88" s="102"/>
-      <c r="F88" s="102"/>
-      <c r="G88" s="136"/>
+      <c r="A88" s="99"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="100"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="137"/>
       <c r="H88" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="K88" s="64" cm="1">
+      <c r="K88" s="62" cm="1">
         <f t="array" ref="K88">SUMPRODUCT((MOD(ROW(K$89:K$100),2)=0)*K$89:K$100)</f>
         <v>0</v>
       </c>
@@ -7565,27 +7648,27 @@
         <f t="array" ref="AD88">SUMPRODUCT((MOD(ROW(AD$89:AD$100),2)=0)*AD$89:AD$100)</f>
         <v>0</v>
       </c>
-      <c r="AE88" s="62" cm="1">
+      <c r="AE88" s="60" cm="1">
         <f t="array" ref="AE88">SUMPRODUCT((MOD(ROW(AE$89:AE$100),2)=0)*AE$89:AE$100)</f>
         <v>0</v>
       </c>
-      <c r="AF88" s="60"/>
-      <c r="AG88" s="60"/>
-      <c r="AH88" s="60"/>
-      <c r="AI88" s="60"/>
+      <c r="AF88" s="58"/>
+      <c r="AG88" s="58"/>
+      <c r="AH88" s="58"/>
+      <c r="AI88" s="58"/>
     </row>
     <row r="89" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="89">
+      <c r="A89" s="90">
         <v>1</v>
       </c>
-      <c r="B89" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="103"/>
-      <c r="D89" s="86"/>
-      <c r="E89" s="80"/>
-      <c r="F89" s="80"/>
-      <c r="G89" s="78"/>
+      <c r="B89" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="104"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="79"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -7593,39 +7676,39 @@
       <c r="I89" s="24"/>
       <c r="J89" s="24"/>
       <c r="K89" s="26"/>
-      <c r="L89" s="51"/>
-      <c r="M89" s="52"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="52"/>
-      <c r="P89" s="52"/>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="52"/>
-      <c r="S89" s="52"/>
-      <c r="T89" s="52"/>
-      <c r="U89" s="52"/>
-      <c r="V89" s="52"/>
-      <c r="W89" s="52"/>
-      <c r="X89" s="52"/>
-      <c r="Y89" s="52"/>
-      <c r="Z89" s="52"/>
-      <c r="AA89" s="52"/>
-      <c r="AB89" s="52"/>
-      <c r="AC89" s="52"/>
-      <c r="AD89" s="52"/>
-      <c r="AE89" s="52"/>
-      <c r="AF89" s="60"/>
-      <c r="AG89" s="60"/>
-      <c r="AH89" s="60"/>
-      <c r="AI89" s="60"/>
+      <c r="L89" s="50"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="51"/>
+      <c r="T89" s="51"/>
+      <c r="U89" s="51"/>
+      <c r="V89" s="51"/>
+      <c r="W89" s="51"/>
+      <c r="X89" s="51"/>
+      <c r="Y89" s="51"/>
+      <c r="Z89" s="51"/>
+      <c r="AA89" s="51"/>
+      <c r="AB89" s="51"/>
+      <c r="AC89" s="51"/>
+      <c r="AD89" s="51"/>
+      <c r="AE89" s="51"/>
+      <c r="AF89" s="58"/>
+      <c r="AG89" s="58"/>
+      <c r="AH89" s="58"/>
+      <c r="AI89" s="58"/>
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="90"/>
-      <c r="B90" s="87"/>
-      <c r="C90" s="104"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="79"/>
+      <c r="A90" s="91"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="80"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -7633,239 +7716,239 @@
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
       <c r="K90" s="27"/>
-      <c r="L90" s="53"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="54"/>
-      <c r="O90" s="54"/>
-      <c r="P90" s="54"/>
-      <c r="Q90" s="54"/>
-      <c r="R90" s="54"/>
-      <c r="S90" s="54"/>
-      <c r="T90" s="54"/>
-      <c r="U90" s="54"/>
-      <c r="V90" s="54"/>
-      <c r="W90" s="54"/>
-      <c r="X90" s="54"/>
-      <c r="Y90" s="54"/>
-      <c r="Z90" s="54"/>
-      <c r="AA90" s="54"/>
-      <c r="AB90" s="54"/>
-      <c r="AC90" s="54"/>
-      <c r="AD90" s="54"/>
-      <c r="AE90" s="54"/>
-      <c r="AF90" s="60"/>
-      <c r="AG90" s="60"/>
-      <c r="AH90" s="60"/>
-      <c r="AI90" s="60"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="53"/>
+      <c r="N90" s="53"/>
+      <c r="O90" s="53"/>
+      <c r="P90" s="53"/>
+      <c r="Q90" s="53"/>
+      <c r="R90" s="53"/>
+      <c r="S90" s="53"/>
+      <c r="T90" s="53"/>
+      <c r="U90" s="53"/>
+      <c r="V90" s="53"/>
+      <c r="W90" s="53"/>
+      <c r="X90" s="53"/>
+      <c r="Y90" s="53"/>
+      <c r="Z90" s="53"/>
+      <c r="AA90" s="53"/>
+      <c r="AB90" s="53"/>
+      <c r="AC90" s="53"/>
+      <c r="AD90" s="53"/>
+      <c r="AE90" s="53"/>
+      <c r="AF90" s="58"/>
+      <c r="AG90" s="58"/>
+      <c r="AH90" s="58"/>
+      <c r="AI90" s="58"/>
     </row>
     <row r="91" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="89"/>
-      <c r="B91" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91" s="86"/>
-      <c r="E91" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F91" s="93"/>
-      <c r="G91" s="141"/>
-      <c r="H91" s="55" t="str">
+      <c r="A91" s="90"/>
+      <c r="B91" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="87"/>
+      <c r="E91" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" s="94"/>
+      <c r="G91" s="142"/>
+      <c r="H91" s="54" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I91" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="J91" s="55">
+      <c r="I91" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="J91" s="54">
         <v>4</v>
       </c>
       <c r="K91" s="9">
         <f>SUM(L91:W91)</f>
         <v>2</v>
       </c>
-      <c r="L91" s="51"/>
-      <c r="M91" s="52"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="52"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="52">
+      <c r="L91" s="50"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="51"/>
+      <c r="O91" s="51"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="51">
         <v>2</v>
       </c>
-      <c r="R91" s="52"/>
-      <c r="S91" s="52"/>
-      <c r="T91" s="52"/>
-      <c r="U91" s="52"/>
-      <c r="V91" s="52"/>
-      <c r="W91" s="52"/>
-      <c r="X91" s="52"/>
-      <c r="Y91" s="52"/>
-      <c r="Z91" s="52"/>
-      <c r="AA91" s="52"/>
-      <c r="AB91" s="52"/>
-      <c r="AC91" s="52"/>
-      <c r="AD91" s="52"/>
-      <c r="AE91" s="52"/>
-      <c r="AF91" s="60"/>
-      <c r="AG91" s="60"/>
-      <c r="AH91" s="60"/>
-      <c r="AI91" s="60"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="51"/>
+      <c r="T91" s="51"/>
+      <c r="U91" s="51"/>
+      <c r="V91" s="51"/>
+      <c r="W91" s="51"/>
+      <c r="X91" s="51"/>
+      <c r="Y91" s="51"/>
+      <c r="Z91" s="51"/>
+      <c r="AA91" s="51"/>
+      <c r="AB91" s="51"/>
+      <c r="AC91" s="51"/>
+      <c r="AD91" s="51"/>
+      <c r="AE91" s="51"/>
+      <c r="AF91" s="58"/>
+      <c r="AG91" s="58"/>
+      <c r="AH91" s="58"/>
+      <c r="AI91" s="58"/>
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="90"/>
-      <c r="B92" s="92"/>
-      <c r="C92" s="87"/>
-      <c r="D92" s="88"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="92"/>
-      <c r="H92" s="56" t="str">
+      <c r="A92" s="91"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="95"/>
+      <c r="F92" s="95"/>
+      <c r="G92" s="93"/>
+      <c r="H92" s="68" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
       <c r="K92" s="10">
         <f>SUM(L92:W92)</f>
         <v>0</v>
       </c>
-      <c r="L92" s="53"/>
-      <c r="M92" s="54"/>
-      <c r="N92" s="54"/>
-      <c r="O92" s="54"/>
-      <c r="P92" s="54"/>
-      <c r="Q92" s="54"/>
-      <c r="R92" s="54"/>
-      <c r="S92" s="54"/>
-      <c r="T92" s="54"/>
-      <c r="U92" s="54"/>
-      <c r="V92" s="54"/>
-      <c r="W92" s="54"/>
-      <c r="X92" s="54"/>
-      <c r="Y92" s="54"/>
-      <c r="Z92" s="54"/>
-      <c r="AA92" s="54"/>
-      <c r="AB92" s="54"/>
-      <c r="AC92" s="54"/>
-      <c r="AD92" s="54"/>
-      <c r="AE92" s="54"/>
-      <c r="AF92" s="60"/>
-      <c r="AG92" s="60"/>
-      <c r="AH92" s="60"/>
-      <c r="AI92" s="60"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="53"/>
+      <c r="N92" s="53"/>
+      <c r="O92" s="53"/>
+      <c r="P92" s="53"/>
+      <c r="Q92" s="53"/>
+      <c r="R92" s="53"/>
+      <c r="S92" s="53"/>
+      <c r="T92" s="53"/>
+      <c r="U92" s="53"/>
+      <c r="V92" s="53"/>
+      <c r="W92" s="53"/>
+      <c r="X92" s="53"/>
+      <c r="Y92" s="53"/>
+      <c r="Z92" s="53"/>
+      <c r="AA92" s="53"/>
+      <c r="AB92" s="53"/>
+      <c r="AC92" s="53"/>
+      <c r="AD92" s="53"/>
+      <c r="AE92" s="53"/>
+      <c r="AF92" s="58"/>
+      <c r="AG92" s="58"/>
+      <c r="AH92" s="58"/>
+      <c r="AI92" s="58"/>
     </row>
     <row r="93" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="89"/>
-      <c r="B93" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D93" s="86"/>
-      <c r="E93" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F93" s="93"/>
-      <c r="G93" s="141"/>
-      <c r="H93" s="55" t="str">
+      <c r="A93" s="90"/>
+      <c r="B93" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" s="87"/>
+      <c r="E93" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F93" s="94"/>
+      <c r="G93" s="142"/>
+      <c r="H93" s="54" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I93" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="J93" s="55">
+      <c r="I93" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J93" s="54">
         <v>1</v>
       </c>
       <c r="K93" s="9">
         <f>SUM(L93:W93)</f>
         <v>0.2</v>
       </c>
-      <c r="L93" s="51"/>
-      <c r="M93" s="52"/>
-      <c r="N93" s="52"/>
-      <c r="O93" s="52"/>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="52">
+      <c r="L93" s="50"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51">
         <v>0.2</v>
       </c>
-      <c r="R93" s="52"/>
-      <c r="S93" s="52"/>
-      <c r="T93" s="52"/>
-      <c r="U93" s="52"/>
-      <c r="V93" s="52"/>
-      <c r="W93" s="52"/>
-      <c r="X93" s="52"/>
-      <c r="Y93" s="52"/>
-      <c r="Z93" s="52"/>
-      <c r="AA93" s="52"/>
-      <c r="AB93" s="52"/>
-      <c r="AC93" s="52"/>
-      <c r="AD93" s="52"/>
-      <c r="AE93" s="52"/>
-      <c r="AF93" s="60"/>
-      <c r="AG93" s="60"/>
-      <c r="AH93" s="60"/>
-      <c r="AI93" s="60"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="51"/>
+      <c r="T93" s="51"/>
+      <c r="U93" s="51"/>
+      <c r="V93" s="51"/>
+      <c r="W93" s="51"/>
+      <c r="X93" s="51"/>
+      <c r="Y93" s="51"/>
+      <c r="Z93" s="51"/>
+      <c r="AA93" s="51"/>
+      <c r="AB93" s="51"/>
+      <c r="AC93" s="51"/>
+      <c r="AD93" s="51"/>
+      <c r="AE93" s="51"/>
+      <c r="AF93" s="58"/>
+      <c r="AG93" s="58"/>
+      <c r="AH93" s="58"/>
+      <c r="AI93" s="58"/>
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="90"/>
-      <c r="B94" s="92"/>
-      <c r="C94" s="87"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="94"/>
-      <c r="F94" s="94"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="56" t="str">
+      <c r="A94" s="91"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="95"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="68" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I94" s="56"/>
-      <c r="J94" s="56"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="68"/>
       <c r="K94" s="10">
         <f>SUM(L94:W94)</f>
         <v>0</v>
       </c>
-      <c r="L94" s="53"/>
-      <c r="M94" s="54"/>
-      <c r="N94" s="54"/>
-      <c r="O94" s="54"/>
-      <c r="P94" s="54"/>
-      <c r="Q94" s="54"/>
-      <c r="R94" s="54"/>
-      <c r="S94" s="54"/>
-      <c r="T94" s="54"/>
-      <c r="U94" s="54"/>
-      <c r="V94" s="54"/>
-      <c r="W94" s="54"/>
-      <c r="X94" s="54"/>
-      <c r="Y94" s="54"/>
-      <c r="Z94" s="54"/>
-      <c r="AA94" s="54"/>
-      <c r="AB94" s="54"/>
-      <c r="AC94" s="54"/>
-      <c r="AD94" s="54"/>
-      <c r="AE94" s="54"/>
-      <c r="AF94" s="60"/>
-      <c r="AG94" s="60"/>
-      <c r="AH94" s="60"/>
-      <c r="AI94" s="60"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="53"/>
+      <c r="N94" s="53"/>
+      <c r="O94" s="53"/>
+      <c r="P94" s="53"/>
+      <c r="Q94" s="53"/>
+      <c r="R94" s="53"/>
+      <c r="S94" s="53"/>
+      <c r="T94" s="53"/>
+      <c r="U94" s="53"/>
+      <c r="V94" s="53"/>
+      <c r="W94" s="53"/>
+      <c r="X94" s="53"/>
+      <c r="Y94" s="53"/>
+      <c r="Z94" s="53"/>
+      <c r="AA94" s="53"/>
+      <c r="AB94" s="53"/>
+      <c r="AC94" s="53"/>
+      <c r="AD94" s="53"/>
+      <c r="AE94" s="53"/>
+      <c r="AF94" s="58"/>
+      <c r="AG94" s="58"/>
+      <c r="AH94" s="58"/>
+      <c r="AI94" s="58"/>
     </row>
     <row r="95" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="89">
+      <c r="A95" s="90">
         <v>2</v>
       </c>
-      <c r="B95" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" s="103"/>
-      <c r="D95" s="86"/>
-      <c r="E95" s="80"/>
-      <c r="F95" s="80"/>
-      <c r="G95" s="78"/>
+      <c r="B95" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="104"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="79"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -7873,39 +7956,39 @@
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
       <c r="K95" s="26"/>
-      <c r="L95" s="51"/>
-      <c r="M95" s="52"/>
-      <c r="N95" s="52"/>
-      <c r="O95" s="52"/>
-      <c r="P95" s="52"/>
-      <c r="Q95" s="52"/>
-      <c r="R95" s="52"/>
-      <c r="S95" s="52"/>
-      <c r="T95" s="52"/>
-      <c r="U95" s="52"/>
-      <c r="V95" s="52"/>
-      <c r="W95" s="52"/>
-      <c r="X95" s="52"/>
-      <c r="Y95" s="52"/>
-      <c r="Z95" s="52"/>
-      <c r="AA95" s="52"/>
-      <c r="AB95" s="52"/>
-      <c r="AC95" s="52"/>
-      <c r="AD95" s="52"/>
-      <c r="AE95" s="52"/>
-      <c r="AF95" s="60"/>
-      <c r="AG95" s="60"/>
-      <c r="AH95" s="60"/>
-      <c r="AI95" s="60"/>
+      <c r="L95" s="50"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+      <c r="P95" s="51"/>
+      <c r="Q95" s="51"/>
+      <c r="R95" s="51"/>
+      <c r="S95" s="51"/>
+      <c r="T95" s="51"/>
+      <c r="U95" s="51"/>
+      <c r="V95" s="51"/>
+      <c r="W95" s="51"/>
+      <c r="X95" s="51"/>
+      <c r="Y95" s="51"/>
+      <c r="Z95" s="51"/>
+      <c r="AA95" s="51"/>
+      <c r="AB95" s="51"/>
+      <c r="AC95" s="51"/>
+      <c r="AD95" s="51"/>
+      <c r="AE95" s="51"/>
+      <c r="AF95" s="58"/>
+      <c r="AG95" s="58"/>
+      <c r="AH95" s="58"/>
+      <c r="AI95" s="58"/>
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="90"/>
-      <c r="B96" s="87"/>
-      <c r="C96" s="104"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="81"/>
-      <c r="F96" s="81"/>
-      <c r="G96" s="79"/>
+      <c r="A96" s="91"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="80"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -7913,243 +7996,243 @@
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
       <c r="K96" s="27"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="54"/>
-      <c r="N96" s="54"/>
-      <c r="O96" s="54"/>
-      <c r="P96" s="54"/>
-      <c r="Q96" s="54"/>
-      <c r="R96" s="54"/>
-      <c r="S96" s="54"/>
-      <c r="T96" s="54"/>
-      <c r="U96" s="54"/>
-      <c r="V96" s="54"/>
-      <c r="W96" s="54"/>
-      <c r="X96" s="54"/>
-      <c r="Y96" s="54"/>
-      <c r="Z96" s="54"/>
-      <c r="AA96" s="54"/>
-      <c r="AB96" s="54"/>
-      <c r="AC96" s="54"/>
-      <c r="AD96" s="54"/>
-      <c r="AE96" s="54"/>
-      <c r="AF96" s="60"/>
-      <c r="AG96" s="60"/>
-      <c r="AH96" s="60"/>
-      <c r="AI96" s="60"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="53"/>
+      <c r="N96" s="53"/>
+      <c r="O96" s="53"/>
+      <c r="P96" s="53"/>
+      <c r="Q96" s="53"/>
+      <c r="R96" s="53"/>
+      <c r="S96" s="53"/>
+      <c r="T96" s="53"/>
+      <c r="U96" s="53"/>
+      <c r="V96" s="53"/>
+      <c r="W96" s="53"/>
+      <c r="X96" s="53"/>
+      <c r="Y96" s="53"/>
+      <c r="Z96" s="53"/>
+      <c r="AA96" s="53"/>
+      <c r="AB96" s="53"/>
+      <c r="AC96" s="53"/>
+      <c r="AD96" s="53"/>
+      <c r="AE96" s="53"/>
+      <c r="AF96" s="58"/>
+      <c r="AG96" s="58"/>
+      <c r="AH96" s="58"/>
+      <c r="AI96" s="58"/>
     </row>
     <row r="97" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="89"/>
-      <c r="B97" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D97" s="86"/>
-      <c r="E97" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F97" s="93"/>
-      <c r="G97" s="141"/>
-      <c r="H97" s="55" t="str">
+      <c r="A97" s="90"/>
+      <c r="B97" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" s="87"/>
+      <c r="E97" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="94"/>
+      <c r="G97" s="142"/>
+      <c r="H97" s="54" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I97" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J97" s="55">
+      <c r="I97" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" s="54">
         <v>5</v>
       </c>
       <c r="K97" s="9">
         <f>SUM(L97:W97)</f>
         <v>1.25</v>
       </c>
-      <c r="L97" s="51"/>
-      <c r="M97" s="52"/>
-      <c r="N97" s="52"/>
-      <c r="O97" s="52"/>
-      <c r="P97" s="52"/>
-      <c r="Q97" s="52">
+      <c r="L97" s="50"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="51"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="51">
         <v>1.25</v>
       </c>
-      <c r="R97" s="52"/>
-      <c r="S97" s="52"/>
-      <c r="T97" s="52"/>
-      <c r="U97" s="52"/>
-      <c r="V97" s="52"/>
-      <c r="W97" s="52"/>
-      <c r="X97" s="52"/>
-      <c r="Y97" s="52"/>
-      <c r="Z97" s="52"/>
-      <c r="AA97" s="52"/>
-      <c r="AB97" s="52"/>
-      <c r="AC97" s="52"/>
-      <c r="AD97" s="52"/>
-      <c r="AE97" s="52"/>
-      <c r="AF97" s="60"/>
-      <c r="AG97" s="60"/>
-      <c r="AH97" s="60"/>
-      <c r="AI97" s="60"/>
+      <c r="R97" s="51"/>
+      <c r="S97" s="51"/>
+      <c r="T97" s="51"/>
+      <c r="U97" s="51"/>
+      <c r="V97" s="51"/>
+      <c r="W97" s="51"/>
+      <c r="X97" s="51"/>
+      <c r="Y97" s="51"/>
+      <c r="Z97" s="51"/>
+      <c r="AA97" s="51"/>
+      <c r="AB97" s="51"/>
+      <c r="AC97" s="51"/>
+      <c r="AD97" s="51"/>
+      <c r="AE97" s="51"/>
+      <c r="AF97" s="58"/>
+      <c r="AG97" s="58"/>
+      <c r="AH97" s="58"/>
+      <c r="AI97" s="58"/>
     </row>
     <row r="98" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="90"/>
-      <c r="B98" s="92"/>
-      <c r="C98" s="87"/>
-      <c r="D98" s="88"/>
-      <c r="E98" s="94"/>
-      <c r="F98" s="94"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="56" t="str">
+      <c r="A98" s="91"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="93"/>
+      <c r="H98" s="68" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I98" s="56"/>
-      <c r="J98" s="56"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="68"/>
       <c r="K98" s="10">
         <f>SUM(L98:W98)</f>
         <v>0</v>
       </c>
-      <c r="L98" s="53"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="54"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="54"/>
-      <c r="Q98" s="54"/>
-      <c r="R98" s="54"/>
-      <c r="S98" s="54"/>
-      <c r="T98" s="54"/>
-      <c r="U98" s="54"/>
-      <c r="V98" s="54"/>
-      <c r="W98" s="54"/>
-      <c r="X98" s="54"/>
-      <c r="Y98" s="54"/>
-      <c r="Z98" s="54"/>
-      <c r="AA98" s="54"/>
-      <c r="AB98" s="54"/>
-      <c r="AC98" s="54"/>
-      <c r="AD98" s="54"/>
-      <c r="AE98" s="54"/>
-      <c r="AF98" s="60"/>
-      <c r="AG98" s="60"/>
-      <c r="AH98" s="60"/>
-      <c r="AI98" s="60"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="53"/>
+      <c r="N98" s="53"/>
+      <c r="O98" s="53"/>
+      <c r="P98" s="53"/>
+      <c r="Q98" s="53"/>
+      <c r="R98" s="53"/>
+      <c r="S98" s="53"/>
+      <c r="T98" s="53"/>
+      <c r="U98" s="53"/>
+      <c r="V98" s="53"/>
+      <c r="W98" s="53"/>
+      <c r="X98" s="53"/>
+      <c r="Y98" s="53"/>
+      <c r="Z98" s="53"/>
+      <c r="AA98" s="53"/>
+      <c r="AB98" s="53"/>
+      <c r="AC98" s="53"/>
+      <c r="AD98" s="53"/>
+      <c r="AE98" s="53"/>
+      <c r="AF98" s="58"/>
+      <c r="AG98" s="58"/>
+      <c r="AH98" s="58"/>
+      <c r="AI98" s="58"/>
     </row>
     <row r="99" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="89"/>
-      <c r="B99" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="D99" s="86"/>
-      <c r="E99" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F99" s="93"/>
-      <c r="G99" s="141"/>
-      <c r="H99" s="55" t="str">
+      <c r="A99" s="90"/>
+      <c r="B99" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" s="87"/>
+      <c r="E99" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" s="94"/>
+      <c r="G99" s="142"/>
+      <c r="H99" s="54" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I99" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="J99" s="55">
+      <c r="I99" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J99" s="54">
         <v>1</v>
       </c>
       <c r="K99" s="9">
         <f>SUM(L99:W99)</f>
         <v>0.2</v>
       </c>
-      <c r="L99" s="51"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="52"/>
-      <c r="O99" s="52"/>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52">
+      <c r="L99" s="50"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="51">
         <v>0.2</v>
       </c>
-      <c r="R99" s="52"/>
-      <c r="S99" s="52"/>
-      <c r="T99" s="52"/>
-      <c r="U99" s="52"/>
-      <c r="V99" s="52"/>
-      <c r="W99" s="52"/>
-      <c r="X99" s="52"/>
-      <c r="Y99" s="52"/>
-      <c r="Z99" s="52"/>
-      <c r="AA99" s="52"/>
-      <c r="AB99" s="52"/>
-      <c r="AC99" s="52"/>
-      <c r="AD99" s="52"/>
-      <c r="AE99" s="52"/>
-      <c r="AF99" s="60"/>
-      <c r="AG99" s="60"/>
-      <c r="AH99" s="60"/>
-      <c r="AI99" s="60"/>
+      <c r="R99" s="51"/>
+      <c r="S99" s="51"/>
+      <c r="T99" s="51"/>
+      <c r="U99" s="51"/>
+      <c r="V99" s="51"/>
+      <c r="W99" s="51"/>
+      <c r="X99" s="51"/>
+      <c r="Y99" s="51"/>
+      <c r="Z99" s="51"/>
+      <c r="AA99" s="51"/>
+      <c r="AB99" s="51"/>
+      <c r="AC99" s="51"/>
+      <c r="AD99" s="51"/>
+      <c r="AE99" s="51"/>
+      <c r="AF99" s="58"/>
+      <c r="AG99" s="58"/>
+      <c r="AH99" s="58"/>
+      <c r="AI99" s="58"/>
     </row>
     <row r="100" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="90"/>
-      <c r="B100" s="92"/>
-      <c r="C100" s="87"/>
-      <c r="D100" s="88"/>
-      <c r="E100" s="94"/>
-      <c r="F100" s="94"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="56" t="str">
+      <c r="A100" s="91"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="88"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="93"/>
+      <c r="H100" s="68" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
+      <c r="I100" s="68"/>
+      <c r="J100" s="68"/>
       <c r="K100" s="10">
         <f>SUM(L100:W100)</f>
         <v>0</v>
       </c>
-      <c r="L100" s="53"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="54"/>
-      <c r="P100" s="54"/>
-      <c r="Q100" s="54"/>
-      <c r="R100" s="54"/>
-      <c r="S100" s="54"/>
-      <c r="T100" s="54"/>
-      <c r="U100" s="54"/>
-      <c r="V100" s="54"/>
-      <c r="W100" s="54"/>
-      <c r="X100" s="54"/>
-      <c r="Y100" s="54"/>
-      <c r="Z100" s="54"/>
-      <c r="AA100" s="54"/>
-      <c r="AB100" s="54"/>
-      <c r="AC100" s="54"/>
-      <c r="AD100" s="54"/>
-      <c r="AE100" s="54"/>
-      <c r="AF100" s="60"/>
-      <c r="AG100" s="60"/>
-      <c r="AH100" s="60"/>
-      <c r="AI100" s="60"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="53"/>
+      <c r="N100" s="53"/>
+      <c r="O100" s="53"/>
+      <c r="P100" s="53"/>
+      <c r="Q100" s="53"/>
+      <c r="R100" s="53"/>
+      <c r="S100" s="53"/>
+      <c r="T100" s="53"/>
+      <c r="U100" s="53"/>
+      <c r="V100" s="53"/>
+      <c r="W100" s="53"/>
+      <c r="X100" s="53"/>
+      <c r="Y100" s="53"/>
+      <c r="Z100" s="53"/>
+      <c r="AA100" s="53"/>
+      <c r="AB100" s="53"/>
+      <c r="AC100" s="53"/>
+      <c r="AD100" s="53"/>
+      <c r="AE100" s="53"/>
+      <c r="AF100" s="58"/>
+      <c r="AG100" s="58"/>
+      <c r="AH100" s="58"/>
+      <c r="AI100" s="58"/>
     </row>
     <row r="101" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" s="96"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="97"/>
-      <c r="E101" s="101"/>
-      <c r="F101" s="101"/>
-      <c r="G101" s="135"/>
+      <c r="A101" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="97"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="98"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="136"/>
       <c r="H101" s="20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
-      <c r="K101" s="65" cm="1">
+      <c r="K101" s="63" cm="1">
         <f t="array" ref="K101">SUMPRODUCT((MOD(ROW(K$103:K$114),2)=1)*K$103:K$114)</f>
         <v>3.95</v>
       </c>
@@ -8229,29 +8312,29 @@
         <f t="array" ref="AD101">SUMPRODUCT((MOD(ROW(AD$103:AD$114),2)=1)*AD$103:AD$114)</f>
         <v>0</v>
       </c>
-      <c r="AE101" s="61" cm="1">
+      <c r="AE101" s="59" cm="1">
         <f t="array" ref="AE101">SUMPRODUCT((MOD(ROW(AE$103:AE$114),2)=1)*AE$103:AE$114)</f>
         <v>0</v>
       </c>
-      <c r="AF101" s="60"/>
-      <c r="AG101" s="60"/>
-      <c r="AH101" s="60"/>
-      <c r="AI101" s="60"/>
+      <c r="AF101" s="58"/>
+      <c r="AG101" s="58"/>
+      <c r="AH101" s="58"/>
+      <c r="AI101" s="58"/>
     </row>
     <row r="102" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="98"/>
-      <c r="B102" s="99"/>
-      <c r="C102" s="99"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="102"/>
-      <c r="F102" s="102"/>
-      <c r="G102" s="136"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="100"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="137"/>
       <c r="H102" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="63" cm="1">
+      <c r="K102" s="61" cm="1">
         <f t="array" ref="K102">SUMPRODUCT((MOD(ROW(K$103:K$114),2)=0)*K$103:K$114)</f>
         <v>0</v>
       </c>
@@ -8331,27 +8414,27 @@
         <f t="array" ref="AD102">SUMPRODUCT((MOD(ROW(AD$103:AD$114),2)=0)*AD$103:AD$114)</f>
         <v>0</v>
       </c>
-      <c r="AE102" s="62" cm="1">
+      <c r="AE102" s="60" cm="1">
         <f t="array" ref="AE102">SUMPRODUCT((MOD(ROW(AE$103:AE$114),2)=0)*AE$103:AE$114)</f>
         <v>0</v>
       </c>
-      <c r="AF102" s="60"/>
-      <c r="AG102" s="60"/>
-      <c r="AH102" s="60"/>
-      <c r="AI102" s="60"/>
+      <c r="AF102" s="58"/>
+      <c r="AG102" s="58"/>
+      <c r="AH102" s="58"/>
+      <c r="AI102" s="58"/>
     </row>
     <row r="103" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="89">
+      <c r="A103" s="90">
         <v>1</v>
       </c>
-      <c r="B103" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" s="103"/>
-      <c r="D103" s="86"/>
-      <c r="E103" s="80"/>
-      <c r="F103" s="80"/>
-      <c r="G103" s="78"/>
+      <c r="B103" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="104"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="79"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -8359,39 +8442,39 @@
       <c r="I103" s="24"/>
       <c r="J103" s="24"/>
       <c r="K103" s="26"/>
-      <c r="L103" s="51"/>
-      <c r="M103" s="52"/>
-      <c r="N103" s="52"/>
-      <c r="O103" s="52"/>
-      <c r="P103" s="52"/>
-      <c r="Q103" s="52"/>
-      <c r="R103" s="52"/>
-      <c r="S103" s="52"/>
-      <c r="T103" s="52"/>
-      <c r="U103" s="52"/>
-      <c r="V103" s="52"/>
-      <c r="W103" s="52"/>
-      <c r="X103" s="52"/>
-      <c r="Y103" s="52"/>
-      <c r="Z103" s="52"/>
-      <c r="AA103" s="52"/>
-      <c r="AB103" s="52"/>
-      <c r="AC103" s="52"/>
-      <c r="AD103" s="52"/>
-      <c r="AE103" s="52"/>
-      <c r="AF103" s="60"/>
-      <c r="AG103" s="60"/>
-      <c r="AH103" s="60"/>
-      <c r="AI103" s="60"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="51"/>
+      <c r="T103" s="51"/>
+      <c r="U103" s="51"/>
+      <c r="V103" s="51"/>
+      <c r="W103" s="51"/>
+      <c r="X103" s="51"/>
+      <c r="Y103" s="51"/>
+      <c r="Z103" s="51"/>
+      <c r="AA103" s="51"/>
+      <c r="AB103" s="51"/>
+      <c r="AC103" s="51"/>
+      <c r="AD103" s="51"/>
+      <c r="AE103" s="51"/>
+      <c r="AF103" s="58"/>
+      <c r="AG103" s="58"/>
+      <c r="AH103" s="58"/>
+      <c r="AI103" s="58"/>
     </row>
     <row r="104" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="90"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="104"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="79"/>
+      <c r="A104" s="91"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="80"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -8399,239 +8482,239 @@
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
       <c r="K104" s="27"/>
-      <c r="L104" s="53"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="54"/>
-      <c r="O104" s="54"/>
-      <c r="P104" s="54"/>
-      <c r="Q104" s="54"/>
-      <c r="R104" s="54"/>
-      <c r="S104" s="54"/>
-      <c r="T104" s="54"/>
-      <c r="U104" s="54"/>
-      <c r="V104" s="54"/>
-      <c r="W104" s="54"/>
-      <c r="X104" s="54"/>
-      <c r="Y104" s="54"/>
-      <c r="Z104" s="54"/>
-      <c r="AA104" s="54"/>
-      <c r="AB104" s="54"/>
-      <c r="AC104" s="54"/>
-      <c r="AD104" s="54"/>
-      <c r="AE104" s="54"/>
-      <c r="AF104" s="60"/>
-      <c r="AG104" s="60"/>
-      <c r="AH104" s="60"/>
-      <c r="AI104" s="60"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="53"/>
+      <c r="N104" s="53"/>
+      <c r="O104" s="53"/>
+      <c r="P104" s="53"/>
+      <c r="Q104" s="53"/>
+      <c r="R104" s="53"/>
+      <c r="S104" s="53"/>
+      <c r="T104" s="53"/>
+      <c r="U104" s="53"/>
+      <c r="V104" s="53"/>
+      <c r="W104" s="53"/>
+      <c r="X104" s="53"/>
+      <c r="Y104" s="53"/>
+      <c r="Z104" s="53"/>
+      <c r="AA104" s="53"/>
+      <c r="AB104" s="53"/>
+      <c r="AC104" s="53"/>
+      <c r="AD104" s="53"/>
+      <c r="AE104" s="53"/>
+      <c r="AF104" s="58"/>
+      <c r="AG104" s="58"/>
+      <c r="AH104" s="58"/>
+      <c r="AI104" s="58"/>
     </row>
     <row r="105" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="89"/>
-      <c r="B105" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C105" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="86"/>
-      <c r="E105" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F105" s="93"/>
-      <c r="G105" s="141"/>
-      <c r="H105" s="55" t="str">
+      <c r="A105" s="90"/>
+      <c r="B105" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="87"/>
+      <c r="E105" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" s="94"/>
+      <c r="G105" s="142"/>
+      <c r="H105" s="54" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I105" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J105" s="55">
+      <c r="I105" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J105" s="54">
         <v>5</v>
       </c>
       <c r="K105" s="9">
         <f>SUM(L105:W105)</f>
         <v>1</v>
       </c>
-      <c r="L105" s="51"/>
-      <c r="M105" s="52"/>
-      <c r="N105" s="52"/>
-      <c r="O105" s="52"/>
-      <c r="P105" s="52"/>
-      <c r="Q105" s="52">
+      <c r="L105" s="50"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51">
         <v>1</v>
       </c>
-      <c r="R105" s="52"/>
-      <c r="S105" s="52"/>
-      <c r="T105" s="52"/>
-      <c r="U105" s="52"/>
-      <c r="V105" s="52"/>
-      <c r="W105" s="52"/>
-      <c r="X105" s="52"/>
-      <c r="Y105" s="52"/>
-      <c r="Z105" s="52"/>
-      <c r="AA105" s="52"/>
-      <c r="AB105" s="52"/>
-      <c r="AC105" s="52"/>
-      <c r="AD105" s="52"/>
-      <c r="AE105" s="52"/>
-      <c r="AF105" s="60"/>
-      <c r="AG105" s="60"/>
-      <c r="AH105" s="60"/>
-      <c r="AI105" s="60"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="51"/>
+      <c r="T105" s="51"/>
+      <c r="U105" s="51"/>
+      <c r="V105" s="51"/>
+      <c r="W105" s="51"/>
+      <c r="X105" s="51"/>
+      <c r="Y105" s="51"/>
+      <c r="Z105" s="51"/>
+      <c r="AA105" s="51"/>
+      <c r="AB105" s="51"/>
+      <c r="AC105" s="51"/>
+      <c r="AD105" s="51"/>
+      <c r="AE105" s="51"/>
+      <c r="AF105" s="58"/>
+      <c r="AG105" s="58"/>
+      <c r="AH105" s="58"/>
+      <c r="AI105" s="58"/>
     </row>
     <row r="106" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="90"/>
-      <c r="B106" s="92"/>
-      <c r="C106" s="87"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="94"/>
-      <c r="F106" s="94"/>
-      <c r="G106" s="92"/>
-      <c r="H106" s="56" t="str">
+      <c r="A106" s="91"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="93"/>
+      <c r="H106" s="68" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I106" s="56"/>
-      <c r="J106" s="56"/>
+      <c r="I106" s="68"/>
+      <c r="J106" s="68"/>
       <c r="K106" s="10">
         <f>SUM(L106:W106)</f>
         <v>0</v>
       </c>
-      <c r="L106" s="53"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="54"/>
-      <c r="O106" s="54"/>
-      <c r="P106" s="54"/>
-      <c r="Q106" s="54"/>
-      <c r="R106" s="54"/>
-      <c r="S106" s="54"/>
-      <c r="T106" s="54"/>
-      <c r="U106" s="54"/>
-      <c r="V106" s="54"/>
-      <c r="W106" s="54"/>
-      <c r="X106" s="54"/>
-      <c r="Y106" s="54"/>
-      <c r="Z106" s="54"/>
-      <c r="AA106" s="54"/>
-      <c r="AB106" s="54"/>
-      <c r="AC106" s="54"/>
-      <c r="AD106" s="54"/>
-      <c r="AE106" s="54"/>
-      <c r="AF106" s="60"/>
-      <c r="AG106" s="60"/>
-      <c r="AH106" s="60"/>
-      <c r="AI106" s="60"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="53"/>
+      <c r="N106" s="53"/>
+      <c r="O106" s="53"/>
+      <c r="P106" s="53"/>
+      <c r="Q106" s="53"/>
+      <c r="R106" s="53"/>
+      <c r="S106" s="53"/>
+      <c r="T106" s="53"/>
+      <c r="U106" s="53"/>
+      <c r="V106" s="53"/>
+      <c r="W106" s="53"/>
+      <c r="X106" s="53"/>
+      <c r="Y106" s="53"/>
+      <c r="Z106" s="53"/>
+      <c r="AA106" s="53"/>
+      <c r="AB106" s="53"/>
+      <c r="AC106" s="53"/>
+      <c r="AD106" s="53"/>
+      <c r="AE106" s="53"/>
+      <c r="AF106" s="58"/>
+      <c r="AG106" s="58"/>
+      <c r="AH106" s="58"/>
+      <c r="AI106" s="58"/>
     </row>
     <row r="107" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="89"/>
-      <c r="B107" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107" s="85" t="s">
+      <c r="A107" s="90"/>
+      <c r="B107" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="D107" s="86"/>
-      <c r="E107" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F107" s="93"/>
-      <c r="G107" s="141"/>
-      <c r="H107" s="55" t="str">
+      <c r="C107" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="87"/>
+      <c r="E107" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" s="94"/>
+      <c r="G107" s="142"/>
+      <c r="H107" s="54" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I107" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J107" s="55">
+      <c r="I107" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" s="54">
         <v>5</v>
       </c>
       <c r="K107" s="9">
         <f>SUM(L107:W107)</f>
         <v>1.5</v>
       </c>
-      <c r="L107" s="51"/>
-      <c r="M107" s="52"/>
-      <c r="N107" s="52"/>
-      <c r="O107" s="52"/>
-      <c r="P107" s="52"/>
-      <c r="Q107" s="52">
+      <c r="L107" s="50"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="51"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="51">
         <v>1.5</v>
       </c>
-      <c r="R107" s="52"/>
-      <c r="S107" s="52"/>
-      <c r="T107" s="52"/>
-      <c r="U107" s="52"/>
-      <c r="V107" s="52"/>
-      <c r="W107" s="52"/>
-      <c r="X107" s="52"/>
-      <c r="Y107" s="52"/>
-      <c r="Z107" s="52"/>
-      <c r="AA107" s="52"/>
-      <c r="AB107" s="52"/>
-      <c r="AC107" s="52"/>
-      <c r="AD107" s="52"/>
-      <c r="AE107" s="52"/>
-      <c r="AF107" s="60"/>
-      <c r="AG107" s="60"/>
-      <c r="AH107" s="60"/>
-      <c r="AI107" s="60"/>
+      <c r="R107" s="51"/>
+      <c r="S107" s="51"/>
+      <c r="T107" s="51"/>
+      <c r="U107" s="51"/>
+      <c r="V107" s="51"/>
+      <c r="W107" s="51"/>
+      <c r="X107" s="51"/>
+      <c r="Y107" s="51"/>
+      <c r="Z107" s="51"/>
+      <c r="AA107" s="51"/>
+      <c r="AB107" s="51"/>
+      <c r="AC107" s="51"/>
+      <c r="AD107" s="51"/>
+      <c r="AE107" s="51"/>
+      <c r="AF107" s="58"/>
+      <c r="AG107" s="58"/>
+      <c r="AH107" s="58"/>
+      <c r="AI107" s="58"/>
     </row>
     <row r="108" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="90"/>
-      <c r="B108" s="92"/>
-      <c r="C108" s="87"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="94"/>
-      <c r="F108" s="94"/>
-      <c r="G108" s="92"/>
-      <c r="H108" s="56" t="str">
+      <c r="A108" s="91"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="88"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="95"/>
+      <c r="F108" s="95"/>
+      <c r="G108" s="93"/>
+      <c r="H108" s="68" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
+      <c r="I108" s="68"/>
+      <c r="J108" s="68"/>
       <c r="K108" s="10">
         <f>SUM(L108:W108)</f>
         <v>0</v>
       </c>
-      <c r="L108" s="53"/>
-      <c r="M108" s="54"/>
-      <c r="N108" s="54"/>
-      <c r="O108" s="54"/>
-      <c r="P108" s="54"/>
-      <c r="Q108" s="54"/>
-      <c r="R108" s="54"/>
-      <c r="S108" s="54"/>
-      <c r="T108" s="54"/>
-      <c r="U108" s="54"/>
-      <c r="V108" s="54"/>
-      <c r="W108" s="54"/>
-      <c r="X108" s="54"/>
-      <c r="Y108" s="54"/>
-      <c r="Z108" s="54"/>
-      <c r="AA108" s="54"/>
-      <c r="AB108" s="54"/>
-      <c r="AC108" s="54"/>
-      <c r="AD108" s="54"/>
-      <c r="AE108" s="54"/>
-      <c r="AF108" s="60"/>
-      <c r="AG108" s="60"/>
-      <c r="AH108" s="60"/>
-      <c r="AI108" s="60"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="53"/>
+      <c r="N108" s="53"/>
+      <c r="O108" s="53"/>
+      <c r="P108" s="53"/>
+      <c r="Q108" s="53"/>
+      <c r="R108" s="53"/>
+      <c r="S108" s="53"/>
+      <c r="T108" s="53"/>
+      <c r="U108" s="53"/>
+      <c r="V108" s="53"/>
+      <c r="W108" s="53"/>
+      <c r="X108" s="53"/>
+      <c r="Y108" s="53"/>
+      <c r="Z108" s="53"/>
+      <c r="AA108" s="53"/>
+      <c r="AB108" s="53"/>
+      <c r="AC108" s="53"/>
+      <c r="AD108" s="53"/>
+      <c r="AE108" s="53"/>
+      <c r="AF108" s="58"/>
+      <c r="AG108" s="58"/>
+      <c r="AH108" s="58"/>
+      <c r="AI108" s="58"/>
     </row>
     <row r="109" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="89">
+      <c r="A109" s="90">
         <v>2</v>
       </c>
-      <c r="B109" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="103"/>
-      <c r="D109" s="86"/>
-      <c r="E109" s="80"/>
-      <c r="F109" s="80"/>
-      <c r="G109" s="78"/>
+      <c r="B109" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="104"/>
+      <c r="D109" s="87"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="79"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -8639,39 +8722,39 @@
       <c r="I109" s="24"/>
       <c r="J109" s="24"/>
       <c r="K109" s="26"/>
-      <c r="L109" s="51"/>
-      <c r="M109" s="52"/>
-      <c r="N109" s="52"/>
-      <c r="O109" s="52"/>
-      <c r="P109" s="52"/>
-      <c r="Q109" s="52"/>
-      <c r="R109" s="52"/>
-      <c r="S109" s="52"/>
-      <c r="T109" s="52"/>
-      <c r="U109" s="52"/>
-      <c r="V109" s="52"/>
-      <c r="W109" s="52"/>
-      <c r="X109" s="52"/>
-      <c r="Y109" s="52"/>
-      <c r="Z109" s="52"/>
-      <c r="AA109" s="52"/>
-      <c r="AB109" s="52"/>
-      <c r="AC109" s="52"/>
-      <c r="AD109" s="52"/>
-      <c r="AE109" s="52"/>
-      <c r="AF109" s="60"/>
-      <c r="AG109" s="60"/>
-      <c r="AH109" s="60"/>
-      <c r="AI109" s="60"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="51"/>
+      <c r="O109" s="51"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="51"/>
+      <c r="R109" s="51"/>
+      <c r="S109" s="51"/>
+      <c r="T109" s="51"/>
+      <c r="U109" s="51"/>
+      <c r="V109" s="51"/>
+      <c r="W109" s="51"/>
+      <c r="X109" s="51"/>
+      <c r="Y109" s="51"/>
+      <c r="Z109" s="51"/>
+      <c r="AA109" s="51"/>
+      <c r="AB109" s="51"/>
+      <c r="AC109" s="51"/>
+      <c r="AD109" s="51"/>
+      <c r="AE109" s="51"/>
+      <c r="AF109" s="58"/>
+      <c r="AG109" s="58"/>
+      <c r="AH109" s="58"/>
+      <c r="AI109" s="58"/>
     </row>
     <row r="110" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="90"/>
-      <c r="B110" s="87"/>
-      <c r="C110" s="104"/>
-      <c r="D110" s="88"/>
-      <c r="E110" s="81"/>
-      <c r="F110" s="81"/>
-      <c r="G110" s="79"/>
+      <c r="A110" s="91"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="80"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -8679,226 +8762,226 @@
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
       <c r="K110" s="27"/>
-      <c r="L110" s="53"/>
-      <c r="M110" s="54"/>
-      <c r="N110" s="54"/>
-      <c r="O110" s="54"/>
-      <c r="P110" s="54"/>
-      <c r="Q110" s="54"/>
-      <c r="R110" s="54"/>
-      <c r="S110" s="54"/>
-      <c r="T110" s="54"/>
-      <c r="U110" s="54"/>
-      <c r="V110" s="54"/>
-      <c r="W110" s="54"/>
-      <c r="X110" s="54"/>
-      <c r="Y110" s="54"/>
-      <c r="Z110" s="54"/>
-      <c r="AA110" s="54"/>
-      <c r="AB110" s="54"/>
-      <c r="AC110" s="54"/>
-      <c r="AD110" s="54"/>
-      <c r="AE110" s="54"/>
-      <c r="AF110" s="60"/>
-      <c r="AG110" s="60"/>
-      <c r="AH110" s="60"/>
-      <c r="AI110" s="60"/>
+      <c r="L110" s="52"/>
+      <c r="M110" s="53"/>
+      <c r="N110" s="53"/>
+      <c r="O110" s="53"/>
+      <c r="P110" s="53"/>
+      <c r="Q110" s="53"/>
+      <c r="R110" s="53"/>
+      <c r="S110" s="53"/>
+      <c r="T110" s="53"/>
+      <c r="U110" s="53"/>
+      <c r="V110" s="53"/>
+      <c r="W110" s="53"/>
+      <c r="X110" s="53"/>
+      <c r="Y110" s="53"/>
+      <c r="Z110" s="53"/>
+      <c r="AA110" s="53"/>
+      <c r="AB110" s="53"/>
+      <c r="AC110" s="53"/>
+      <c r="AD110" s="53"/>
+      <c r="AE110" s="53"/>
+      <c r="AF110" s="58"/>
+      <c r="AG110" s="58"/>
+      <c r="AH110" s="58"/>
+      <c r="AI110" s="58"/>
     </row>
     <row r="111" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="89"/>
-      <c r="B111" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C111" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D111" s="86"/>
-      <c r="E111" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F111" s="93"/>
-      <c r="G111" s="141"/>
-      <c r="H111" s="55" t="str">
+      <c r="A111" s="90"/>
+      <c r="B111" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" s="87"/>
+      <c r="E111" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" s="94"/>
+      <c r="G111" s="142"/>
+      <c r="H111" s="54" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I111" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J111" s="55">
+      <c r="I111" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J111" s="54">
         <v>5</v>
       </c>
       <c r="K111" s="9">
         <f>SUM(L111:W111)</f>
         <v>1.25</v>
       </c>
-      <c r="L111" s="51"/>
-      <c r="M111" s="52"/>
-      <c r="N111" s="52"/>
-      <c r="O111" s="52"/>
-      <c r="P111" s="52"/>
-      <c r="Q111" s="52">
+      <c r="L111" s="50"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="51"/>
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="51">
         <v>1.25</v>
       </c>
-      <c r="R111" s="52"/>
-      <c r="S111" s="52"/>
-      <c r="T111" s="52"/>
-      <c r="U111" s="52"/>
-      <c r="V111" s="52"/>
-      <c r="W111" s="52"/>
-      <c r="X111" s="52"/>
-      <c r="Y111" s="52"/>
-      <c r="Z111" s="52"/>
-      <c r="AA111" s="52"/>
-      <c r="AB111" s="52"/>
-      <c r="AC111" s="52"/>
-      <c r="AD111" s="52"/>
-      <c r="AE111" s="52"/>
-      <c r="AF111" s="60"/>
-      <c r="AG111" s="60"/>
-      <c r="AH111" s="60"/>
-      <c r="AI111" s="60"/>
+      <c r="R111" s="51"/>
+      <c r="S111" s="51"/>
+      <c r="T111" s="51"/>
+      <c r="U111" s="51"/>
+      <c r="V111" s="51"/>
+      <c r="W111" s="51"/>
+      <c r="X111" s="51"/>
+      <c r="Y111" s="51"/>
+      <c r="Z111" s="51"/>
+      <c r="AA111" s="51"/>
+      <c r="AB111" s="51"/>
+      <c r="AC111" s="51"/>
+      <c r="AD111" s="51"/>
+      <c r="AE111" s="51"/>
+      <c r="AF111" s="58"/>
+      <c r="AG111" s="58"/>
+      <c r="AH111" s="58"/>
+      <c r="AI111" s="58"/>
     </row>
     <row r="112" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="90"/>
-      <c r="B112" s="92"/>
-      <c r="C112" s="87"/>
-      <c r="D112" s="88"/>
-      <c r="E112" s="94"/>
-      <c r="F112" s="94"/>
-      <c r="G112" s="92"/>
-      <c r="H112" s="56" t="str">
+      <c r="A112" s="91"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="88"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="95"/>
+      <c r="F112" s="95"/>
+      <c r="G112" s="93"/>
+      <c r="H112" s="68" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I112" s="56"/>
-      <c r="J112" s="56"/>
+      <c r="I112" s="68"/>
+      <c r="J112" s="68"/>
       <c r="K112" s="10">
         <f>SUM(L112:W112)</f>
         <v>0</v>
       </c>
-      <c r="L112" s="53"/>
-      <c r="M112" s="54"/>
-      <c r="N112" s="54"/>
-      <c r="O112" s="54"/>
-      <c r="P112" s="54"/>
-      <c r="Q112" s="54"/>
-      <c r="R112" s="54"/>
-      <c r="S112" s="54"/>
-      <c r="T112" s="54"/>
-      <c r="U112" s="54"/>
-      <c r="V112" s="54"/>
-      <c r="W112" s="54"/>
-      <c r="X112" s="54"/>
-      <c r="Y112" s="54"/>
-      <c r="Z112" s="54"/>
-      <c r="AA112" s="54"/>
-      <c r="AB112" s="54"/>
-      <c r="AC112" s="54"/>
-      <c r="AD112" s="54"/>
-      <c r="AE112" s="54"/>
-      <c r="AF112" s="60"/>
-      <c r="AG112" s="60"/>
-      <c r="AH112" s="60"/>
-      <c r="AI112" s="60"/>
+      <c r="L112" s="52"/>
+      <c r="M112" s="53"/>
+      <c r="N112" s="53"/>
+      <c r="O112" s="53"/>
+      <c r="P112" s="53"/>
+      <c r="Q112" s="53"/>
+      <c r="R112" s="53"/>
+      <c r="S112" s="53"/>
+      <c r="T112" s="53"/>
+      <c r="U112" s="53"/>
+      <c r="V112" s="53"/>
+      <c r="W112" s="53"/>
+      <c r="X112" s="53"/>
+      <c r="Y112" s="53"/>
+      <c r="Z112" s="53"/>
+      <c r="AA112" s="53"/>
+      <c r="AB112" s="53"/>
+      <c r="AC112" s="53"/>
+      <c r="AD112" s="53"/>
+      <c r="AE112" s="53"/>
+      <c r="AF112" s="58"/>
+      <c r="AG112" s="58"/>
+      <c r="AH112" s="58"/>
+      <c r="AI112" s="58"/>
     </row>
     <row r="113" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="89"/>
-      <c r="B113" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C113" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D113" s="86"/>
-      <c r="E113" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F113" s="93"/>
-      <c r="G113" s="141"/>
-      <c r="H113" s="55" t="str">
+      <c r="A113" s="90"/>
+      <c r="B113" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113" s="87"/>
+      <c r="E113" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" s="94"/>
+      <c r="G113" s="142"/>
+      <c r="H113" s="54" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I113" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="J113" s="55">
+      <c r="I113" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J113" s="54">
         <v>1</v>
       </c>
       <c r="K113" s="9">
         <f>SUM(L113:W113)</f>
         <v>0.2</v>
       </c>
-      <c r="L113" s="51"/>
-      <c r="M113" s="52"/>
-      <c r="N113" s="52"/>
-      <c r="O113" s="52"/>
-      <c r="P113" s="52"/>
-      <c r="Q113" s="52">
+      <c r="L113" s="50"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51">
         <v>0.2</v>
       </c>
-      <c r="R113" s="52"/>
-      <c r="S113" s="52"/>
-      <c r="T113" s="52"/>
-      <c r="U113" s="52"/>
-      <c r="V113" s="52"/>
-      <c r="W113" s="52"/>
-      <c r="X113" s="52"/>
-      <c r="Y113" s="52"/>
-      <c r="Z113" s="52"/>
-      <c r="AA113" s="52"/>
-      <c r="AB113" s="52"/>
-      <c r="AC113" s="52"/>
-      <c r="AD113" s="52"/>
-      <c r="AE113" s="52"/>
-      <c r="AF113" s="60"/>
-      <c r="AG113" s="60"/>
-      <c r="AH113" s="60"/>
-      <c r="AI113" s="60"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="51"/>
+      <c r="T113" s="51"/>
+      <c r="U113" s="51"/>
+      <c r="V113" s="51"/>
+      <c r="W113" s="51"/>
+      <c r="X113" s="51"/>
+      <c r="Y113" s="51"/>
+      <c r="Z113" s="51"/>
+      <c r="AA113" s="51"/>
+      <c r="AB113" s="51"/>
+      <c r="AC113" s="51"/>
+      <c r="AD113" s="51"/>
+      <c r="AE113" s="51"/>
+      <c r="AF113" s="58"/>
+      <c r="AG113" s="58"/>
+      <c r="AH113" s="58"/>
+      <c r="AI113" s="58"/>
     </row>
     <row r="114" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="90"/>
-      <c r="B114" s="92"/>
-      <c r="C114" s="87"/>
-      <c r="D114" s="88"/>
-      <c r="E114" s="94"/>
-      <c r="F114" s="94"/>
-      <c r="G114" s="92"/>
-      <c r="H114" s="56" t="str">
+      <c r="A114" s="91"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="88"/>
+      <c r="D114" s="89"/>
+      <c r="E114" s="95"/>
+      <c r="F114" s="95"/>
+      <c r="G114" s="93"/>
+      <c r="H114" s="68" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I114" s="56"/>
-      <c r="J114" s="56"/>
+      <c r="I114" s="68"/>
+      <c r="J114" s="68"/>
       <c r="K114" s="10">
         <f>SUM(L114:W114)</f>
         <v>0</v>
       </c>
-      <c r="L114" s="53"/>
-      <c r="M114" s="54"/>
-      <c r="N114" s="54"/>
-      <c r="O114" s="54"/>
-      <c r="P114" s="54"/>
-      <c r="Q114" s="54"/>
-      <c r="R114" s="54"/>
-      <c r="S114" s="54"/>
-      <c r="T114" s="54"/>
-      <c r="U114" s="54"/>
-      <c r="V114" s="54"/>
-      <c r="W114" s="54"/>
-      <c r="X114" s="54"/>
-      <c r="Y114" s="54"/>
-      <c r="Z114" s="54"/>
-      <c r="AA114" s="54"/>
-      <c r="AB114" s="54"/>
-      <c r="AC114" s="54"/>
-      <c r="AD114" s="54"/>
-      <c r="AE114" s="54"/>
-      <c r="AF114" s="60"/>
-      <c r="AG114" s="60"/>
-      <c r="AH114" s="60"/>
-      <c r="AI114" s="60"/>
+      <c r="L114" s="52"/>
+      <c r="M114" s="53"/>
+      <c r="N114" s="53"/>
+      <c r="O114" s="53"/>
+      <c r="P114" s="53"/>
+      <c r="Q114" s="53"/>
+      <c r="R114" s="53"/>
+      <c r="S114" s="53"/>
+      <c r="T114" s="53"/>
+      <c r="U114" s="53"/>
+      <c r="V114" s="53"/>
+      <c r="W114" s="53"/>
+      <c r="X114" s="53"/>
+      <c r="Y114" s="53"/>
+      <c r="Z114" s="53"/>
+      <c r="AA114" s="53"/>
+      <c r="AB114" s="53"/>
+      <c r="AC114" s="53"/>
+      <c r="AD114" s="53"/>
+      <c r="AE114" s="53"/>
+      <c r="AF114" s="58"/>
+      <c r="AG114" s="58"/>
+      <c r="AH114" s="58"/>
+      <c r="AI114" s="58"/>
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.15">
       <c r="L115" s="41"/>
@@ -9403,21 +9486,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -9601,24 +9669,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9634,4 +9700,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート.xlsx
+++ b/00_management/WBSガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5967A3E-3182-4184-AE64-E20FE57E291E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC28C1-086D-4905-9421-C1F35BC45C6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="19125" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="195" windowWidth="20295" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="81">
   <si>
     <t>チケット予約システム</t>
   </si>
@@ -1591,6 +1591,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1600,37 +1702,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,64 +1754,52 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1707,108 +1809,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2502,10 +2502,10 @@
   <dimension ref="A1:AI115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O52" sqref="O52"/>
+      <selection pane="bottomRight" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2524,204 +2524,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="110" t="s">
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="110" t="s">
+      <c r="I1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="73">
+      <c r="L1" s="102">
         <v>43984</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="73">
+      <c r="M1" s="103"/>
+      <c r="N1" s="102">
         <v>43985</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="73">
+      <c r="O1" s="103"/>
+      <c r="P1" s="102">
         <v>43986</v>
       </c>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="73">
+      <c r="Q1" s="103"/>
+      <c r="R1" s="102">
         <v>43987</v>
       </c>
-      <c r="S1" s="74"/>
-      <c r="T1" s="73">
+      <c r="S1" s="103"/>
+      <c r="T1" s="102">
         <v>43990</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="73">
+      <c r="U1" s="103"/>
+      <c r="V1" s="102">
         <v>43991</v>
       </c>
-      <c r="W1" s="74"/>
-      <c r="X1" s="73">
+      <c r="W1" s="103"/>
+      <c r="X1" s="102">
         <v>43992</v>
       </c>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="73">
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="102">
         <v>43993</v>
       </c>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="73">
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="102">
         <v>43994</v>
       </c>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="73">
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="102">
         <v>43997</v>
       </c>
-      <c r="AE1" s="74"/>
+      <c r="AE1" s="103"/>
       <c r="AF1" s="58"/>
       <c r="AG1" s="58"/>
       <c r="AH1" s="58"/>
       <c r="AI1" s="58"/>
     </row>
     <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="70" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="70" t="s">
+      <c r="M2" s="105"/>
+      <c r="N2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="70" t="s">
+      <c r="O2" s="105"/>
+      <c r="P2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="70" t="s">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="71"/>
-      <c r="T2" s="70" t="s">
+      <c r="S2" s="105"/>
+      <c r="T2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="71"/>
-      <c r="V2" s="70" t="s">
+      <c r="U2" s="105"/>
+      <c r="V2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="71"/>
-      <c r="X2" s="70" t="s">
+      <c r="W2" s="105"/>
+      <c r="X2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="70" t="s">
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="70" t="s">
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="70" t="s">
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="71"/>
+      <c r="AE2" s="105"/>
       <c r="AF2" s="58"/>
       <c r="AG2" s="58"/>
       <c r="AH2" s="58"/>
       <c r="AI2" s="58"/>
     </row>
     <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="108" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="107"/>
-      <c r="N3" s="106" t="s">
+      <c r="M3" s="141"/>
+      <c r="N3" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="107"/>
-      <c r="P3" s="106" t="s">
+      <c r="O3" s="141"/>
+      <c r="P3" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="141"/>
+      <c r="R3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72" t="s">
+      <c r="S3" s="106"/>
+      <c r="T3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="106"/>
+      <c r="V3" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72" t="s">
+      <c r="W3" s="106"/>
+      <c r="X3" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72" t="s">
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72" t="s">
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72" t="s">
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="72"/>
+      <c r="AE3" s="106"/>
       <c r="AF3" s="58"/>
       <c r="AG3" s="58"/>
       <c r="AH3" s="58"/>
       <c r="AI3" s="58"/>
     </row>
     <row r="4" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="135"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="118"/>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2788,15 +2788,15 @@
       <c r="AI4" s="58"/>
     </row>
     <row r="5" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="140"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2896,13 +2896,13 @@
       <c r="AI5" s="58"/>
     </row>
     <row r="6" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="141"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="113"/>
       <c r="H6" s="18" t="s">
         <v>28</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="49">
         <f>SUM(K8,K24,K44)</f>
-        <v>27.759999999999998</v>
+        <v>43.11</v>
       </c>
       <c r="L6" s="29">
         <f t="shared" ref="L6:M6" si="2">SUM(L8,L24,L44)</f>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="O6" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15.35</v>
       </c>
       <c r="P6" s="30">
         <f t="shared" si="3"/>
@@ -2998,15 +2998,15 @@
       <c r="AI6" s="58"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="130"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
@@ -3104,13 +3104,13 @@
       <c r="AI7" s="58"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="131"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="138"/>
       <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
@@ -3206,17 +3206,17 @@
       <c r="AI8" s="58"/>
     </row>
     <row r="9" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="84">
+      <c r="A9" s="122">
         <v>1</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="79"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -3247,13 +3247,13 @@
       <c r="AI9" s="58"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="80"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -3284,21 +3284,21 @@
       <c r="AI10" s="58"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
-      <c r="B11" s="83" t="s">
+      <c r="A11" s="122"/>
+      <c r="B11" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="75" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="77"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -3341,13 +3341,13 @@
       <c r="AI11" s="58"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="85"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="78"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="84"/>
       <c r="H12" s="67" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -3390,21 +3390,21 @@
       <c r="AI12" s="58"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="84"/>
-      <c r="B13" s="83" t="s">
+      <c r="A13" s="122"/>
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="75" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="77"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -3449,13 +3449,13 @@
       <c r="AI13" s="58"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="85"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="78"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="84"/>
       <c r="H14" s="67" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -3500,17 +3500,17 @@
       <c r="AI14" s="58"/>
     </row>
     <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="84">
+      <c r="A15" s="122">
         <v>2</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="79"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3544,13 +3544,13 @@
       <c r="AI15" s="58"/>
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="85"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="80"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3584,21 +3584,21 @@
       <c r="AI16" s="58"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="84"/>
-      <c r="B17" s="83" t="s">
+      <c r="A17" s="122"/>
+      <c r="B17" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="75" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="77"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3643,13 +3643,13 @@
       <c r="AI17" s="58"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="85"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="78"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="67" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3694,21 +3694,21 @@
       <c r="AI18" s="58"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="90"/>
-      <c r="B19" s="92" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="94" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="142"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="54" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3753,13 +3753,13 @@
       <c r="AI19" s="58"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="91"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="93"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="68" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3804,21 +3804,21 @@
       <c r="AI20" s="58"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="84"/>
-      <c r="B21" s="83" t="s">
+      <c r="A21" s="122"/>
+      <c r="B21" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="75" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="77"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3863,13 +3863,13 @@
       <c r="AI21" s="58"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="85"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="78"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="67" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3914,15 +3914,15 @@
       <c r="AI22" s="58"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="136"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="100"/>
       <c r="H23" s="20" t="s">
         <v>26</v>
       </c>
@@ -4020,13 +4020,13 @@
       <c r="AI23" s="58"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="99"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="137"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="101"/>
       <c r="H24" s="7" t="s">
         <v>28</v>
       </c>
@@ -4122,17 +4122,17 @@
       <c r="AI24" s="58"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="84">
+      <c r="A25" s="122">
         <v>1</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="79"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -4166,13 +4166,13 @@
       <c r="AI25" s="58"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="85"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="80"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="91"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -4206,19 +4206,19 @@
       <c r="AI26" s="58"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="84"/>
-      <c r="B27" s="83" t="s">
+      <c r="A27" s="122"/>
+      <c r="B27" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="75" t="s">
+      <c r="D27" s="75"/>
+      <c r="E27" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="77"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -4261,13 +4261,13 @@
       <c r="AI27" s="58"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="85"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="78"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="84"/>
       <c r="H28" s="67" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -4310,19 +4310,19 @@
       <c r="AI28" s="58"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="84"/>
-      <c r="B29" s="83" t="s">
+      <c r="A29" s="122"/>
+      <c r="B29" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="75" t="s">
+      <c r="D29" s="75"/>
+      <c r="E29" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="77"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="83"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -4365,13 +4365,13 @@
       <c r="AI29" s="58"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="85"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="78"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="84"/>
       <c r="H30" s="67" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -4414,19 +4414,19 @@
       <c r="AI30" s="58"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="84"/>
-      <c r="B31" s="83" t="s">
+      <c r="A31" s="122"/>
+      <c r="B31" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="75" t="s">
+      <c r="D31" s="75"/>
+      <c r="E31" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="77"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -4469,13 +4469,13 @@
       <c r="AI31" s="58"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="85"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="78"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="84"/>
       <c r="H32" s="67" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -4518,19 +4518,19 @@
       <c r="AI32" s="58"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="84"/>
-      <c r="B33" s="83" t="s">
+      <c r="A33" s="122"/>
+      <c r="B33" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="75" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="77"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -4573,13 +4573,13 @@
       <c r="AI33" s="58"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="85"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="78"/>
+      <c r="A34" s="123"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="84"/>
       <c r="H34" s="67" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -4622,17 +4622,17 @@
       <c r="AI34" s="58"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84">
+      <c r="A35" s="122">
         <v>2</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="79"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -4666,13 +4666,13 @@
       <c r="AI35" s="58"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="85"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="80"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="91"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -4706,19 +4706,19 @@
       <c r="AI36" s="58"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="84"/>
-      <c r="B37" s="83" t="s">
+      <c r="A37" s="122"/>
+      <c r="B37" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="75" t="s">
+      <c r="D37" s="75"/>
+      <c r="E37" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="77"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -4761,13 +4761,13 @@
       <c r="AI37" s="58"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="85"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="78"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="84"/>
       <c r="H38" s="67" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4810,19 +4810,19 @@
       <c r="AI38" s="58"/>
     </row>
     <row r="39" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="90"/>
-      <c r="B39" s="92" t="s">
+      <c r="A39" s="70"/>
+      <c r="B39" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="94" t="s">
+      <c r="D39" s="75"/>
+      <c r="E39" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="94"/>
-      <c r="G39" s="142"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="54" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4865,13 +4865,13 @@
       <c r="AI39" s="58"/>
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="91"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="93"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="68" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4914,19 +4914,19 @@
       <c r="AI40" s="58"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="84"/>
-      <c r="B41" s="83" t="s">
+      <c r="A41" s="122"/>
+      <c r="B41" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="75" t="s">
+      <c r="D41" s="75"/>
+      <c r="E41" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="75"/>
-      <c r="G41" s="77"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="83"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4969,13 +4969,13 @@
       <c r="AI41" s="58"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="85"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="78"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="84"/>
       <c r="H42" s="67" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -5018,15 +5018,15 @@
       <c r="AI42" s="58"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="136"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="100"/>
       <c r="H43" s="20" t="s">
         <v>26</v>
       </c>
@@ -5122,13 +5122,13 @@
       <c r="AI43" s="58"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="99"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="137"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="101"/>
       <c r="H44" s="7" t="s">
         <v>28</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="22">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
-        <v>1.25</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L44" s="40">
         <f t="shared" ref="L44:W44" si="17">SUMPRODUCT((MOD(ROW(L$45:L$60),2)=0)*L$45:L$60)</f>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="O44" s="39">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>15.35</v>
       </c>
       <c r="P44" s="39">
         <f t="shared" si="17"/>
@@ -5224,17 +5224,17 @@
       <c r="AI44" s="58"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="84">
+      <c r="A45" s="122">
         <v>1</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="79"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -5268,13 +5268,13 @@
       <c r="AI45" s="58"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="85"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="80"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="91"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -5308,19 +5308,19 @@
       <c r="AI46" s="58"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="90"/>
-      <c r="B47" s="92" t="s">
+      <c r="A47" s="70"/>
+      <c r="B47" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="94" t="s">
+      <c r="D47" s="75"/>
+      <c r="E47" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="142"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="54" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -5363,13 +5363,13 @@
       <c r="AI47" s="58"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="91"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="93"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="68" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -5412,19 +5412,19 @@
       <c r="AI48" s="58"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="84"/>
-      <c r="B49" s="83" t="s">
+      <c r="A49" s="122"/>
+      <c r="B49" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="87"/>
-      <c r="E49" s="75" t="s">
+      <c r="D49" s="75"/>
+      <c r="E49" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="75"/>
-      <c r="G49" s="77"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="83"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -5467,13 +5467,13 @@
       <c r="AI49" s="58"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="85"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="78"/>
+      <c r="A50" s="123"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="84"/>
       <c r="H50" s="67" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -5486,14 +5486,16 @@
       </c>
       <c r="K50" s="10">
         <f t="shared" ref="K50:K60" si="19">SUM(L50:W50)</f>
-        <v>0.25</v>
+        <v>6.5</v>
       </c>
       <c r="L50" s="43"/>
       <c r="M50" s="34"/>
       <c r="N50" s="34">
         <v>0.25</v>
       </c>
-      <c r="O50" s="34"/>
+      <c r="O50" s="34">
+        <v>6.25</v>
+      </c>
       <c r="P50" s="34"/>
       <c r="Q50" s="34"/>
       <c r="R50" s="34"/>
@@ -5516,19 +5518,19 @@
       <c r="AI50" s="58"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="90"/>
-      <c r="B51" s="92" t="s">
+      <c r="A51" s="70"/>
+      <c r="B51" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="94" t="s">
+      <c r="D51" s="75"/>
+      <c r="E51" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="94"/>
-      <c r="G51" s="142"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="80"/>
       <c r="H51" s="54" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -5571,13 +5573,13 @@
       <c r="AI51" s="58"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="91"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="93"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="68" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -5590,14 +5592,16 @@
       </c>
       <c r="K52" s="10">
         <f>SUM(L52:W52)</f>
-        <v>0.75</v>
+        <v>7</v>
       </c>
       <c r="L52" s="52"/>
       <c r="M52" s="53"/>
       <c r="N52" s="53">
         <v>0.75</v>
       </c>
-      <c r="O52" s="53"/>
+      <c r="O52" s="53">
+        <v>6.25</v>
+      </c>
       <c r="P52" s="53"/>
       <c r="Q52" s="53"/>
       <c r="R52" s="53"/>
@@ -5620,17 +5624,17 @@
       <c r="AI52" s="58"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="84">
+      <c r="A53" s="122">
         <v>2</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="104"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="79"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="90"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -5664,13 +5668,13 @@
       <c r="AI53" s="58"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="85"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="80"/>
+      <c r="A54" s="123"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="91"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -5704,19 +5708,19 @@
       <c r="AI54" s="58"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="84"/>
-      <c r="B55" s="83" t="s">
+      <c r="A55" s="122"/>
+      <c r="B55" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="87"/>
-      <c r="E55" s="75" t="s">
+      <c r="D55" s="75"/>
+      <c r="E55" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="75"/>
-      <c r="G55" s="77"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="83"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -5759,27 +5763,33 @@
       <c r="AI55" s="58"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="85"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="78"/>
+      <c r="A56" s="123"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="84"/>
       <c r="H56" s="67" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
+      <c r="I56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="67">
+        <v>5</v>
+      </c>
       <c r="K56" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L56" s="43"/>
       <c r="M56" s="34"/>
       <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
+      <c r="O56" s="34">
+        <v>1.25</v>
+      </c>
       <c r="P56" s="34"/>
       <c r="Q56" s="34"/>
       <c r="R56" s="34"/>
@@ -5802,19 +5812,19 @@
       <c r="AI56" s="58"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="84"/>
-      <c r="B57" s="83" t="s">
+      <c r="A57" s="122"/>
+      <c r="B57" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="87"/>
-      <c r="E57" s="75" t="s">
+      <c r="D57" s="75"/>
+      <c r="E57" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="75"/>
-      <c r="G57" s="77"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="83"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -5857,27 +5867,33 @@
       <c r="AI57" s="58"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="85"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="78"/>
+      <c r="A58" s="123"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="84"/>
       <c r="H58" s="67" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
+      <c r="I58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="67">
+        <v>5</v>
+      </c>
       <c r="K58" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L58" s="43"/>
       <c r="M58" s="34"/>
       <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
+      <c r="O58" s="34">
+        <v>1.5</v>
+      </c>
       <c r="P58" s="34"/>
       <c r="Q58" s="34"/>
       <c r="R58" s="34"/>
@@ -5900,19 +5916,19 @@
       <c r="AI58" s="58"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="84"/>
-      <c r="B59" s="83" t="s">
+      <c r="A59" s="122"/>
+      <c r="B59" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="86" t="s">
+      <c r="C59" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="87"/>
-      <c r="E59" s="75" t="s">
+      <c r="D59" s="75"/>
+      <c r="E59" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="75"/>
-      <c r="G59" s="77"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="83"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -5955,27 +5971,33 @@
       <c r="AI59" s="58"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="85"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="78"/>
+      <c r="A60" s="123"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="84"/>
       <c r="H60" s="67" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
+      <c r="I60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" s="67">
+        <v>1</v>
+      </c>
       <c r="K60" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L60" s="45"/>
       <c r="M60" s="46"/>
       <c r="N60" s="46"/>
-      <c r="O60" s="46"/>
+      <c r="O60" s="46">
+        <v>0.1</v>
+      </c>
       <c r="P60" s="46"/>
       <c r="Q60" s="46"/>
       <c r="R60" s="46"/>
@@ -5998,15 +6020,15 @@
       <c r="AI60" s="58"/>
     </row>
     <row r="61" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="96" t="s">
+      <c r="A61" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="136"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="100"/>
       <c r="H61" s="20" t="s">
         <v>26</v>
       </c>
@@ -6102,13 +6124,13 @@
       <c r="AI61" s="58"/>
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="99"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="137"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="101"/>
       <c r="H62" s="7" t="s">
         <v>28</v>
       </c>
@@ -6204,17 +6226,17 @@
       <c r="AI62" s="58"/>
     </row>
     <row r="63" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="90">
+      <c r="A63" s="70">
         <v>1</v>
       </c>
-      <c r="B63" s="86" t="s">
+      <c r="B63" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="104"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="79"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="90"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -6248,13 +6270,13 @@
       <c r="AI63" s="58"/>
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="91"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="80"/>
+      <c r="A64" s="71"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="91"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -6288,19 +6310,19 @@
       <c r="AI64" s="58"/>
     </row>
     <row r="65" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="90"/>
-      <c r="B65" s="92" t="s">
+      <c r="A65" s="70"/>
+      <c r="B65" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="87"/>
-      <c r="E65" s="94" t="s">
+      <c r="D65" s="75"/>
+      <c r="E65" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="94"/>
-      <c r="G65" s="142"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="80"/>
       <c r="H65" s="54" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -6343,13 +6365,13 @@
       <c r="AI65" s="58"/>
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="91"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="93"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="68" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -6386,19 +6408,19 @@
       <c r="AI66" s="58"/>
     </row>
     <row r="67" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="90"/>
-      <c r="B67" s="92" t="s">
+      <c r="A67" s="70"/>
+      <c r="B67" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="86" t="s">
+      <c r="C67" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="87"/>
-      <c r="E67" s="94" t="s">
+      <c r="D67" s="75"/>
+      <c r="E67" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="94"/>
-      <c r="G67" s="142"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="80"/>
       <c r="H67" s="54" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -6443,13 +6465,13 @@
       <c r="AI67" s="58"/>
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="91"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="93"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="68" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -6486,19 +6508,19 @@
       <c r="AI68" s="58"/>
     </row>
     <row r="69" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="90"/>
-      <c r="B69" s="92" t="s">
+      <c r="A69" s="70"/>
+      <c r="B69" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="86" t="s">
+      <c r="C69" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="87"/>
-      <c r="E69" s="94" t="s">
+      <c r="D69" s="75"/>
+      <c r="E69" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="94"/>
-      <c r="G69" s="142"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="80"/>
       <c r="H69" s="54" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -6541,13 +6563,13 @@
       <c r="AI69" s="58"/>
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="91"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="93"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="68" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -6584,17 +6606,17 @@
       <c r="AI70" s="58"/>
     </row>
     <row r="71" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="90">
+      <c r="A71" s="70">
         <v>2</v>
       </c>
-      <c r="B71" s="86" t="s">
+      <c r="B71" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="104"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="79"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="90"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -6628,13 +6650,13 @@
       <c r="AI71" s="58"/>
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="91"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="80"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="91"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -6668,19 +6690,19 @@
       <c r="AI72" s="58"/>
     </row>
     <row r="73" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="90"/>
-      <c r="B73" s="92" t="s">
+      <c r="A73" s="70"/>
+      <c r="B73" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="86" t="s">
+      <c r="C73" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="87"/>
-      <c r="E73" s="94" t="s">
+      <c r="D73" s="75"/>
+      <c r="E73" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="94"/>
-      <c r="G73" s="142"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="80"/>
       <c r="H73" s="54" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -6723,13 +6745,13 @@
       <c r="AI73" s="58"/>
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="91"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="93"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="68" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -6766,19 +6788,19 @@
       <c r="AI74" s="58"/>
     </row>
     <row r="75" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="90"/>
-      <c r="B75" s="92" t="s">
+      <c r="A75" s="70"/>
+      <c r="B75" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="86" t="s">
+      <c r="C75" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="87"/>
-      <c r="E75" s="94" t="s">
+      <c r="D75" s="75"/>
+      <c r="E75" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="94"/>
-      <c r="G75" s="142"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="80"/>
       <c r="H75" s="54" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -6821,13 +6843,13 @@
       <c r="AI75" s="58"/>
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="91"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="93"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="68" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -6864,19 +6886,19 @@
       <c r="AI76" s="58"/>
     </row>
     <row r="77" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="90"/>
-      <c r="B77" s="92" t="s">
+      <c r="A77" s="70"/>
+      <c r="B77" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="86" t="s">
+      <c r="C77" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="87"/>
-      <c r="E77" s="94" t="s">
+      <c r="D77" s="75"/>
+      <c r="E77" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="94"/>
-      <c r="G77" s="142"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="80"/>
       <c r="H77" s="54" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -6919,13 +6941,13 @@
       <c r="AI77" s="58"/>
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="91"/>
-      <c r="B78" s="93"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="93"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="68" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -6962,15 +6984,15 @@
       <c r="AI78" s="58"/>
     </row>
     <row r="79" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="96" t="s">
+      <c r="A79" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="98"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="136"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="98"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="100"/>
       <c r="H79" s="20" t="s">
         <v>26</v>
       </c>
@@ -7066,13 +7088,13 @@
       <c r="AI79" s="58"/>
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="99"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="137"/>
+      <c r="A80" s="95"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="101"/>
       <c r="H80" s="7" t="s">
         <v>28</v>
       </c>
@@ -7168,19 +7190,19 @@
       <c r="AI80" s="58"/>
     </row>
     <row r="81" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="90">
+      <c r="A81" s="70">
         <v>1</v>
       </c>
-      <c r="B81" s="86" t="s">
+      <c r="B81" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="104"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="81" t="s">
+      <c r="C81" s="85"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="F81" s="81"/>
-      <c r="G81" s="79"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="90"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -7214,13 +7236,13 @@
       <c r="AI81" s="58"/>
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="91"/>
-      <c r="B82" s="88"/>
-      <c r="C82" s="105"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="80"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="91"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -7254,19 +7276,19 @@
       <c r="AI82" s="58"/>
     </row>
     <row r="83" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="90"/>
-      <c r="B83" s="92" t="s">
+      <c r="A83" s="70"/>
+      <c r="B83" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D83" s="87"/>
-      <c r="E83" s="94" t="s">
+      <c r="D83" s="75"/>
+      <c r="E83" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F83" s="94"/>
-      <c r="G83" s="142"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="80"/>
       <c r="H83" s="54" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -7311,13 +7333,13 @@
       <c r="AI83" s="58"/>
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="91"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="95"/>
-      <c r="F84" s="95"/>
-      <c r="G84" s="93"/>
+      <c r="A84" s="71"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="68" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -7354,19 +7376,19 @@
       <c r="AI84" s="58"/>
     </row>
     <row r="85" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="90"/>
-      <c r="B85" s="92" t="s">
+      <c r="A85" s="70"/>
+      <c r="B85" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="86" t="s">
+      <c r="C85" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D85" s="87"/>
-      <c r="E85" s="94" t="s">
+      <c r="D85" s="75"/>
+      <c r="E85" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F85" s="94"/>
-      <c r="G85" s="142"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="80"/>
       <c r="H85" s="54" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -7409,13 +7431,13 @@
       <c r="AI85" s="58"/>
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="91"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="95"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="93"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="68" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -7452,15 +7474,15 @@
       <c r="AI86" s="58"/>
     </row>
     <row r="87" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="96" t="s">
+      <c r="A87" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="B87" s="97"/>
-      <c r="C87" s="97"/>
-      <c r="D87" s="98"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="136"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="100"/>
       <c r="H87" s="20" t="s">
         <v>26</v>
       </c>
@@ -7556,13 +7578,13 @@
       <c r="AI87" s="58"/>
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="99"/>
-      <c r="B88" s="100"/>
-      <c r="C88" s="100"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="137"/>
+      <c r="A88" s="95"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="101"/>
       <c r="H88" s="7" t="s">
         <v>28</v>
       </c>
@@ -7658,17 +7680,17 @@
       <c r="AI88" s="58"/>
     </row>
     <row r="89" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="90">
+      <c r="A89" s="70">
         <v>1</v>
       </c>
-      <c r="B89" s="86" t="s">
+      <c r="B89" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="104"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="79"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="90"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -7702,13 +7724,13 @@
       <c r="AI89" s="58"/>
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="91"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="80"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="91"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -7742,19 +7764,19 @@
       <c r="AI90" s="58"/>
     </row>
     <row r="91" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="90"/>
-      <c r="B91" s="92" t="s">
+      <c r="A91" s="70"/>
+      <c r="B91" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D91" s="87"/>
-      <c r="E91" s="94" t="s">
+      <c r="D91" s="75"/>
+      <c r="E91" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F91" s="94"/>
-      <c r="G91" s="142"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="80"/>
       <c r="H91" s="54" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -7797,13 +7819,13 @@
       <c r="AI91" s="58"/>
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="91"/>
-      <c r="B92" s="93"/>
-      <c r="C92" s="88"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="95"/>
-      <c r="F92" s="95"/>
-      <c r="G92" s="93"/>
+      <c r="A92" s="71"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="73"/>
       <c r="H92" s="68" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -7840,19 +7862,19 @@
       <c r="AI92" s="58"/>
     </row>
     <row r="93" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="90"/>
-      <c r="B93" s="92" t="s">
+      <c r="A93" s="70"/>
+      <c r="B93" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="86" t="s">
+      <c r="C93" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D93" s="87"/>
-      <c r="E93" s="94" t="s">
+      <c r="D93" s="75"/>
+      <c r="E93" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F93" s="94"/>
-      <c r="G93" s="142"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="80"/>
       <c r="H93" s="54" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -7895,13 +7917,13 @@
       <c r="AI93" s="58"/>
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="91"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="88"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="95"/>
-      <c r="G94" s="93"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="73"/>
       <c r="H94" s="68" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -7938,17 +7960,17 @@
       <c r="AI94" s="58"/>
     </row>
     <row r="95" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="90">
+      <c r="A95" s="70">
         <v>2</v>
       </c>
-      <c r="B95" s="86" t="s">
+      <c r="B95" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="104"/>
-      <c r="D95" s="87"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="79"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="90"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -7982,13 +8004,13 @@
       <c r="AI95" s="58"/>
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="91"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="105"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="80"/>
+      <c r="A96" s="71"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="91"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -8022,19 +8044,19 @@
       <c r="AI96" s="58"/>
     </row>
     <row r="97" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="90"/>
-      <c r="B97" s="92" t="s">
+      <c r="A97" s="70"/>
+      <c r="B97" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C97" s="86" t="s">
+      <c r="C97" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D97" s="87"/>
-      <c r="E97" s="94" t="s">
+      <c r="D97" s="75"/>
+      <c r="E97" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="94"/>
-      <c r="G97" s="142"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="80"/>
       <c r="H97" s="54" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -8077,13 +8099,13 @@
       <c r="AI97" s="58"/>
     </row>
     <row r="98" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="91"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="95"/>
-      <c r="G98" s="93"/>
+      <c r="A98" s="71"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="73"/>
       <c r="H98" s="68" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -8120,19 +8142,19 @@
       <c r="AI98" s="58"/>
     </row>
     <row r="99" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="90"/>
-      <c r="B99" s="92" t="s">
+      <c r="A99" s="70"/>
+      <c r="B99" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="86" t="s">
+      <c r="C99" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D99" s="87"/>
-      <c r="E99" s="94" t="s">
+      <c r="D99" s="75"/>
+      <c r="E99" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="94"/>
-      <c r="G99" s="142"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="80"/>
       <c r="H99" s="54" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -8175,13 +8197,13 @@
       <c r="AI99" s="58"/>
     </row>
     <row r="100" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="91"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="95"/>
-      <c r="G100" s="93"/>
+      <c r="A100" s="71"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="73"/>
       <c r="H100" s="68" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -8218,15 +8240,15 @@
       <c r="AI100" s="58"/>
     </row>
     <row r="101" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="96" t="s">
+      <c r="A101" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="B101" s="97"/>
-      <c r="C101" s="97"/>
-      <c r="D101" s="98"/>
-      <c r="E101" s="102"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="136"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="93"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="98"/>
+      <c r="F101" s="98"/>
+      <c r="G101" s="100"/>
       <c r="H101" s="20" t="s">
         <v>26</v>
       </c>
@@ -8322,13 +8344,13 @@
       <c r="AI101" s="58"/>
     </row>
     <row r="102" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="99"/>
-      <c r="B102" s="100"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="103"/>
-      <c r="G102" s="137"/>
+      <c r="A102" s="95"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="101"/>
       <c r="H102" s="7" t="s">
         <v>28</v>
       </c>
@@ -8424,17 +8446,17 @@
       <c r="AI102" s="58"/>
     </row>
     <row r="103" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="90">
+      <c r="A103" s="70">
         <v>1</v>
       </c>
-      <c r="B103" s="86" t="s">
+      <c r="B103" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C103" s="104"/>
-      <c r="D103" s="87"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="79"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="90"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -8468,13 +8490,13 @@
       <c r="AI103" s="58"/>
     </row>
     <row r="104" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="91"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="105"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="80"/>
+      <c r="A104" s="71"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="91"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -8508,19 +8530,19 @@
       <c r="AI104" s="58"/>
     </row>
     <row r="105" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="90"/>
-      <c r="B105" s="92" t="s">
+      <c r="A105" s="70"/>
+      <c r="B105" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C105" s="86" t="s">
+      <c r="C105" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D105" s="87"/>
-      <c r="E105" s="94" t="s">
+      <c r="D105" s="75"/>
+      <c r="E105" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F105" s="94"/>
-      <c r="G105" s="142"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="80"/>
       <c r="H105" s="54" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -8563,13 +8585,13 @@
       <c r="AI105" s="58"/>
     </row>
     <row r="106" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="91"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
-      <c r="G106" s="93"/>
+      <c r="A106" s="71"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="73"/>
       <c r="H106" s="68" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -8606,19 +8628,19 @@
       <c r="AI106" s="58"/>
     </row>
     <row r="107" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="90"/>
-      <c r="B107" s="92" t="s">
+      <c r="A107" s="70"/>
+      <c r="B107" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C107" s="86" t="s">
+      <c r="C107" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="D107" s="87"/>
-      <c r="E107" s="94" t="s">
+      <c r="D107" s="75"/>
+      <c r="E107" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F107" s="94"/>
-      <c r="G107" s="142"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="80"/>
       <c r="H107" s="54" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -8661,13 +8683,13 @@
       <c r="AI107" s="58"/>
     </row>
     <row r="108" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="91"/>
-      <c r="B108" s="93"/>
-      <c r="C108" s="88"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
-      <c r="G108" s="93"/>
+      <c r="A108" s="71"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="68" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -8704,17 +8726,17 @@
       <c r="AI108" s="58"/>
     </row>
     <row r="109" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="90">
+      <c r="A109" s="70">
         <v>2</v>
       </c>
-      <c r="B109" s="86" t="s">
+      <c r="B109" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C109" s="104"/>
-      <c r="D109" s="87"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="79"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="90"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -8748,13 +8770,13 @@
       <c r="AI109" s="58"/>
     </row>
     <row r="110" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="91"/>
-      <c r="B110" s="88"/>
-      <c r="C110" s="105"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="80"/>
+      <c r="A110" s="71"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="91"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -8788,19 +8810,19 @@
       <c r="AI110" s="58"/>
     </row>
     <row r="111" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="90"/>
-      <c r="B111" s="92" t="s">
+      <c r="A111" s="70"/>
+      <c r="B111" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C111" s="86" t="s">
+      <c r="C111" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D111" s="87"/>
-      <c r="E111" s="94" t="s">
+      <c r="D111" s="75"/>
+      <c r="E111" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F111" s="94"/>
-      <c r="G111" s="142"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="80"/>
       <c r="H111" s="54" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -8843,13 +8865,13 @@
       <c r="AI111" s="58"/>
     </row>
     <row r="112" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="91"/>
-      <c r="B112" s="93"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="89"/>
-      <c r="E112" s="95"/>
-      <c r="F112" s="95"/>
-      <c r="G112" s="93"/>
+      <c r="A112" s="71"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="73"/>
       <c r="H112" s="68" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -8886,19 +8908,19 @@
       <c r="AI112" s="58"/>
     </row>
     <row r="113" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="90"/>
-      <c r="B113" s="92" t="s">
+      <c r="A113" s="70"/>
+      <c r="B113" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C113" s="86" t="s">
+      <c r="C113" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D113" s="87"/>
-      <c r="E113" s="94" t="s">
+      <c r="D113" s="75"/>
+      <c r="E113" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F113" s="94"/>
-      <c r="G113" s="142"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="80"/>
       <c r="H113" s="54" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -8941,13 +8963,13 @@
       <c r="AI113" s="58"/>
     </row>
     <row r="114" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="91"/>
-      <c r="B114" s="93"/>
-      <c r="C114" s="88"/>
-      <c r="D114" s="89"/>
-      <c r="E114" s="95"/>
-      <c r="F114" s="95"/>
-      <c r="G114" s="93"/>
+      <c r="A114" s="71"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="73"/>
       <c r="H114" s="68" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -9002,6 +9024,321 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="339">
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D20"/>
@@ -9026,321 +9363,6 @@
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L25:W36 L38:W38 L37 N37:W37 L45:AE46 L9:AE18 L21:AE22 L53:AE56 L49:AE50 X25:AE38 L58:AE58 L57:M57 O57:AE57 L60:AE60 L59:M59 O59:AE59 L41:AE42">
@@ -9670,18 +9692,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9703,18 +9725,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート.xlsx
+++ b/00_management/WBSガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC28C1-086D-4905-9421-C1F35BC45C6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E757EB-FD2F-4257-B13A-4E4E3BEDC3D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="20295" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="255" windowWidth="19095" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -444,9 +444,6 @@
     <t>D.設計</t>
   </si>
   <si>
-    <t>テスト仕様書</t>
-  </si>
-  <si>
     <t>E.実装</t>
   </si>
   <si>
@@ -493,6 +490,13 @@
   </si>
   <si>
     <t>栢沼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合テスト仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1591,6 +1595,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1603,212 +1667,152 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2502,10 +2506,10 @@
   <dimension ref="A1:AI115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q52" sqref="Q52"/>
+      <selection pane="bottomRight" activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2524,204 +2528,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="107" t="s">
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="102">
+      <c r="L1" s="73">
         <v>43984</v>
       </c>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102">
+      <c r="M1" s="74"/>
+      <c r="N1" s="73">
         <v>43985</v>
       </c>
-      <c r="O1" s="103"/>
-      <c r="P1" s="102">
+      <c r="O1" s="74"/>
+      <c r="P1" s="73">
         <v>43986</v>
       </c>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="102">
+      <c r="Q1" s="74"/>
+      <c r="R1" s="73">
         <v>43987</v>
       </c>
-      <c r="S1" s="103"/>
-      <c r="T1" s="102">
+      <c r="S1" s="74"/>
+      <c r="T1" s="73">
         <v>43990</v>
       </c>
-      <c r="U1" s="103"/>
-      <c r="V1" s="102">
+      <c r="U1" s="74"/>
+      <c r="V1" s="73">
         <v>43991</v>
       </c>
-      <c r="W1" s="103"/>
-      <c r="X1" s="102">
+      <c r="W1" s="74"/>
+      <c r="X1" s="73">
         <v>43992</v>
       </c>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="102">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="73">
         <v>43993</v>
       </c>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="102">
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="73">
         <v>43994</v>
       </c>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="102">
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="73">
         <v>43997</v>
       </c>
-      <c r="AE1" s="103"/>
+      <c r="AE1" s="74"/>
       <c r="AF1" s="58"/>
       <c r="AG1" s="58"/>
       <c r="AH1" s="58"/>
       <c r="AI1" s="58"/>
     </row>
     <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="104" t="s">
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="104" t="s">
+      <c r="M2" s="71"/>
+      <c r="N2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="104" t="s">
+      <c r="O2" s="71"/>
+      <c r="P2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="104" t="s">
+      <c r="Q2" s="71"/>
+      <c r="R2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="105"/>
-      <c r="T2" s="104" t="s">
+      <c r="S2" s="71"/>
+      <c r="T2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="104" t="s">
+      <c r="U2" s="71"/>
+      <c r="V2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="105"/>
-      <c r="X2" s="104" t="s">
+      <c r="W2" s="71"/>
+      <c r="X2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="104" t="s">
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="104" t="s">
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="104" t="s">
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="105"/>
+      <c r="AE2" s="71"/>
       <c r="AF2" s="58"/>
       <c r="AG2" s="58"/>
       <c r="AH2" s="58"/>
       <c r="AI2" s="58"/>
     </row>
     <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="142" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="141"/>
-      <c r="N3" s="140" t="s">
+      <c r="M3" s="107"/>
+      <c r="N3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="141"/>
-      <c r="P3" s="140" t="s">
+      <c r="O3" s="107"/>
+      <c r="P3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="106" t="s">
+      <c r="Q3" s="107"/>
+      <c r="R3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106" t="s">
+      <c r="S3" s="72"/>
+      <c r="T3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106" t="s">
+      <c r="U3" s="72"/>
+      <c r="V3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106" t="s">
+      <c r="W3" s="72"/>
+      <c r="X3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106" t="s">
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106" t="s">
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106" t="s">
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="106"/>
+      <c r="AE3" s="72"/>
       <c r="AF3" s="58"/>
       <c r="AG3" s="58"/>
       <c r="AH3" s="58"/>
       <c r="AI3" s="58"/>
     </row>
     <row r="4" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="127"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="118"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="135"/>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2788,15 +2792,15 @@
       <c r="AI4" s="58"/>
     </row>
     <row r="5" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2896,13 +2900,13 @@
       <c r="AI5" s="58"/>
     </row>
     <row r="6" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="113"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="18" t="s">
         <v>28</v>
       </c>
@@ -2910,7 +2914,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="49">
         <f>SUM(K8,K24,K44)</f>
-        <v>43.11</v>
+        <v>50.51</v>
       </c>
       <c r="L6" s="29">
         <f t="shared" ref="L6:M6" si="2">SUM(L8,L24,L44)</f>
@@ -2930,7 +2934,7 @@
       </c>
       <c r="P6" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="Q6" s="30">
         <f t="shared" si="3"/>
@@ -2998,15 +3002,15 @@
       <c r="AI6" s="58"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="137"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
@@ -3104,13 +3108,13 @@
       <c r="AI7" s="58"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="138"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
@@ -3206,17 +3210,17 @@
       <c r="AI8" s="58"/>
     </row>
     <row r="9" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="122">
+      <c r="A9" s="84">
         <v>1</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="90"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -3247,13 +3251,13 @@
       <c r="AI9" s="58"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="123"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="91"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -3284,21 +3288,21 @@
       <c r="AI10" s="58"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="122"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="81" t="s">
+      <c r="D11" s="87"/>
+      <c r="E11" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="83"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -3341,13 +3345,13 @@
       <c r="AI11" s="58"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="123"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="84"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="67" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -3390,21 +3394,21 @@
       <c r="AI12" s="58"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="122"/>
-      <c r="B13" s="87" t="s">
+      <c r="A13" s="84"/>
+      <c r="B13" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="81" t="s">
+      <c r="D13" s="87"/>
+      <c r="E13" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -3449,13 +3453,13 @@
       <c r="AI13" s="58"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="123"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="84"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="67" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -3500,17 +3504,17 @@
       <c r="AI14" s="58"/>
     </row>
     <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="122">
+      <c r="A15" s="84">
         <v>2</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="90"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="79"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3544,13 +3548,13 @@
       <c r="AI15" s="58"/>
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="123"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="91"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3584,21 +3588,21 @@
       <c r="AI16" s="58"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="122"/>
-      <c r="B17" s="87" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="81" t="s">
+      <c r="D17" s="87"/>
+      <c r="E17" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="83"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3643,13 +3647,13 @@
       <c r="AI17" s="58"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="123"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="84"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="78"/>
       <c r="H18" s="67" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3694,21 +3698,21 @@
       <c r="AI18" s="58"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="90"/>
+      <c r="B19" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="78" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="80"/>
+      <c r="G19" s="142"/>
       <c r="H19" s="54" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3753,13 +3757,13 @@
       <c r="AI19" s="58"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="73"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="68" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3804,21 +3808,21 @@
       <c r="AI20" s="58"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="122"/>
-      <c r="B21" s="87" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="81" t="s">
+      <c r="D21" s="87"/>
+      <c r="E21" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="83"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3863,13 +3867,13 @@
       <c r="AI21" s="58"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="123"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="84"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="67" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3914,15 +3918,15 @@
       <c r="AI22" s="58"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="100"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="136"/>
       <c r="H23" s="20" t="s">
         <v>26</v>
       </c>
@@ -4020,13 +4024,13 @@
       <c r="AI23" s="58"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="101"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="7" t="s">
         <v>28</v>
       </c>
@@ -4122,17 +4126,17 @@
       <c r="AI24" s="58"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="122">
+      <c r="A25" s="84">
         <v>1</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="90"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -4166,13 +4170,13 @@
       <c r="AI25" s="58"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="123"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="91"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -4206,19 +4210,19 @@
       <c r="AI26" s="58"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="122"/>
-      <c r="B27" s="87" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="81" t="s">
+      <c r="D27" s="87"/>
+      <c r="E27" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="81"/>
-      <c r="G27" s="83"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -4261,13 +4265,13 @@
       <c r="AI27" s="58"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="123"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="84"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="78"/>
       <c r="H28" s="67" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -4310,19 +4314,19 @@
       <c r="AI28" s="58"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="122"/>
-      <c r="B29" s="87" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="81" t="s">
+      <c r="D29" s="87"/>
+      <c r="E29" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="81"/>
-      <c r="G29" s="83"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -4365,13 +4369,13 @@
       <c r="AI29" s="58"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="123"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="84"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="78"/>
       <c r="H30" s="67" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -4414,19 +4418,19 @@
       <c r="AI30" s="58"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="122"/>
-      <c r="B31" s="87" t="s">
+      <c r="A31" s="84"/>
+      <c r="B31" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="81" t="s">
+      <c r="D31" s="87"/>
+      <c r="E31" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="83"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -4469,13 +4473,13 @@
       <c r="AI31" s="58"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="123"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="84"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="67" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -4518,19 +4522,19 @@
       <c r="AI32" s="58"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="122"/>
-      <c r="B33" s="87" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="81" t="s">
+      <c r="D33" s="87"/>
+      <c r="E33" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="81"/>
-      <c r="G33" s="83"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -4573,13 +4577,13 @@
       <c r="AI33" s="58"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="123"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="84"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="78"/>
       <c r="H34" s="67" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -4622,17 +4626,17 @@
       <c r="AI34" s="58"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="122">
+      <c r="A35" s="84">
         <v>2</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="90"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -4666,13 +4670,13 @@
       <c r="AI35" s="58"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="123"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="91"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -4706,19 +4710,19 @@
       <c r="AI36" s="58"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="122"/>
-      <c r="B37" s="87" t="s">
+      <c r="A37" s="84"/>
+      <c r="B37" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="81" t="s">
+      <c r="D37" s="87"/>
+      <c r="E37" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="83"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -4761,13 +4765,13 @@
       <c r="AI37" s="58"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="123"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="84"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="78"/>
       <c r="H38" s="67" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4810,19 +4814,19 @@
       <c r="AI38" s="58"/>
     </row>
     <row r="39" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
-      <c r="B39" s="72" t="s">
+      <c r="A39" s="90"/>
+      <c r="B39" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="78" t="s">
+      <c r="D39" s="87"/>
+      <c r="E39" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="80"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="142"/>
       <c r="H39" s="54" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4865,13 +4869,13 @@
       <c r="AI39" s="58"/>
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="73"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="93"/>
       <c r="H40" s="68" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4914,25 +4918,25 @@
       <c r="AI40" s="58"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="122"/>
-      <c r="B41" s="87" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="E41" s="81" t="s">
+      <c r="D41" s="87"/>
+      <c r="E41" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="81"/>
-      <c r="G41" s="83"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="77"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J41" s="8">
         <v>1</v>
@@ -4969,19 +4973,19 @@
       <c r="AI41" s="58"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="123"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="84"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="78"/>
       <c r="H42" s="67" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J42" s="67">
         <v>1</v>
@@ -5018,15 +5022,15 @@
       <c r="AI42" s="58"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="100"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="136"/>
       <c r="H43" s="20" t="s">
         <v>26</v>
       </c>
@@ -5122,13 +5126,13 @@
       <c r="AI43" s="58"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="95"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="101"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="137"/>
       <c r="H44" s="7" t="s">
         <v>28</v>
       </c>
@@ -5136,7 +5140,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="22">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
-        <v>16.600000000000001</v>
+        <v>24</v>
       </c>
       <c r="L44" s="40">
         <f t="shared" ref="L44:W44" si="17">SUMPRODUCT((MOD(ROW(L$45:L$60),2)=0)*L$45:L$60)</f>
@@ -5156,7 +5160,7 @@
       </c>
       <c r="P44" s="39">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="Q44" s="39">
         <f t="shared" si="17"/>
@@ -5224,17 +5228,17 @@
       <c r="AI44" s="58"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="122">
+      <c r="A45" s="84">
         <v>1</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="90"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -5268,13 +5272,13 @@
       <c r="AI45" s="58"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="123"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="91"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -5308,19 +5312,19 @@
       <c r="AI46" s="58"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="70"/>
-      <c r="B47" s="72" t="s">
+      <c r="A47" s="90"/>
+      <c r="B47" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="78" t="s">
+      <c r="D47" s="87"/>
+      <c r="E47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="78"/>
-      <c r="G47" s="80"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="142"/>
       <c r="H47" s="54" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -5363,13 +5367,13 @@
       <c r="AI47" s="58"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="73"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="93"/>
       <c r="H48" s="68" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -5412,19 +5416,19 @@
       <c r="AI48" s="58"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="122"/>
-      <c r="B49" s="87" t="s">
+      <c r="A49" s="84"/>
+      <c r="B49" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="81" t="s">
+      <c r="D49" s="87"/>
+      <c r="E49" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="81"/>
-      <c r="G49" s="83"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="77"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -5467,13 +5471,13 @@
       <c r="AI49" s="58"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="123"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="84"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="78"/>
       <c r="H50" s="67" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -5486,7 +5490,7 @@
       </c>
       <c r="K50" s="10">
         <f t="shared" ref="K50:K60" si="19">SUM(L50:W50)</f>
-        <v>6.5</v>
+        <v>9.75</v>
       </c>
       <c r="L50" s="43"/>
       <c r="M50" s="34"/>
@@ -5496,7 +5500,9 @@
       <c r="O50" s="34">
         <v>6.25</v>
       </c>
-      <c r="P50" s="34"/>
+      <c r="P50" s="34">
+        <v>3.25</v>
+      </c>
       <c r="Q50" s="34"/>
       <c r="R50" s="34"/>
       <c r="S50" s="34"/>
@@ -5518,19 +5524,19 @@
       <c r="AI50" s="58"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="70"/>
-      <c r="B51" s="72" t="s">
+      <c r="A51" s="90"/>
+      <c r="B51" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="78" t="s">
+      <c r="D51" s="87"/>
+      <c r="E51" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="78"/>
-      <c r="G51" s="80"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="142"/>
       <c r="H51" s="54" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -5573,13 +5579,13 @@
       <c r="AI51" s="58"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="71"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="73"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="93"/>
       <c r="H52" s="68" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -5592,7 +5598,7 @@
       </c>
       <c r="K52" s="10">
         <f>SUM(L52:W52)</f>
-        <v>7</v>
+        <v>10.25</v>
       </c>
       <c r="L52" s="52"/>
       <c r="M52" s="53"/>
@@ -5602,7 +5608,9 @@
       <c r="O52" s="53">
         <v>6.25</v>
       </c>
-      <c r="P52" s="53"/>
+      <c r="P52" s="53">
+        <v>3.25</v>
+      </c>
       <c r="Q52" s="53"/>
       <c r="R52" s="53"/>
       <c r="S52" s="53"/>
@@ -5624,17 +5632,17 @@
       <c r="AI52" s="58"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="122">
+      <c r="A53" s="84">
         <v>2</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="90"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -5668,13 +5676,13 @@
       <c r="AI53" s="58"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="123"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="91"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="80"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -5708,19 +5716,19 @@
       <c r="AI54" s="58"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="122"/>
-      <c r="B55" s="87" t="s">
+      <c r="A55" s="84"/>
+      <c r="B55" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="75"/>
-      <c r="E55" s="81" t="s">
+      <c r="D55" s="87"/>
+      <c r="E55" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="81"/>
-      <c r="G55" s="83"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="77"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -5763,13 +5771,13 @@
       <c r="AI55" s="58"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="123"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="84"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="78"/>
       <c r="H56" s="67" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -5782,7 +5790,7 @@
       </c>
       <c r="K56" s="10">
         <f t="shared" si="19"/>
-        <v>1.25</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L56" s="43"/>
       <c r="M56" s="34"/>
@@ -5790,7 +5798,9 @@
       <c r="O56" s="34">
         <v>1.25</v>
       </c>
-      <c r="P56" s="34"/>
+      <c r="P56" s="34">
+        <v>0.8</v>
+      </c>
       <c r="Q56" s="34"/>
       <c r="R56" s="34"/>
       <c r="S56" s="34"/>
@@ -5812,19 +5822,19 @@
       <c r="AI56" s="58"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="122"/>
-      <c r="B57" s="87" t="s">
+      <c r="A57" s="84"/>
+      <c r="B57" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="81" t="s">
+      <c r="D57" s="87"/>
+      <c r="E57" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="81"/>
-      <c r="G57" s="83"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="77"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -5867,13 +5877,13 @@
       <c r="AI57" s="58"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="123"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="84"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="78"/>
       <c r="H58" s="67" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -5916,19 +5926,19 @@
       <c r="AI58" s="58"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="122"/>
-      <c r="B59" s="87" t="s">
+      <c r="A59" s="84"/>
+      <c r="B59" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="81" t="s">
+      <c r="D59" s="87"/>
+      <c r="E59" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="81"/>
-      <c r="G59" s="83"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="77"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -5971,13 +5981,13 @@
       <c r="AI59" s="58"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="123"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="84"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="78"/>
       <c r="H60" s="67" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -5990,7 +6000,7 @@
       </c>
       <c r="K60" s="10">
         <f t="shared" si="19"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L60" s="45"/>
       <c r="M60" s="46"/>
@@ -5998,7 +6008,9 @@
       <c r="O60" s="46">
         <v>0.1</v>
       </c>
-      <c r="P60" s="46"/>
+      <c r="P60" s="46">
+        <v>0.1</v>
+      </c>
       <c r="Q60" s="46"/>
       <c r="R60" s="46"/>
       <c r="S60" s="46"/>
@@ -6020,15 +6032,15 @@
       <c r="AI60" s="58"/>
     </row>
     <row r="61" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="100"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="136"/>
       <c r="H61" s="20" t="s">
         <v>26</v>
       </c>
@@ -6124,13 +6136,13 @@
       <c r="AI61" s="58"/>
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="95"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="101"/>
+      <c r="A62" s="99"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="137"/>
       <c r="H62" s="7" t="s">
         <v>28</v>
       </c>
@@ -6226,17 +6238,17 @@
       <c r="AI62" s="58"/>
     </row>
     <row r="63" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="70">
+      <c r="A63" s="90">
         <v>1</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="85"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="88"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="90"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="79"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -6270,13 +6282,13 @@
       <c r="AI63" s="58"/>
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="71"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="91"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="80"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -6310,19 +6322,19 @@
       <c r="AI64" s="58"/>
     </row>
     <row r="65" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="72" t="s">
+      <c r="A65" s="90"/>
+      <c r="B65" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="75"/>
-      <c r="E65" s="78" t="s">
+      <c r="D65" s="87"/>
+      <c r="E65" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="78"/>
-      <c r="G65" s="80"/>
+      <c r="F65" s="94"/>
+      <c r="G65" s="142"/>
       <c r="H65" s="54" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -6365,13 +6377,13 @@
       <c r="AI65" s="58"/>
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="71"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="73"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="93"/>
       <c r="H66" s="68" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -6408,19 +6420,19 @@
       <c r="AI66" s="58"/>
     </row>
     <row r="67" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="72" t="s">
+      <c r="A67" s="90"/>
+      <c r="B67" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="78" t="s">
+      <c r="D67" s="87"/>
+      <c r="E67" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="80"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="142"/>
       <c r="H67" s="54" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -6465,13 +6477,13 @@
       <c r="AI67" s="58"/>
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="71"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="73"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="93"/>
       <c r="H68" s="68" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -6508,19 +6520,19 @@
       <c r="AI68" s="58"/>
     </row>
     <row r="69" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
-      <c r="B69" s="72" t="s">
+      <c r="A69" s="90"/>
+      <c r="B69" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="78" t="s">
+      <c r="C69" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="87"/>
+      <c r="E69" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="78"/>
-      <c r="G69" s="80"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="142"/>
       <c r="H69" s="54" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -6563,13 +6575,13 @@
       <c r="AI69" s="58"/>
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="71"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="73"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="93"/>
       <c r="H70" s="68" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -6606,17 +6618,17 @@
       <c r="AI70" s="58"/>
     </row>
     <row r="71" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="70">
+      <c r="A71" s="90">
         <v>2</v>
       </c>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="85"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="90"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="79"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -6650,13 +6662,13 @@
       <c r="AI71" s="58"/>
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="71"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="91"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="80"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -6690,19 +6702,19 @@
       <c r="AI72" s="58"/>
     </row>
     <row r="73" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="72" t="s">
+      <c r="A73" s="90"/>
+      <c r="B73" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="75"/>
-      <c r="E73" s="78" t="s">
+      <c r="D73" s="87"/>
+      <c r="E73" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="78"/>
-      <c r="G73" s="80"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="142"/>
       <c r="H73" s="54" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -6745,13 +6757,13 @@
       <c r="AI73" s="58"/>
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="71"/>
-      <c r="B74" s="73"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="73"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="93"/>
       <c r="H74" s="68" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -6788,19 +6800,19 @@
       <c r="AI74" s="58"/>
     </row>
     <row r="75" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="72" t="s">
+      <c r="A75" s="90"/>
+      <c r="B75" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="75"/>
-      <c r="E75" s="78" t="s">
+      <c r="D75" s="87"/>
+      <c r="E75" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="78"/>
-      <c r="G75" s="80"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="142"/>
       <c r="H75" s="54" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -6843,13 +6855,13 @@
       <c r="AI75" s="58"/>
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="71"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="73"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="93"/>
       <c r="H76" s="68" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -6886,19 +6898,19 @@
       <c r="AI76" s="58"/>
     </row>
     <row r="77" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70"/>
-      <c r="B77" s="72" t="s">
+      <c r="A77" s="90"/>
+      <c r="B77" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="75"/>
-      <c r="E77" s="78" t="s">
+      <c r="D77" s="87"/>
+      <c r="E77" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="78"/>
-      <c r="G77" s="80"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="142"/>
       <c r="H77" s="54" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -6941,13 +6953,13 @@
       <c r="AI77" s="58"/>
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="71"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="73"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="93"/>
       <c r="H78" s="68" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -6984,15 +6996,15 @@
       <c r="AI78" s="58"/>
     </row>
     <row r="79" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="93"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="98"/>
-      <c r="F79" s="98"/>
-      <c r="G79" s="100"/>
+      <c r="A79" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="136"/>
       <c r="H79" s="20" t="s">
         <v>26</v>
       </c>
@@ -7088,13 +7100,13 @@
       <c r="AI79" s="58"/>
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="95"/>
-      <c r="B80" s="96"/>
-      <c r="C80" s="96"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="101"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="137"/>
       <c r="H80" s="7" t="s">
         <v>28</v>
       </c>
@@ -7190,19 +7202,19 @@
       <c r="AI80" s="58"/>
     </row>
     <row r="81" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="70">
+      <c r="A81" s="90">
         <v>1</v>
       </c>
-      <c r="B81" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" s="85"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="88" t="s">
+      <c r="B81" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="104"/>
+      <c r="D81" s="87"/>
+      <c r="E81" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F81" s="88"/>
-      <c r="G81" s="90"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="79"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -7236,13 +7248,13 @@
       <c r="AI81" s="58"/>
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="71"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="89"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="91"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="80"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -7276,19 +7288,19 @@
       <c r="AI82" s="58"/>
     </row>
     <row r="83" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="70"/>
-      <c r="B83" s="72" t="s">
+      <c r="A83" s="90"/>
+      <c r="B83" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="78" t="s">
+      <c r="C83" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="87"/>
+      <c r="E83" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F83" s="78"/>
-      <c r="G83" s="80"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="142"/>
       <c r="H83" s="54" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -7333,13 +7345,13 @@
       <c r="AI83" s="58"/>
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="71"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="73"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="95"/>
+      <c r="F84" s="95"/>
+      <c r="G84" s="93"/>
       <c r="H84" s="68" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -7376,19 +7388,19 @@
       <c r="AI84" s="58"/>
     </row>
     <row r="85" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70"/>
-      <c r="B85" s="72" t="s">
+      <c r="A85" s="90"/>
+      <c r="B85" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" s="75"/>
-      <c r="E85" s="78" t="s">
+      <c r="C85" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" s="87"/>
+      <c r="E85" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F85" s="78"/>
-      <c r="G85" s="80"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="142"/>
       <c r="H85" s="54" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -7431,13 +7443,13 @@
       <c r="AI85" s="58"/>
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="71"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="73"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="93"/>
       <c r="H86" s="68" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -7474,15 +7486,15 @@
       <c r="AI86" s="58"/>
     </row>
     <row r="87" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="93"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="94"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="98"/>
-      <c r="G87" s="100"/>
+      <c r="A87" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="136"/>
       <c r="H87" s="20" t="s">
         <v>26</v>
       </c>
@@ -7578,13 +7590,13 @@
       <c r="AI87" s="58"/>
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="95"/>
-      <c r="B88" s="96"/>
-      <c r="C88" s="96"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="101"/>
+      <c r="A88" s="99"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="100"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="137"/>
       <c r="H88" s="7" t="s">
         <v>28</v>
       </c>
@@ -7680,17 +7692,17 @@
       <c r="AI88" s="58"/>
     </row>
     <row r="89" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="70">
+      <c r="A89" s="90">
         <v>1</v>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="85"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="90"/>
+      <c r="C89" s="104"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="79"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -7724,13 +7736,13 @@
       <c r="AI89" s="58"/>
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="71"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="91"/>
+      <c r="A90" s="91"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="80"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -7764,25 +7776,25 @@
       <c r="AI90" s="58"/>
     </row>
     <row r="91" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="70"/>
-      <c r="B91" s="72" t="s">
+      <c r="A91" s="90"/>
+      <c r="B91" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C91" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" s="75"/>
-      <c r="E91" s="78" t="s">
+      <c r="D91" s="87"/>
+      <c r="E91" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F91" s="78"/>
-      <c r="G91" s="80"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="142"/>
       <c r="H91" s="54" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I91" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J91" s="54">
         <v>4</v>
@@ -7819,13 +7831,13 @@
       <c r="AI91" s="58"/>
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="71"/>
-      <c r="B92" s="73"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="79"/>
-      <c r="F92" s="79"/>
-      <c r="G92" s="73"/>
+      <c r="A92" s="91"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="95"/>
+      <c r="F92" s="95"/>
+      <c r="G92" s="93"/>
       <c r="H92" s="68" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -7862,19 +7874,19 @@
       <c r="AI92" s="58"/>
     </row>
     <row r="93" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="70"/>
-      <c r="B93" s="72" t="s">
+      <c r="A93" s="90"/>
+      <c r="B93" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D93" s="75"/>
-      <c r="E93" s="78" t="s">
+      <c r="C93" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="87"/>
+      <c r="E93" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F93" s="78"/>
-      <c r="G93" s="80"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="142"/>
       <c r="H93" s="54" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -7917,13 +7929,13 @@
       <c r="AI93" s="58"/>
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="71"/>
-      <c r="B94" s="73"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="73"/>
+      <c r="A94" s="91"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="95"/>
+      <c r="G94" s="93"/>
       <c r="H94" s="68" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -7960,17 +7972,17 @@
       <c r="AI94" s="58"/>
     </row>
     <row r="95" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70">
+      <c r="A95" s="90">
         <v>2</v>
       </c>
-      <c r="B95" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" s="85"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="90"/>
+      <c r="B95" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="104"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="79"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -8004,13 +8016,13 @@
       <c r="AI95" s="58"/>
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="71"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="86"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="89"/>
-      <c r="G96" s="91"/>
+      <c r="A96" s="91"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="80"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -8044,19 +8056,19 @@
       <c r="AI96" s="58"/>
     </row>
     <row r="97" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="70"/>
-      <c r="B97" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C97" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="D97" s="75"/>
-      <c r="E97" s="78" t="s">
+      <c r="A97" s="90"/>
+      <c r="B97" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97" s="87"/>
+      <c r="E97" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="78"/>
-      <c r="G97" s="80"/>
+      <c r="F97" s="94"/>
+      <c r="G97" s="142"/>
       <c r="H97" s="54" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -8099,13 +8111,13 @@
       <c r="AI97" s="58"/>
     </row>
     <row r="98" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="71"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="73"/>
+      <c r="A98" s="91"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="93"/>
       <c r="H98" s="68" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -8142,25 +8154,25 @@
       <c r="AI98" s="58"/>
     </row>
     <row r="99" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70"/>
-      <c r="B99" s="72" t="s">
+      <c r="A99" s="90"/>
+      <c r="B99" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="D99" s="75"/>
-      <c r="E99" s="78" t="s">
+      <c r="C99" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99" s="87"/>
+      <c r="E99" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="78"/>
-      <c r="G99" s="80"/>
+      <c r="F99" s="94"/>
+      <c r="G99" s="142"/>
       <c r="H99" s="54" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I99" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J99" s="54">
         <v>1</v>
@@ -8197,13 +8209,13 @@
       <c r="AI99" s="58"/>
     </row>
     <row r="100" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="71"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="73"/>
+      <c r="A100" s="91"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="88"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="93"/>
       <c r="H100" s="68" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -8240,15 +8252,15 @@
       <c r="AI100" s="58"/>
     </row>
     <row r="101" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="B101" s="93"/>
-      <c r="C101" s="93"/>
-      <c r="D101" s="94"/>
-      <c r="E101" s="98"/>
-      <c r="F101" s="98"/>
-      <c r="G101" s="100"/>
+      <c r="A101" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" s="97"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="98"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="136"/>
       <c r="H101" s="20" t="s">
         <v>26</v>
       </c>
@@ -8344,13 +8356,13 @@
       <c r="AI101" s="58"/>
     </row>
     <row r="102" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="95"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="97"/>
-      <c r="E102" s="99"/>
-      <c r="F102" s="99"/>
-      <c r="G102" s="101"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="100"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="137"/>
       <c r="H102" s="7" t="s">
         <v>28</v>
       </c>
@@ -8446,17 +8458,17 @@
       <c r="AI102" s="58"/>
     </row>
     <row r="103" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="70">
+      <c r="A103" s="90">
         <v>1</v>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C103" s="85"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="88"/>
-      <c r="F103" s="88"/>
-      <c r="G103" s="90"/>
+      <c r="C103" s="104"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="79"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -8490,13 +8502,13 @@
       <c r="AI103" s="58"/>
     </row>
     <row r="104" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="71"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="86"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="89"/>
-      <c r="F104" s="89"/>
-      <c r="G104" s="91"/>
+      <c r="A104" s="91"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="80"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -8530,19 +8542,19 @@
       <c r="AI104" s="58"/>
     </row>
     <row r="105" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="70"/>
-      <c r="B105" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C105" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" s="75"/>
-      <c r="E105" s="78" t="s">
+      <c r="A105" s="90"/>
+      <c r="B105" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="87"/>
+      <c r="E105" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F105" s="78"/>
-      <c r="G105" s="80"/>
+      <c r="F105" s="94"/>
+      <c r="G105" s="142"/>
       <c r="H105" s="54" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -8585,13 +8597,13 @@
       <c r="AI105" s="58"/>
     </row>
     <row r="106" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="71"/>
-      <c r="B106" s="73"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="73"/>
+      <c r="A106" s="91"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="93"/>
       <c r="H106" s="68" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -8628,19 +8640,19 @@
       <c r="AI106" s="58"/>
     </row>
     <row r="107" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="70"/>
-      <c r="B107" s="72" t="s">
+      <c r="A107" s="90"/>
+      <c r="B107" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C107" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D107" s="75"/>
-      <c r="E107" s="78" t="s">
+      <c r="C107" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D107" s="87"/>
+      <c r="E107" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F107" s="78"/>
-      <c r="G107" s="80"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="142"/>
       <c r="H107" s="54" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -8683,13 +8695,13 @@
       <c r="AI107" s="58"/>
     </row>
     <row r="108" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="71"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="79"/>
-      <c r="G108" s="73"/>
+      <c r="A108" s="91"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="88"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="95"/>
+      <c r="F108" s="95"/>
+      <c r="G108" s="93"/>
       <c r="H108" s="68" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -8726,17 +8738,17 @@
       <c r="AI108" s="58"/>
     </row>
     <row r="109" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="70">
+      <c r="A109" s="90">
         <v>2</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C109" s="85"/>
-      <c r="D109" s="75"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="90"/>
+      <c r="C109" s="104"/>
+      <c r="D109" s="87"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="79"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -8770,13 +8782,13 @@
       <c r="AI109" s="58"/>
     </row>
     <row r="110" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="71"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="86"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="89"/>
-      <c r="F110" s="89"/>
-      <c r="G110" s="91"/>
+      <c r="A110" s="91"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="80"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -8810,19 +8822,19 @@
       <c r="AI110" s="58"/>
     </row>
     <row r="111" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="70"/>
-      <c r="B111" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="74" t="s">
+      <c r="A111" s="90"/>
+      <c r="B111" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C111" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D111" s="75"/>
-      <c r="E111" s="78" t="s">
+      <c r="D111" s="87"/>
+      <c r="E111" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F111" s="78"/>
-      <c r="G111" s="80"/>
+      <c r="F111" s="94"/>
+      <c r="G111" s="142"/>
       <c r="H111" s="54" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -8865,13 +8877,13 @@
       <c r="AI111" s="58"/>
     </row>
     <row r="112" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="71"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="79"/>
-      <c r="F112" s="79"/>
-      <c r="G112" s="73"/>
+      <c r="A112" s="91"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="88"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="95"/>
+      <c r="F112" s="95"/>
+      <c r="G112" s="93"/>
       <c r="H112" s="68" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -8908,25 +8920,25 @@
       <c r="AI112" s="58"/>
     </row>
     <row r="113" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="70"/>
-      <c r="B113" s="72" t="s">
+      <c r="A113" s="90"/>
+      <c r="B113" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C113" s="74" t="s">
+      <c r="C113" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="78" t="s">
+      <c r="D113" s="87"/>
+      <c r="E113" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F113" s="78"/>
-      <c r="G113" s="80"/>
+      <c r="F113" s="94"/>
+      <c r="G113" s="142"/>
       <c r="H113" s="54" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I113" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J113" s="54">
         <v>1</v>
@@ -8963,13 +8975,13 @@
       <c r="AI113" s="58"/>
     </row>
     <row r="114" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="71"/>
-      <c r="B114" s="73"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="73"/>
+      <c r="A114" s="91"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="88"/>
+      <c r="D114" s="89"/>
+      <c r="E114" s="95"/>
+      <c r="F114" s="95"/>
+      <c r="G114" s="93"/>
       <c r="H114" s="68" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -9024,44 +9036,283 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="339">
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:D60"/>
@@ -9086,283 +9337,44 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:D54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L25:W36 L38:W38 L37 N37:W37 L45:AE46 L9:AE18 L21:AE22 L53:AE56 L49:AE50 X25:AE38 L58:AE58 L57:M57 O57:AE57 L60:AE60 L59:M59 O59:AE59 L41:AE42">
@@ -9692,18 +9704,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9725,18 +9737,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート.xlsx
+++ b/00_management/WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E757EB-FD2F-4257-B13A-4E4E3BEDC3D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8316CE-A039-41C6-AC58-74AD5A8EBE3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="255" windowWidth="19095" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="81">
   <si>
     <t>チケット予約システム</t>
   </si>
@@ -2506,10 +2506,10 @@
   <dimension ref="A1:AI115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N72" sqref="N72"/>
+      <selection pane="bottomRight" activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2914,7 +2914,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="49">
         <f>SUM(K8,K24,K44)</f>
-        <v>50.51</v>
+        <v>55.76</v>
       </c>
       <c r="L6" s="29">
         <f t="shared" ref="L6:M6" si="2">SUM(L8,L24,L44)</f>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="N6" s="30">
         <f t="shared" ref="N6:AE6" si="3">SUM(N8,N24,N44,N62,N80,N88,N102)</f>
-        <v>4.16</v>
+        <v>9.41</v>
       </c>
       <c r="O6" s="30">
         <f t="shared" si="3"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="P6" s="30">
         <f t="shared" si="3"/>
-        <v>7.3999999999999995</v>
+        <v>9.8999999999999986</v>
       </c>
       <c r="Q6" s="30">
         <f t="shared" si="3"/>
@@ -5140,7 +5140,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="22">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
-        <v>24</v>
+        <v>29.25</v>
       </c>
       <c r="L44" s="40">
         <f t="shared" ref="L44:W44" si="17">SUMPRODUCT((MOD(ROW(L$45:L$60),2)=0)*L$45:L$60)</f>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="N44" s="39">
         <f t="shared" si="17"/>
-        <v>1.25</v>
+        <v>6.5</v>
       </c>
       <c r="O44" s="39">
         <f t="shared" si="17"/>
@@ -5490,12 +5490,12 @@
       </c>
       <c r="K50" s="10">
         <f t="shared" ref="K50:K60" si="19">SUM(L50:W50)</f>
-        <v>9.75</v>
+        <v>14.5</v>
       </c>
       <c r="L50" s="43"/>
       <c r="M50" s="34"/>
       <c r="N50" s="34">
-        <v>0.25</v>
+        <v>5</v>
       </c>
       <c r="O50" s="34">
         <v>6.25</v>
@@ -5598,12 +5598,12 @@
       </c>
       <c r="K52" s="10">
         <f>SUM(L52:W52)</f>
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="L52" s="52"/>
       <c r="M52" s="53"/>
       <c r="N52" s="53">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="O52" s="53">
         <v>6.25</v>
@@ -6150,7 +6150,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="66" cm="1">
         <f t="array" ref="K62">SUMPRODUCT((MOD(ROW(K$63:K$78),2)=0)*K$63:K$78)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L62" s="21" cm="1">
         <f t="array" ref="L62">SUMPRODUCT((MOD(ROW(L$63:L$78),2)=0)*L$63:L$78)</f>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="P62" s="21" cm="1">
         <f t="array" ref="P62">SUMPRODUCT((MOD(ROW(P$63:P$78),2)=0)*P$63:P$78)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q62" s="21" cm="1">
         <f t="array" ref="Q62">SUMPRODUCT((MOD(ROW(Q$63:Q$78),2)=0)*Q$63:Q$78)</f>
@@ -6340,7 +6340,7 @@
         <v>予定</v>
       </c>
       <c r="I65" s="54" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J65" s="54">
         <v>5</v>
@@ -6388,17 +6388,23 @@
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
+      <c r="I66" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" s="68">
+        <v>5</v>
+      </c>
       <c r="K66" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L66" s="52"/>
       <c r="M66" s="53"/>
       <c r="N66" s="53"/>
       <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
+      <c r="P66" s="53">
+        <v>2.5</v>
+      </c>
       <c r="Q66" s="53"/>
       <c r="R66" s="53"/>
       <c r="S66" s="53"/>
@@ -6488,8 +6494,12 @@
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
+      <c r="I68" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="68">
+        <v>5</v>
+      </c>
       <c r="K68" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -6537,9 +6547,7 @@
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I69" s="54" t="s">
-        <v>27</v>
-      </c>
+      <c r="I69" s="54"/>
       <c r="J69" s="54">
         <v>5</v>
       </c>

--- a/00_management/WBSガントチャート.xlsx
+++ b/00_management/WBSガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8316CE-A039-41C6-AC58-74AD5A8EBE3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D8B22B-6D7A-49FC-A882-BA471175E0FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="255" windowWidth="19095" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="90" windowWidth="19095" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -1595,6 +1595,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1604,37 +1706,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1644,64 +1758,52 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1711,108 +1813,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2506,10 +2506,10 @@
   <dimension ref="A1:AI115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N53" sqref="N53"/>
+      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2528,204 +2528,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="110" t="s">
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="110" t="s">
+      <c r="I1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="73">
+      <c r="L1" s="102">
         <v>43984</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="73">
+      <c r="M1" s="103"/>
+      <c r="N1" s="102">
         <v>43985</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="73">
+      <c r="O1" s="103"/>
+      <c r="P1" s="102">
         <v>43986</v>
       </c>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="73">
+      <c r="Q1" s="103"/>
+      <c r="R1" s="102">
         <v>43987</v>
       </c>
-      <c r="S1" s="74"/>
-      <c r="T1" s="73">
+      <c r="S1" s="103"/>
+      <c r="T1" s="102">
         <v>43990</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="73">
+      <c r="U1" s="103"/>
+      <c r="V1" s="102">
         <v>43991</v>
       </c>
-      <c r="W1" s="74"/>
-      <c r="X1" s="73">
+      <c r="W1" s="103"/>
+      <c r="X1" s="102">
         <v>43992</v>
       </c>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="73">
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="102">
         <v>43993</v>
       </c>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="73">
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="102">
         <v>43994</v>
       </c>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="73">
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="102">
         <v>43997</v>
       </c>
-      <c r="AE1" s="74"/>
+      <c r="AE1" s="103"/>
       <c r="AF1" s="58"/>
       <c r="AG1" s="58"/>
       <c r="AH1" s="58"/>
       <c r="AI1" s="58"/>
     </row>
     <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="70" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="70" t="s">
+      <c r="M2" s="105"/>
+      <c r="N2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="70" t="s">
+      <c r="O2" s="105"/>
+      <c r="P2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="70" t="s">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="71"/>
-      <c r="T2" s="70" t="s">
+      <c r="S2" s="105"/>
+      <c r="T2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="71"/>
-      <c r="V2" s="70" t="s">
+      <c r="U2" s="105"/>
+      <c r="V2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="71"/>
-      <c r="X2" s="70" t="s">
+      <c r="W2" s="105"/>
+      <c r="X2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="70" t="s">
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="70" t="s">
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="70" t="s">
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="71"/>
+      <c r="AE2" s="105"/>
       <c r="AF2" s="58"/>
       <c r="AG2" s="58"/>
       <c r="AH2" s="58"/>
       <c r="AI2" s="58"/>
     </row>
     <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="108" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="107"/>
-      <c r="N3" s="106" t="s">
+      <c r="M3" s="141"/>
+      <c r="N3" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="107"/>
-      <c r="P3" s="106" t="s">
+      <c r="O3" s="141"/>
+      <c r="P3" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="141"/>
+      <c r="R3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72" t="s">
+      <c r="S3" s="106"/>
+      <c r="T3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="106"/>
+      <c r="V3" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72" t="s">
+      <c r="W3" s="106"/>
+      <c r="X3" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72" t="s">
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72" t="s">
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72" t="s">
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="72"/>
+      <c r="AE3" s="106"/>
       <c r="AF3" s="58"/>
       <c r="AG3" s="58"/>
       <c r="AH3" s="58"/>
       <c r="AI3" s="58"/>
     </row>
     <row r="4" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="135"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="118"/>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2792,15 +2792,15 @@
       <c r="AI4" s="58"/>
     </row>
     <row r="5" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="140"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2900,13 +2900,13 @@
       <c r="AI5" s="58"/>
     </row>
     <row r="6" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="141"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="113"/>
       <c r="H6" s="18" t="s">
         <v>28</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="Q6" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="R6" s="30">
         <f t="shared" si="3"/>
@@ -3002,15 +3002,15 @@
       <c r="AI6" s="58"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="130"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
@@ -3108,13 +3108,13 @@
       <c r="AI7" s="58"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="131"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="138"/>
       <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
@@ -3210,17 +3210,17 @@
       <c r="AI8" s="58"/>
     </row>
     <row r="9" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="84">
+      <c r="A9" s="122">
         <v>1</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="79"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -3251,13 +3251,13 @@
       <c r="AI9" s="58"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="80"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -3288,21 +3288,21 @@
       <c r="AI10" s="58"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
-      <c r="B11" s="83" t="s">
+      <c r="A11" s="122"/>
+      <c r="B11" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="75" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="77"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -3345,13 +3345,13 @@
       <c r="AI11" s="58"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="85"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="78"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="84"/>
       <c r="H12" s="67" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -3394,21 +3394,21 @@
       <c r="AI12" s="58"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="84"/>
-      <c r="B13" s="83" t="s">
+      <c r="A13" s="122"/>
+      <c r="B13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="75" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="77"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -3453,13 +3453,13 @@
       <c r="AI13" s="58"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="85"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="78"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="84"/>
       <c r="H14" s="67" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -3504,17 +3504,17 @@
       <c r="AI14" s="58"/>
     </row>
     <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="84">
+      <c r="A15" s="122">
         <v>2</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="79"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3548,13 +3548,13 @@
       <c r="AI15" s="58"/>
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="85"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="80"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3588,21 +3588,21 @@
       <c r="AI16" s="58"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="84"/>
-      <c r="B17" s="83" t="s">
+      <c r="A17" s="122"/>
+      <c r="B17" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="75" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="77"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3647,13 +3647,13 @@
       <c r="AI17" s="58"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="85"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="78"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="67" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3698,21 +3698,21 @@
       <c r="AI18" s="58"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="90"/>
-      <c r="B19" s="92" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="94" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="142"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="54" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3757,13 +3757,13 @@
       <c r="AI19" s="58"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="91"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="93"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="68" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3808,21 +3808,21 @@
       <c r="AI20" s="58"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="84"/>
-      <c r="B21" s="83" t="s">
+      <c r="A21" s="122"/>
+      <c r="B21" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="75" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="77"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3867,13 +3867,13 @@
       <c r="AI21" s="58"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="85"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="78"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="67" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3918,15 +3918,15 @@
       <c r="AI22" s="58"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="136"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="100"/>
       <c r="H23" s="20" t="s">
         <v>26</v>
       </c>
@@ -4024,13 +4024,13 @@
       <c r="AI23" s="58"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="99"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="137"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="101"/>
       <c r="H24" s="7" t="s">
         <v>28</v>
       </c>
@@ -4126,17 +4126,17 @@
       <c r="AI24" s="58"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="84">
+      <c r="A25" s="122">
         <v>1</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="79"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -4170,13 +4170,13 @@
       <c r="AI25" s="58"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="85"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="80"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="91"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -4210,19 +4210,19 @@
       <c r="AI26" s="58"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="84"/>
-      <c r="B27" s="83" t="s">
+      <c r="A27" s="122"/>
+      <c r="B27" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="75" t="s">
+      <c r="D27" s="75"/>
+      <c r="E27" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="77"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -4265,13 +4265,13 @@
       <c r="AI27" s="58"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="85"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="78"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="84"/>
       <c r="H28" s="67" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -4314,19 +4314,19 @@
       <c r="AI28" s="58"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="84"/>
-      <c r="B29" s="83" t="s">
+      <c r="A29" s="122"/>
+      <c r="B29" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="75" t="s">
+      <c r="D29" s="75"/>
+      <c r="E29" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="77"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="83"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -4369,13 +4369,13 @@
       <c r="AI29" s="58"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="85"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="78"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="84"/>
       <c r="H30" s="67" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -4418,19 +4418,19 @@
       <c r="AI30" s="58"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="84"/>
-      <c r="B31" s="83" t="s">
+      <c r="A31" s="122"/>
+      <c r="B31" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="75" t="s">
+      <c r="D31" s="75"/>
+      <c r="E31" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="77"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -4473,13 +4473,13 @@
       <c r="AI31" s="58"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="85"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="78"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="84"/>
       <c r="H32" s="67" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -4522,19 +4522,19 @@
       <c r="AI32" s="58"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="84"/>
-      <c r="B33" s="83" t="s">
+      <c r="A33" s="122"/>
+      <c r="B33" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="75" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="77"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -4577,13 +4577,13 @@
       <c r="AI33" s="58"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="85"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="78"/>
+      <c r="A34" s="123"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="84"/>
       <c r="H34" s="67" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -4626,17 +4626,17 @@
       <c r="AI34" s="58"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84">
+      <c r="A35" s="122">
         <v>2</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="79"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -4670,13 +4670,13 @@
       <c r="AI35" s="58"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="85"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="80"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="91"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -4710,19 +4710,19 @@
       <c r="AI36" s="58"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="84"/>
-      <c r="B37" s="83" t="s">
+      <c r="A37" s="122"/>
+      <c r="B37" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="75" t="s">
+      <c r="D37" s="75"/>
+      <c r="E37" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="77"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -4765,13 +4765,13 @@
       <c r="AI37" s="58"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="85"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="78"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="84"/>
       <c r="H38" s="67" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4814,19 +4814,19 @@
       <c r="AI38" s="58"/>
     </row>
     <row r="39" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="90"/>
-      <c r="B39" s="92" t="s">
+      <c r="A39" s="70"/>
+      <c r="B39" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="94" t="s">
+      <c r="D39" s="75"/>
+      <c r="E39" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="94"/>
-      <c r="G39" s="142"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="54" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4869,13 +4869,13 @@
       <c r="AI39" s="58"/>
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="91"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="93"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="68" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4918,19 +4918,19 @@
       <c r="AI40" s="58"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="84"/>
-      <c r="B41" s="83" t="s">
+      <c r="A41" s="122"/>
+      <c r="B41" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="75" t="s">
+      <c r="D41" s="75"/>
+      <c r="E41" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="75"/>
-      <c r="G41" s="77"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="83"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4973,13 +4973,13 @@
       <c r="AI41" s="58"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="85"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="78"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="84"/>
       <c r="H42" s="67" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -5022,15 +5022,15 @@
       <c r="AI42" s="58"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="136"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="100"/>
       <c r="H43" s="20" t="s">
         <v>26</v>
       </c>
@@ -5126,13 +5126,13 @@
       <c r="AI43" s="58"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="99"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="137"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="101"/>
       <c r="H44" s="7" t="s">
         <v>28</v>
       </c>
@@ -5228,17 +5228,17 @@
       <c r="AI44" s="58"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="84">
+      <c r="A45" s="122">
         <v>1</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="79"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -5272,13 +5272,13 @@
       <c r="AI45" s="58"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="85"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="80"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="91"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -5312,19 +5312,19 @@
       <c r="AI46" s="58"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="90"/>
-      <c r="B47" s="92" t="s">
+      <c r="A47" s="70"/>
+      <c r="B47" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="94" t="s">
+      <c r="D47" s="75"/>
+      <c r="E47" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="142"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="54" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -5367,13 +5367,13 @@
       <c r="AI47" s="58"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="91"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="93"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="68" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -5416,19 +5416,19 @@
       <c r="AI48" s="58"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="84"/>
-      <c r="B49" s="83" t="s">
+      <c r="A49" s="122"/>
+      <c r="B49" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="87"/>
-      <c r="E49" s="75" t="s">
+      <c r="D49" s="75"/>
+      <c r="E49" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="75"/>
-      <c r="G49" s="77"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="83"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -5471,13 +5471,13 @@
       <c r="AI49" s="58"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="85"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="78"/>
+      <c r="A50" s="123"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="84"/>
       <c r="H50" s="67" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -5524,19 +5524,19 @@
       <c r="AI50" s="58"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="90"/>
-      <c r="B51" s="92" t="s">
+      <c r="A51" s="70"/>
+      <c r="B51" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="94" t="s">
+      <c r="D51" s="75"/>
+      <c r="E51" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="94"/>
-      <c r="G51" s="142"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="80"/>
       <c r="H51" s="54" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -5579,13 +5579,13 @@
       <c r="AI51" s="58"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="91"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="93"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="68" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -5632,17 +5632,17 @@
       <c r="AI52" s="58"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="84">
+      <c r="A53" s="122">
         <v>2</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="104"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="79"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="90"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -5676,13 +5676,13 @@
       <c r="AI53" s="58"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="85"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="80"/>
+      <c r="A54" s="123"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="91"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -5716,19 +5716,19 @@
       <c r="AI54" s="58"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="84"/>
-      <c r="B55" s="83" t="s">
+      <c r="A55" s="122"/>
+      <c r="B55" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="87"/>
-      <c r="E55" s="75" t="s">
+      <c r="D55" s="75"/>
+      <c r="E55" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="75"/>
-      <c r="G55" s="77"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="83"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -5771,13 +5771,13 @@
       <c r="AI55" s="58"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="85"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="78"/>
+      <c r="A56" s="123"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="84"/>
       <c r="H56" s="67" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -5822,19 +5822,19 @@
       <c r="AI56" s="58"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="84"/>
-      <c r="B57" s="83" t="s">
+      <c r="A57" s="122"/>
+      <c r="B57" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="87"/>
-      <c r="E57" s="75" t="s">
+      <c r="D57" s="75"/>
+      <c r="E57" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="75"/>
-      <c r="G57" s="77"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="83"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -5877,13 +5877,13 @@
       <c r="AI57" s="58"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="85"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="78"/>
+      <c r="A58" s="123"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="84"/>
       <c r="H58" s="67" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -5926,19 +5926,19 @@
       <c r="AI58" s="58"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="84"/>
-      <c r="B59" s="83" t="s">
+      <c r="A59" s="122"/>
+      <c r="B59" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="86" t="s">
+      <c r="C59" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="87"/>
-      <c r="E59" s="75" t="s">
+      <c r="D59" s="75"/>
+      <c r="E59" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="75"/>
-      <c r="G59" s="77"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="83"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -5981,13 +5981,13 @@
       <c r="AI59" s="58"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="85"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="78"/>
+      <c r="A60" s="123"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="84"/>
       <c r="H60" s="67" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -6032,15 +6032,15 @@
       <c r="AI60" s="58"/>
     </row>
     <row r="61" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="96" t="s">
+      <c r="A61" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="136"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="100"/>
       <c r="H61" s="20" t="s">
         <v>26</v>
       </c>
@@ -6136,13 +6136,13 @@
       <c r="AI61" s="58"/>
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="99"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="137"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="101"/>
       <c r="H62" s="7" t="s">
         <v>28</v>
       </c>
@@ -6150,7 +6150,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="66" cm="1">
         <f t="array" ref="K62">SUMPRODUCT((MOD(ROW(K$63:K$78),2)=0)*K$63:K$78)</f>
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L62" s="21" cm="1">
         <f t="array" ref="L62">SUMPRODUCT((MOD(ROW(L$63:L$78),2)=0)*L$63:L$78)</f>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="Q62" s="21" cm="1">
         <f t="array" ref="Q62">SUMPRODUCT((MOD(ROW(Q$63:Q$78),2)=0)*Q$63:Q$78)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="R62" s="21" cm="1">
         <f t="array" ref="R62">SUMPRODUCT((MOD(ROW(R$63:R$78),2)=0)*R$63:R$78)</f>
@@ -6238,17 +6238,17 @@
       <c r="AI62" s="58"/>
     </row>
     <row r="63" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="90">
+      <c r="A63" s="70">
         <v>1</v>
       </c>
-      <c r="B63" s="86" t="s">
+      <c r="B63" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="104"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="79"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="90"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -6282,13 +6282,13 @@
       <c r="AI63" s="58"/>
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="91"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="80"/>
+      <c r="A64" s="71"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="91"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -6322,19 +6322,19 @@
       <c r="AI64" s="58"/>
     </row>
     <row r="65" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="90"/>
-      <c r="B65" s="92" t="s">
+      <c r="A65" s="70"/>
+      <c r="B65" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="87"/>
-      <c r="E65" s="94" t="s">
+      <c r="D65" s="75"/>
+      <c r="E65" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="94"/>
-      <c r="G65" s="142"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="80"/>
       <c r="H65" s="54" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -6377,13 +6377,13 @@
       <c r="AI65" s="58"/>
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="91"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="93"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="68" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="K66" s="10">
         <f t="shared" si="20"/>
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="L66" s="52"/>
       <c r="M66" s="53"/>
@@ -6405,7 +6405,9 @@
       <c r="P66" s="53">
         <v>2.5</v>
       </c>
-      <c r="Q66" s="53"/>
+      <c r="Q66" s="53">
+        <v>3.75</v>
+      </c>
       <c r="R66" s="53"/>
       <c r="S66" s="53"/>
       <c r="T66" s="53"/>
@@ -6426,19 +6428,19 @@
       <c r="AI66" s="58"/>
     </row>
     <row r="67" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="90"/>
-      <c r="B67" s="92" t="s">
+      <c r="A67" s="70"/>
+      <c r="B67" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="86" t="s">
+      <c r="C67" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="87"/>
-      <c r="E67" s="94" t="s">
+      <c r="D67" s="75"/>
+      <c r="E67" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="94"/>
-      <c r="G67" s="142"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="80"/>
       <c r="H67" s="54" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -6483,13 +6485,13 @@
       <c r="AI67" s="58"/>
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="91"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="93"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="68" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -6502,14 +6504,16 @@
       </c>
       <c r="K68" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L68" s="52"/>
       <c r="M68" s="53"/>
       <c r="N68" s="53"/>
       <c r="O68" s="53"/>
       <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
+      <c r="Q68" s="53">
+        <v>3.75</v>
+      </c>
       <c r="R68" s="53"/>
       <c r="S68" s="53"/>
       <c r="T68" s="53"/>
@@ -6530,19 +6534,19 @@
       <c r="AI68" s="58"/>
     </row>
     <row r="69" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="90"/>
-      <c r="B69" s="92" t="s">
+      <c r="A69" s="70"/>
+      <c r="B69" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="86" t="s">
+      <c r="C69" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="87"/>
-      <c r="E69" s="94" t="s">
+      <c r="D69" s="75"/>
+      <c r="E69" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="94"/>
-      <c r="G69" s="142"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="80"/>
       <c r="H69" s="54" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -6583,13 +6587,13 @@
       <c r="AI69" s="58"/>
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="91"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="93"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="68" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -6626,17 +6630,17 @@
       <c r="AI70" s="58"/>
     </row>
     <row r="71" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="90">
+      <c r="A71" s="70">
         <v>2</v>
       </c>
-      <c r="B71" s="86" t="s">
+      <c r="B71" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="104"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="79"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="90"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -6670,13 +6674,13 @@
       <c r="AI71" s="58"/>
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="91"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="80"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="91"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -6710,19 +6714,19 @@
       <c r="AI72" s="58"/>
     </row>
     <row r="73" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="90"/>
-      <c r="B73" s="92" t="s">
+      <c r="A73" s="70"/>
+      <c r="B73" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="86" t="s">
+      <c r="C73" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="87"/>
-      <c r="E73" s="94" t="s">
+      <c r="D73" s="75"/>
+      <c r="E73" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="94"/>
-      <c r="G73" s="142"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="80"/>
       <c r="H73" s="54" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -6765,13 +6769,13 @@
       <c r="AI73" s="58"/>
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="91"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="93"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="68" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -6808,19 +6812,19 @@
       <c r="AI74" s="58"/>
     </row>
     <row r="75" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="90"/>
-      <c r="B75" s="92" t="s">
+      <c r="A75" s="70"/>
+      <c r="B75" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="86" t="s">
+      <c r="C75" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="87"/>
-      <c r="E75" s="94" t="s">
+      <c r="D75" s="75"/>
+      <c r="E75" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="94"/>
-      <c r="G75" s="142"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="80"/>
       <c r="H75" s="54" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -6863,13 +6867,13 @@
       <c r="AI75" s="58"/>
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="91"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="93"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="68" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -6906,25 +6910,25 @@
       <c r="AI76" s="58"/>
     </row>
     <row r="77" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="90"/>
-      <c r="B77" s="92" t="s">
+      <c r="A77" s="70"/>
+      <c r="B77" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="86" t="s">
+      <c r="C77" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="87"/>
-      <c r="E77" s="94" t="s">
+      <c r="D77" s="75"/>
+      <c r="E77" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="94"/>
-      <c r="G77" s="142"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="80"/>
       <c r="H77" s="54" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I77" s="54" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J77" s="54">
         <v>1</v>
@@ -6961,13 +6965,13 @@
       <c r="AI77" s="58"/>
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="91"/>
-      <c r="B78" s="93"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="93"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="68" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -7004,15 +7008,15 @@
       <c r="AI78" s="58"/>
     </row>
     <row r="79" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="96" t="s">
+      <c r="A79" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="98"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="136"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="98"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="100"/>
       <c r="H79" s="20" t="s">
         <v>26</v>
       </c>
@@ -7108,13 +7112,13 @@
       <c r="AI79" s="58"/>
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="99"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="137"/>
+      <c r="A80" s="95"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="101"/>
       <c r="H80" s="7" t="s">
         <v>28</v>
       </c>
@@ -7210,19 +7214,19 @@
       <c r="AI80" s="58"/>
     </row>
     <row r="81" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="90">
+      <c r="A81" s="70">
         <v>1</v>
       </c>
-      <c r="B81" s="86" t="s">
+      <c r="B81" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="104"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="81" t="s">
+      <c r="C81" s="85"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="F81" s="81"/>
-      <c r="G81" s="79"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="90"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -7256,13 +7260,13 @@
       <c r="AI81" s="58"/>
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="91"/>
-      <c r="B82" s="88"/>
-      <c r="C82" s="105"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="80"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="91"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -7296,19 +7300,19 @@
       <c r="AI82" s="58"/>
     </row>
     <row r="83" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="90"/>
-      <c r="B83" s="92" t="s">
+      <c r="A83" s="70"/>
+      <c r="B83" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="87"/>
-      <c r="E83" s="94" t="s">
+      <c r="D83" s="75"/>
+      <c r="E83" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F83" s="94"/>
-      <c r="G83" s="142"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="80"/>
       <c r="H83" s="54" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -7353,13 +7357,13 @@
       <c r="AI83" s="58"/>
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="91"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="95"/>
-      <c r="F84" s="95"/>
-      <c r="G84" s="93"/>
+      <c r="A84" s="71"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="68" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -7396,19 +7400,19 @@
       <c r="AI84" s="58"/>
     </row>
     <row r="85" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="90"/>
-      <c r="B85" s="92" t="s">
+      <c r="A85" s="70"/>
+      <c r="B85" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="86" t="s">
+      <c r="C85" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="87"/>
-      <c r="E85" s="94" t="s">
+      <c r="D85" s="75"/>
+      <c r="E85" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F85" s="94"/>
-      <c r="G85" s="142"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="80"/>
       <c r="H85" s="54" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -7451,13 +7455,13 @@
       <c r="AI85" s="58"/>
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="91"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="95"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="93"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="68" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -7494,15 +7498,15 @@
       <c r="AI86" s="58"/>
     </row>
     <row r="87" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="96" t="s">
+      <c r="A87" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="97"/>
-      <c r="C87" s="97"/>
-      <c r="D87" s="98"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="136"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="100"/>
       <c r="H87" s="20" t="s">
         <v>26</v>
       </c>
@@ -7598,13 +7602,13 @@
       <c r="AI87" s="58"/>
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="99"/>
-      <c r="B88" s="100"/>
-      <c r="C88" s="100"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="137"/>
+      <c r="A88" s="95"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="101"/>
       <c r="H88" s="7" t="s">
         <v>28</v>
       </c>
@@ -7700,17 +7704,17 @@
       <c r="AI88" s="58"/>
     </row>
     <row r="89" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="90">
+      <c r="A89" s="70">
         <v>1</v>
       </c>
-      <c r="B89" s="86" t="s">
+      <c r="B89" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="104"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="79"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="90"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -7744,13 +7748,13 @@
       <c r="AI89" s="58"/>
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="91"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="80"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="91"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -7784,19 +7788,19 @@
       <c r="AI90" s="58"/>
     </row>
     <row r="91" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="90"/>
-      <c r="B91" s="92" t="s">
+      <c r="A91" s="70"/>
+      <c r="B91" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="D91" s="87"/>
-      <c r="E91" s="94" t="s">
+      <c r="D91" s="75"/>
+      <c r="E91" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F91" s="94"/>
-      <c r="G91" s="142"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="80"/>
       <c r="H91" s="54" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -7839,13 +7843,13 @@
       <c r="AI91" s="58"/>
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="91"/>
-      <c r="B92" s="93"/>
-      <c r="C92" s="88"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="95"/>
-      <c r="F92" s="95"/>
-      <c r="G92" s="93"/>
+      <c r="A92" s="71"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="73"/>
       <c r="H92" s="68" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -7882,19 +7886,19 @@
       <c r="AI92" s="58"/>
     </row>
     <row r="93" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="90"/>
-      <c r="B93" s="92" t="s">
+      <c r="A93" s="70"/>
+      <c r="B93" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="86" t="s">
+      <c r="C93" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D93" s="87"/>
-      <c r="E93" s="94" t="s">
+      <c r="D93" s="75"/>
+      <c r="E93" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F93" s="94"/>
-      <c r="G93" s="142"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="80"/>
       <c r="H93" s="54" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -7937,13 +7941,13 @@
       <c r="AI93" s="58"/>
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="91"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="88"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="95"/>
-      <c r="G94" s="93"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="73"/>
       <c r="H94" s="68" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -7980,17 +7984,17 @@
       <c r="AI94" s="58"/>
     </row>
     <row r="95" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="90">
+      <c r="A95" s="70">
         <v>2</v>
       </c>
-      <c r="B95" s="86" t="s">
+      <c r="B95" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C95" s="104"/>
-      <c r="D95" s="87"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="79"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="90"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -8024,13 +8028,13 @@
       <c r="AI95" s="58"/>
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="91"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="105"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="80"/>
+      <c r="A96" s="71"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="91"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -8064,19 +8068,19 @@
       <c r="AI96" s="58"/>
     </row>
     <row r="97" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="90"/>
-      <c r="B97" s="92" t="s">
+      <c r="A97" s="70"/>
+      <c r="B97" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C97" s="86" t="s">
+      <c r="C97" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D97" s="87"/>
-      <c r="E97" s="94" t="s">
+      <c r="D97" s="75"/>
+      <c r="E97" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="94"/>
-      <c r="G97" s="142"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="80"/>
       <c r="H97" s="54" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -8119,13 +8123,13 @@
       <c r="AI97" s="58"/>
     </row>
     <row r="98" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="91"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="95"/>
-      <c r="G98" s="93"/>
+      <c r="A98" s="71"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="73"/>
       <c r="H98" s="68" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -8162,19 +8166,19 @@
       <c r="AI98" s="58"/>
     </row>
     <row r="99" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="90"/>
-      <c r="B99" s="92" t="s">
+      <c r="A99" s="70"/>
+      <c r="B99" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="86" t="s">
+      <c r="C99" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="87"/>
-      <c r="E99" s="94" t="s">
+      <c r="D99" s="75"/>
+      <c r="E99" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="94"/>
-      <c r="G99" s="142"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="80"/>
       <c r="H99" s="54" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -8217,13 +8221,13 @@
       <c r="AI99" s="58"/>
     </row>
     <row r="100" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="91"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="95"/>
-      <c r="G100" s="93"/>
+      <c r="A100" s="71"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="73"/>
       <c r="H100" s="68" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -8260,15 +8264,15 @@
       <c r="AI100" s="58"/>
     </row>
     <row r="101" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="96" t="s">
+      <c r="A101" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="97"/>
-      <c r="C101" s="97"/>
-      <c r="D101" s="98"/>
-      <c r="E101" s="102"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="136"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="93"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="98"/>
+      <c r="F101" s="98"/>
+      <c r="G101" s="100"/>
       <c r="H101" s="20" t="s">
         <v>26</v>
       </c>
@@ -8364,13 +8368,13 @@
       <c r="AI101" s="58"/>
     </row>
     <row r="102" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="99"/>
-      <c r="B102" s="100"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="103"/>
-      <c r="G102" s="137"/>
+      <c r="A102" s="95"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="101"/>
       <c r="H102" s="7" t="s">
         <v>28</v>
       </c>
@@ -8466,17 +8470,17 @@
       <c r="AI102" s="58"/>
     </row>
     <row r="103" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="90">
+      <c r="A103" s="70">
         <v>1</v>
       </c>
-      <c r="B103" s="86" t="s">
+      <c r="B103" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C103" s="104"/>
-      <c r="D103" s="87"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="79"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="90"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -8510,13 +8514,13 @@
       <c r="AI103" s="58"/>
     </row>
     <row r="104" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="91"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="105"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="80"/>
+      <c r="A104" s="71"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="91"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -8550,19 +8554,19 @@
       <c r="AI104" s="58"/>
     </row>
     <row r="105" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="90"/>
-      <c r="B105" s="92" t="s">
+      <c r="A105" s="70"/>
+      <c r="B105" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C105" s="86" t="s">
+      <c r="C105" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D105" s="87"/>
-      <c r="E105" s="94" t="s">
+      <c r="D105" s="75"/>
+      <c r="E105" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F105" s="94"/>
-      <c r="G105" s="142"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="80"/>
       <c r="H105" s="54" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -8605,13 +8609,13 @@
       <c r="AI105" s="58"/>
     </row>
     <row r="106" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="91"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
-      <c r="G106" s="93"/>
+      <c r="A106" s="71"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="73"/>
       <c r="H106" s="68" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -8648,19 +8652,19 @@
       <c r="AI106" s="58"/>
     </row>
     <row r="107" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="90"/>
-      <c r="B107" s="92" t="s">
+      <c r="A107" s="70"/>
+      <c r="B107" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C107" s="86" t="s">
+      <c r="C107" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D107" s="87"/>
-      <c r="E107" s="94" t="s">
+      <c r="D107" s="75"/>
+      <c r="E107" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F107" s="94"/>
-      <c r="G107" s="142"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="80"/>
       <c r="H107" s="54" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -8703,13 +8707,13 @@
       <c r="AI107" s="58"/>
     </row>
     <row r="108" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="91"/>
-      <c r="B108" s="93"/>
-      <c r="C108" s="88"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
-      <c r="G108" s="93"/>
+      <c r="A108" s="71"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="68" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -8746,17 +8750,17 @@
       <c r="AI108" s="58"/>
     </row>
     <row r="109" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="90">
+      <c r="A109" s="70">
         <v>2</v>
       </c>
-      <c r="B109" s="86" t="s">
+      <c r="B109" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C109" s="104"/>
-      <c r="D109" s="87"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="79"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="90"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -8790,13 +8794,13 @@
       <c r="AI109" s="58"/>
     </row>
     <row r="110" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="91"/>
-      <c r="B110" s="88"/>
-      <c r="C110" s="105"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="80"/>
+      <c r="A110" s="71"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="91"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -8830,19 +8834,19 @@
       <c r="AI110" s="58"/>
     </row>
     <row r="111" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="90"/>
-      <c r="B111" s="92" t="s">
+      <c r="A111" s="70"/>
+      <c r="B111" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="86" t="s">
+      <c r="C111" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D111" s="87"/>
-      <c r="E111" s="94" t="s">
+      <c r="D111" s="75"/>
+      <c r="E111" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F111" s="94"/>
-      <c r="G111" s="142"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="80"/>
       <c r="H111" s="54" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -8885,13 +8889,13 @@
       <c r="AI111" s="58"/>
     </row>
     <row r="112" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="91"/>
-      <c r="B112" s="93"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="89"/>
-      <c r="E112" s="95"/>
-      <c r="F112" s="95"/>
-      <c r="G112" s="93"/>
+      <c r="A112" s="71"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="73"/>
       <c r="H112" s="68" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -8928,19 +8932,19 @@
       <c r="AI112" s="58"/>
     </row>
     <row r="113" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="90"/>
-      <c r="B113" s="92" t="s">
+      <c r="A113" s="70"/>
+      <c r="B113" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C113" s="86" t="s">
+      <c r="C113" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D113" s="87"/>
-      <c r="E113" s="94" t="s">
+      <c r="D113" s="75"/>
+      <c r="E113" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F113" s="94"/>
-      <c r="G113" s="142"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="80"/>
       <c r="H113" s="54" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -8983,13 +8987,13 @@
       <c r="AI113" s="58"/>
     </row>
     <row r="114" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="91"/>
-      <c r="B114" s="93"/>
-      <c r="C114" s="88"/>
-      <c r="D114" s="89"/>
-      <c r="E114" s="95"/>
-      <c r="F114" s="95"/>
-      <c r="G114" s="93"/>
+      <c r="A114" s="71"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="73"/>
       <c r="H114" s="68" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -9044,6 +9048,321 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="339">
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D20"/>
@@ -9068,321 +9387,6 @@
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L25:W36 L38:W38 L37 N37:W37 L45:AE46 L9:AE18 L21:AE22 L53:AE56 L49:AE50 X25:AE38 L58:AE58 L57:M57 O57:AE57 L60:AE60 L59:M59 O59:AE59 L41:AE42">
@@ -9712,18 +9716,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9745,18 +9749,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート.xlsx
+++ b/00_management/WBSガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D8B22B-6D7A-49FC-A882-BA471175E0FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24385035-7943-4E75-895A-CDD86FFCA9C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="90" windowWidth="19095" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="86">
   <si>
     <t>チケット予約システム</t>
   </si>
@@ -465,9 +465,6 @@
     <t>テスト仕様書【結果記入済】</t>
   </si>
   <si>
-    <t>横井、鈴木、栢沼、浜崎</t>
-  </si>
-  <si>
     <t>非機能要求一覧【結果記入済】</t>
   </si>
   <si>
@@ -497,6 +494,54 @@
     <rPh sb="0" eb="2">
       <t>トウゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜崎</t>
+    <rPh sb="0" eb="2">
+      <t>ハマザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横井、鈴木、栢沼、浜崎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横井、鈴木、栢沼、今竹</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カヤヌマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イマタケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横井、鈴木、栢沼</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カヤヌマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横井、栢沼</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1595,6 +1640,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1607,212 +1712,152 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2506,10 +2551,10 @@
   <dimension ref="A1:AI115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomRight" activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2528,204 +2573,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="107" t="s">
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="102">
+      <c r="L1" s="73">
         <v>43984</v>
       </c>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102">
+      <c r="M1" s="74"/>
+      <c r="N1" s="73">
         <v>43985</v>
       </c>
-      <c r="O1" s="103"/>
-      <c r="P1" s="102">
+      <c r="O1" s="74"/>
+      <c r="P1" s="73">
         <v>43986</v>
       </c>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="102">
+      <c r="Q1" s="74"/>
+      <c r="R1" s="73">
         <v>43987</v>
       </c>
-      <c r="S1" s="103"/>
-      <c r="T1" s="102">
+      <c r="S1" s="74"/>
+      <c r="T1" s="73">
         <v>43990</v>
       </c>
-      <c r="U1" s="103"/>
-      <c r="V1" s="102">
+      <c r="U1" s="74"/>
+      <c r="V1" s="73">
         <v>43991</v>
       </c>
-      <c r="W1" s="103"/>
-      <c r="X1" s="102">
+      <c r="W1" s="74"/>
+      <c r="X1" s="73">
         <v>43992</v>
       </c>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="102">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="73">
         <v>43993</v>
       </c>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="102">
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="73">
         <v>43994</v>
       </c>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="102">
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="73">
         <v>43997</v>
       </c>
-      <c r="AE1" s="103"/>
+      <c r="AE1" s="74"/>
       <c r="AF1" s="58"/>
       <c r="AG1" s="58"/>
       <c r="AH1" s="58"/>
       <c r="AI1" s="58"/>
     </row>
     <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="104" t="s">
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="104" t="s">
+      <c r="M2" s="71"/>
+      <c r="N2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="104" t="s">
+      <c r="O2" s="71"/>
+      <c r="P2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="104" t="s">
+      <c r="Q2" s="71"/>
+      <c r="R2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="105"/>
-      <c r="T2" s="104" t="s">
+      <c r="S2" s="71"/>
+      <c r="T2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="104" t="s">
+      <c r="U2" s="71"/>
+      <c r="V2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="105"/>
-      <c r="X2" s="104" t="s">
+      <c r="W2" s="71"/>
+      <c r="X2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="104" t="s">
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="104" t="s">
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="104" t="s">
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="105"/>
+      <c r="AE2" s="71"/>
       <c r="AF2" s="58"/>
       <c r="AG2" s="58"/>
       <c r="AH2" s="58"/>
       <c r="AI2" s="58"/>
     </row>
     <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="142" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="141"/>
-      <c r="N3" s="140" t="s">
+      <c r="M3" s="107"/>
+      <c r="N3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="141"/>
-      <c r="P3" s="140" t="s">
+      <c r="O3" s="107"/>
+      <c r="P3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="106" t="s">
+      <c r="Q3" s="107"/>
+      <c r="R3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106" t="s">
+      <c r="S3" s="72"/>
+      <c r="T3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106" t="s">
+      <c r="U3" s="72"/>
+      <c r="V3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106" t="s">
+      <c r="W3" s="72"/>
+      <c r="X3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106" t="s">
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106" t="s">
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106" t="s">
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="106"/>
+      <c r="AE3" s="72"/>
       <c r="AF3" s="58"/>
       <c r="AG3" s="58"/>
       <c r="AH3" s="58"/>
       <c r="AI3" s="58"/>
     </row>
     <row r="4" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="127"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="118"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="135"/>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2792,15 +2837,15 @@
       <c r="AI4" s="58"/>
     </row>
     <row r="5" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2831,19 +2876,19 @@
         <v>15.149999999999999</v>
       </c>
       <c r="P5" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(P7,P23,P43,P61,P79,P87,P101)</f>
         <v>10</v>
       </c>
       <c r="Q5" s="17">
-        <f t="shared" si="1"/>
-        <v>3.6500000000000004</v>
+        <f>SUM(Q7,Q23,Q43,Q61,Q79,Q87,Q101)</f>
+        <v>7.6000000000000005</v>
       </c>
       <c r="R5" s="28">
         <f>SUM(R7,R23,R43)</f>
         <v>0</v>
       </c>
       <c r="S5" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(S7,S23,S43,S61,S79,S87,S101)</f>
         <v>0</v>
       </c>
       <c r="T5" s="17">
@@ -2900,13 +2945,13 @@
       <c r="AI5" s="58"/>
     </row>
     <row r="6" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="113"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="18" t="s">
         <v>28</v>
       </c>
@@ -2938,15 +2983,15 @@
       </c>
       <c r="Q6" s="30">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>42.3</v>
       </c>
       <c r="R6" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.16</v>
       </c>
       <c r="S6" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T6" s="30">
         <f t="shared" si="3"/>
@@ -3002,15 +3047,15 @@
       <c r="AI6" s="58"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="137"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
@@ -3108,13 +3153,13 @@
       <c r="AI7" s="58"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="138"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
@@ -3210,17 +3255,17 @@
       <c r="AI8" s="58"/>
     </row>
     <row r="9" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="122">
+      <c r="A9" s="84">
         <v>1</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="90"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -3251,13 +3296,13 @@
       <c r="AI9" s="58"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="123"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="91"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -3288,21 +3333,21 @@
       <c r="AI10" s="58"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="122"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="81" t="s">
+      <c r="D11" s="87"/>
+      <c r="E11" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="83"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -3345,13 +3390,13 @@
       <c r="AI11" s="58"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="123"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="84"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="67" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -3394,21 +3439,21 @@
       <c r="AI12" s="58"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="122"/>
-      <c r="B13" s="87" t="s">
+      <c r="A13" s="84"/>
+      <c r="B13" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="81" t="s">
+      <c r="D13" s="87"/>
+      <c r="E13" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -3453,13 +3498,13 @@
       <c r="AI13" s="58"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="123"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="84"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="67" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -3504,17 +3549,17 @@
       <c r="AI14" s="58"/>
     </row>
     <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="122">
+      <c r="A15" s="84">
         <v>2</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="90"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="79"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3548,13 +3593,13 @@
       <c r="AI15" s="58"/>
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="123"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="91"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3588,21 +3633,21 @@
       <c r="AI16" s="58"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="122"/>
-      <c r="B17" s="87" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="81" t="s">
+      <c r="D17" s="87"/>
+      <c r="E17" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="83"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3647,13 +3692,13 @@
       <c r="AI17" s="58"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="123"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="84"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="78"/>
       <c r="H18" s="67" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3698,21 +3743,21 @@
       <c r="AI18" s="58"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="90"/>
+      <c r="B19" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="78" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="80"/>
+      <c r="G19" s="142"/>
       <c r="H19" s="54" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3757,13 +3802,13 @@
       <c r="AI19" s="58"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="73"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="68" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3808,21 +3853,21 @@
       <c r="AI20" s="58"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="122"/>
-      <c r="B21" s="87" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="81" t="s">
+      <c r="D21" s="87"/>
+      <c r="E21" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="83"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3867,13 +3912,13 @@
       <c r="AI21" s="58"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="123"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="84"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="67" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3918,15 +3963,15 @@
       <c r="AI22" s="58"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="100"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="136"/>
       <c r="H23" s="20" t="s">
         <v>26</v>
       </c>
@@ -4024,13 +4069,13 @@
       <c r="AI23" s="58"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="101"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="7" t="s">
         <v>28</v>
       </c>
@@ -4126,17 +4171,17 @@
       <c r="AI24" s="58"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="122">
+      <c r="A25" s="84">
         <v>1</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="90"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -4170,13 +4215,13 @@
       <c r="AI25" s="58"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="123"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="91"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -4210,19 +4255,19 @@
       <c r="AI26" s="58"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="122"/>
-      <c r="B27" s="87" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="81" t="s">
+      <c r="D27" s="87"/>
+      <c r="E27" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="81"/>
-      <c r="G27" s="83"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -4265,13 +4310,13 @@
       <c r="AI27" s="58"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="123"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="84"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="78"/>
       <c r="H28" s="67" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -4314,19 +4359,19 @@
       <c r="AI28" s="58"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="122"/>
-      <c r="B29" s="87" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="81" t="s">
+      <c r="D29" s="87"/>
+      <c r="E29" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="81"/>
-      <c r="G29" s="83"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -4369,13 +4414,13 @@
       <c r="AI29" s="58"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="123"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="84"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="78"/>
       <c r="H30" s="67" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -4418,19 +4463,19 @@
       <c r="AI30" s="58"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="122"/>
-      <c r="B31" s="87" t="s">
+      <c r="A31" s="84"/>
+      <c r="B31" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="81" t="s">
+      <c r="D31" s="87"/>
+      <c r="E31" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="83"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -4473,13 +4518,13 @@
       <c r="AI31" s="58"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="123"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="84"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="67" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -4522,19 +4567,19 @@
       <c r="AI32" s="58"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="122"/>
-      <c r="B33" s="87" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="81" t="s">
+      <c r="D33" s="87"/>
+      <c r="E33" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="81"/>
-      <c r="G33" s="83"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -4577,13 +4622,13 @@
       <c r="AI33" s="58"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="123"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="84"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="78"/>
       <c r="H34" s="67" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -4626,17 +4671,17 @@
       <c r="AI34" s="58"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="122">
+      <c r="A35" s="84">
         <v>2</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="90"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -4670,13 +4715,13 @@
       <c r="AI35" s="58"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="123"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="91"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -4710,19 +4755,19 @@
       <c r="AI36" s="58"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="122"/>
-      <c r="B37" s="87" t="s">
+      <c r="A37" s="84"/>
+      <c r="B37" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="81" t="s">
+      <c r="D37" s="87"/>
+      <c r="E37" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="83"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -4765,13 +4810,13 @@
       <c r="AI37" s="58"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="123"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="84"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="78"/>
       <c r="H38" s="67" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4814,19 +4859,19 @@
       <c r="AI38" s="58"/>
     </row>
     <row r="39" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
-      <c r="B39" s="72" t="s">
+      <c r="A39" s="90"/>
+      <c r="B39" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="78" t="s">
+      <c r="D39" s="87"/>
+      <c r="E39" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="80"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="142"/>
       <c r="H39" s="54" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4869,13 +4914,13 @@
       <c r="AI39" s="58"/>
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="73"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="93"/>
       <c r="H40" s="68" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4918,25 +4963,25 @@
       <c r="AI40" s="58"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="122"/>
-      <c r="B41" s="87" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="E41" s="81" t="s">
+      <c r="D41" s="87"/>
+      <c r="E41" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="81"/>
-      <c r="G41" s="83"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="77"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J41" s="8">
         <v>1</v>
@@ -4973,19 +5018,19 @@
       <c r="AI41" s="58"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="123"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="84"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="78"/>
       <c r="H42" s="67" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J42" s="67">
         <v>1</v>
@@ -5022,15 +5067,15 @@
       <c r="AI42" s="58"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="100"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="136"/>
       <c r="H43" s="20" t="s">
         <v>26</v>
       </c>
@@ -5126,13 +5171,13 @@
       <c r="AI43" s="58"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="95"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="101"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="137"/>
       <c r="H44" s="7" t="s">
         <v>28</v>
       </c>
@@ -5228,17 +5273,17 @@
       <c r="AI44" s="58"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="122">
+      <c r="A45" s="84">
         <v>1</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="90"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -5272,13 +5317,13 @@
       <c r="AI45" s="58"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="123"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="91"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -5312,19 +5357,19 @@
       <c r="AI46" s="58"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="70"/>
-      <c r="B47" s="72" t="s">
+      <c r="A47" s="90"/>
+      <c r="B47" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="78" t="s">
+      <c r="D47" s="87"/>
+      <c r="E47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="78"/>
-      <c r="G47" s="80"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="142"/>
       <c r="H47" s="54" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -5367,13 +5412,13 @@
       <c r="AI47" s="58"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="73"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="93"/>
       <c r="H48" s="68" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -5416,19 +5461,19 @@
       <c r="AI48" s="58"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="122"/>
-      <c r="B49" s="87" t="s">
+      <c r="A49" s="84"/>
+      <c r="B49" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="81" t="s">
+      <c r="D49" s="87"/>
+      <c r="E49" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="81"/>
-      <c r="G49" s="83"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="77"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -5471,13 +5516,13 @@
       <c r="AI49" s="58"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="123"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="84"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="78"/>
       <c r="H50" s="67" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -5524,19 +5569,19 @@
       <c r="AI50" s="58"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="70"/>
-      <c r="B51" s="72" t="s">
+      <c r="A51" s="90"/>
+      <c r="B51" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="78" t="s">
+      <c r="D51" s="87"/>
+      <c r="E51" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="78"/>
-      <c r="G51" s="80"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="142"/>
       <c r="H51" s="54" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -5579,13 +5624,13 @@
       <c r="AI51" s="58"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="71"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="73"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="93"/>
       <c r="H52" s="68" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -5632,17 +5677,17 @@
       <c r="AI52" s="58"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="122">
+      <c r="A53" s="84">
         <v>2</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="90"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -5676,13 +5721,13 @@
       <c r="AI53" s="58"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="123"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="91"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="80"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -5716,19 +5761,19 @@
       <c r="AI54" s="58"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="122"/>
-      <c r="B55" s="87" t="s">
+      <c r="A55" s="84"/>
+      <c r="B55" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="75"/>
-      <c r="E55" s="81" t="s">
+      <c r="D55" s="87"/>
+      <c r="E55" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="81"/>
-      <c r="G55" s="83"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="77"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -5771,13 +5816,13 @@
       <c r="AI55" s="58"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="123"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="84"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="78"/>
       <c r="H56" s="67" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -5822,19 +5867,19 @@
       <c r="AI56" s="58"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="122"/>
-      <c r="B57" s="87" t="s">
+      <c r="A57" s="84"/>
+      <c r="B57" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="81" t="s">
+      <c r="D57" s="87"/>
+      <c r="E57" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="81"/>
-      <c r="G57" s="83"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="77"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -5877,13 +5922,13 @@
       <c r="AI57" s="58"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="123"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="84"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="78"/>
       <c r="H58" s="67" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -5926,19 +5971,19 @@
       <c r="AI58" s="58"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="122"/>
-      <c r="B59" s="87" t="s">
+      <c r="A59" s="84"/>
+      <c r="B59" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="81" t="s">
+      <c r="D59" s="87"/>
+      <c r="E59" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="81"/>
-      <c r="G59" s="83"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="77"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -5981,13 +6026,13 @@
       <c r="AI59" s="58"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="123"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="84"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="78"/>
       <c r="H60" s="67" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -6032,15 +6077,15 @@
       <c r="AI60" s="58"/>
     </row>
     <row r="61" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="100"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="136"/>
       <c r="H61" s="20" t="s">
         <v>26</v>
       </c>
@@ -6136,13 +6181,13 @@
       <c r="AI61" s="58"/>
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="95"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="101"/>
+      <c r="A62" s="99"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="137"/>
       <c r="H62" s="7" t="s">
         <v>28</v>
       </c>
@@ -6150,7 +6195,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="66" cm="1">
         <f t="array" ref="K62">SUMPRODUCT((MOD(ROW(K$63:K$78),2)=0)*K$63:K$78)</f>
-        <v>10</v>
+        <v>15.799999999999999</v>
       </c>
       <c r="L62" s="21" cm="1">
         <f t="array" ref="L62">SUMPRODUCT((MOD(ROW(L$63:L$78),2)=0)*L$63:L$78)</f>
@@ -6174,7 +6219,7 @@
       </c>
       <c r="Q62" s="21" cm="1">
         <f t="array" ref="Q62">SUMPRODUCT((MOD(ROW(Q$63:Q$78),2)=0)*Q$63:Q$78)</f>
-        <v>7.5</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="R62" s="21" cm="1">
         <f t="array" ref="R62">SUMPRODUCT((MOD(ROW(R$63:R$78),2)=0)*R$63:R$78)</f>
@@ -6238,17 +6283,17 @@
       <c r="AI62" s="58"/>
     </row>
     <row r="63" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="70">
+      <c r="A63" s="90">
         <v>1</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="85"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="88"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="90"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="79"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -6282,13 +6327,13 @@
       <c r="AI63" s="58"/>
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="71"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="91"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="80"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -6322,19 +6367,19 @@
       <c r="AI64" s="58"/>
     </row>
     <row r="65" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="72" t="s">
+      <c r="A65" s="90"/>
+      <c r="B65" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="75"/>
-      <c r="E65" s="78" t="s">
+      <c r="D65" s="87"/>
+      <c r="E65" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="78"/>
-      <c r="G65" s="80"/>
+      <c r="F65" s="94"/>
+      <c r="G65" s="142"/>
       <c r="H65" s="54" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -6377,13 +6422,13 @@
       <c r="AI65" s="58"/>
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="71"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="73"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="93"/>
       <c r="H66" s="68" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -6428,19 +6473,19 @@
       <c r="AI66" s="58"/>
     </row>
     <row r="67" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="72" t="s">
+      <c r="A67" s="90"/>
+      <c r="B67" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="78" t="s">
+      <c r="D67" s="87"/>
+      <c r="E67" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="80"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="142"/>
       <c r="H67" s="54" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -6485,13 +6530,13 @@
       <c r="AI67" s="58"/>
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="71"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="73"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="93"/>
       <c r="H68" s="68" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -6534,26 +6579,28 @@
       <c r="AI68" s="58"/>
     </row>
     <row r="69" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
-      <c r="B69" s="72" t="s">
+      <c r="A69" s="90"/>
+      <c r="B69" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="78" t="s">
+      <c r="C69" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="87"/>
+      <c r="E69" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="78"/>
-      <c r="G69" s="80"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="142"/>
       <c r="H69" s="54" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I69" s="54"/>
+      <c r="I69" s="54" t="s">
+        <v>83</v>
+      </c>
       <c r="J69" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K69" s="9">
         <f t="shared" si="20"/>
@@ -6587,29 +6634,35 @@
       <c r="AI69" s="58"/>
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="71"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="73"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="93"/>
       <c r="H70" s="68" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I70" s="68"/>
-      <c r="J70" s="68"/>
+      <c r="I70" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="J70" s="68">
+        <v>4</v>
+      </c>
       <c r="K70" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="L70" s="52"/>
       <c r="M70" s="53"/>
       <c r="N70" s="53"/>
       <c r="O70" s="53"/>
       <c r="P70" s="53"/>
-      <c r="Q70" s="53"/>
+      <c r="Q70" s="53">
+        <v>2.6</v>
+      </c>
       <c r="R70" s="53"/>
       <c r="S70" s="53"/>
       <c r="T70" s="53"/>
@@ -6630,17 +6683,17 @@
       <c r="AI70" s="58"/>
     </row>
     <row r="71" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="70">
+      <c r="A71" s="90">
         <v>2</v>
       </c>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="85"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="90"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="79"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -6674,13 +6727,13 @@
       <c r="AI71" s="58"/>
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="71"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="91"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="80"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -6714,19 +6767,19 @@
       <c r="AI72" s="58"/>
     </row>
     <row r="73" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="72" t="s">
+      <c r="A73" s="90"/>
+      <c r="B73" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="75"/>
-      <c r="E73" s="78" t="s">
+      <c r="D73" s="87"/>
+      <c r="E73" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="78"/>
-      <c r="G73" s="80"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="142"/>
       <c r="H73" s="54" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -6769,29 +6822,35 @@
       <c r="AI73" s="58"/>
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="71"/>
-      <c r="B74" s="73"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="73"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="93"/>
       <c r="H74" s="68" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
+      <c r="I74" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" s="68">
+        <v>5</v>
+      </c>
       <c r="K74" s="10">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="L74" s="52"/>
       <c r="M74" s="53"/>
       <c r="N74" s="53"/>
       <c r="O74" s="53"/>
       <c r="P74" s="53"/>
-      <c r="Q74" s="53"/>
+      <c r="Q74" s="53">
+        <v>1.7</v>
+      </c>
       <c r="R74" s="53"/>
       <c r="S74" s="53"/>
       <c r="T74" s="53"/>
@@ -6812,19 +6871,19 @@
       <c r="AI74" s="58"/>
     </row>
     <row r="75" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="72" t="s">
+      <c r="A75" s="90"/>
+      <c r="B75" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="75"/>
-      <c r="E75" s="78" t="s">
+      <c r="D75" s="87"/>
+      <c r="E75" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="78"/>
-      <c r="G75" s="80"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="142"/>
       <c r="H75" s="54" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -6867,29 +6926,33 @@
       <c r="AI75" s="58"/>
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="71"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="73"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="93"/>
       <c r="H76" s="68" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I76" s="68"/>
+      <c r="I76" s="54" t="s">
+        <v>27</v>
+      </c>
       <c r="J76" s="68"/>
       <c r="K76" s="10">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L76" s="52"/>
       <c r="M76" s="53"/>
       <c r="N76" s="53"/>
       <c r="O76" s="53"/>
       <c r="P76" s="53"/>
-      <c r="Q76" s="53"/>
+      <c r="Q76" s="53">
+        <v>1.3</v>
+      </c>
       <c r="R76" s="53"/>
       <c r="S76" s="53"/>
       <c r="T76" s="53"/>
@@ -6910,19 +6973,19 @@
       <c r="AI76" s="58"/>
     </row>
     <row r="77" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70"/>
-      <c r="B77" s="72" t="s">
+      <c r="A77" s="90"/>
+      <c r="B77" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="75"/>
-      <c r="E77" s="78" t="s">
+      <c r="D77" s="87"/>
+      <c r="E77" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="78"/>
-      <c r="G77" s="80"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="142"/>
       <c r="H77" s="54" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -6965,13 +7028,13 @@
       <c r="AI77" s="58"/>
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="71"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="73"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="93"/>
       <c r="H78" s="68" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -6980,14 +7043,16 @@
       <c r="J78" s="68"/>
       <c r="K78" s="10">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L78" s="55"/>
       <c r="M78" s="56"/>
       <c r="N78" s="56"/>
       <c r="O78" s="56"/>
       <c r="P78" s="56"/>
-      <c r="Q78" s="56"/>
+      <c r="Q78" s="56">
+        <v>0.2</v>
+      </c>
       <c r="R78" s="56"/>
       <c r="S78" s="56"/>
       <c r="T78" s="56"/>
@@ -7008,15 +7073,15 @@
       <c r="AI78" s="58"/>
     </row>
     <row r="79" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="92" t="s">
+      <c r="A79" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="93"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="98"/>
-      <c r="F79" s="98"/>
-      <c r="G79" s="100"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="136"/>
       <c r="H79" s="20" t="s">
         <v>26</v>
       </c>
@@ -7112,13 +7177,13 @@
       <c r="AI79" s="58"/>
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="95"/>
-      <c r="B80" s="96"/>
-      <c r="C80" s="96"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="101"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="137"/>
       <c r="H80" s="7" t="s">
         <v>28</v>
       </c>
@@ -7126,7 +7191,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="66" cm="1">
         <f t="array" ref="K80">SUMPRODUCT((MOD(ROW(K$81:K$86),2)=0)*K$81:K$86)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L80" s="21" cm="1">
         <f t="array" ref="L80">SUMPRODUCT((MOD(ROW(L$81:L$86),2)=0)*L$81:L$86)</f>
@@ -7150,11 +7215,11 @@
       </c>
       <c r="Q80" s="21" cm="1">
         <f t="array" ref="Q80">SUMPRODUCT((MOD(ROW(Q$81:Q$86),2)=0)*Q$81:Q$86)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R80" s="21" cm="1">
         <f t="array" ref="R80">SUMPRODUCT((MOD(ROW(R$81:R$86),2)=0)*R$81:R$86)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S80" s="21" cm="1">
         <f t="array" ref="S80">SUMPRODUCT((MOD(ROW(S$81:S$86),2)=0)*S$81:S$86)</f>
@@ -7214,19 +7279,19 @@
       <c r="AI80" s="58"/>
     </row>
     <row r="81" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="70">
+      <c r="A81" s="90">
         <v>1</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="85"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="88" t="s">
+      <c r="C81" s="104"/>
+      <c r="D81" s="87"/>
+      <c r="E81" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F81" s="88"/>
-      <c r="G81" s="90"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="79"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -7260,13 +7325,13 @@
       <c r="AI81" s="58"/>
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="71"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="89"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="91"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="80"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -7300,19 +7365,19 @@
       <c r="AI82" s="58"/>
     </row>
     <row r="83" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="70"/>
-      <c r="B83" s="72" t="s">
+      <c r="A83" s="90"/>
+      <c r="B83" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="78" t="s">
+      <c r="D83" s="87"/>
+      <c r="E83" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F83" s="78"/>
-      <c r="G83" s="80"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="142"/>
       <c r="H83" s="54" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -7357,30 +7422,38 @@
       <c r="AI83" s="58"/>
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="71"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="73"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="95"/>
+      <c r="F84" s="95"/>
+      <c r="G84" s="93"/>
       <c r="H84" s="68" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
+      <c r="I84" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" s="68">
+        <v>5</v>
+      </c>
       <c r="K84" s="10">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L84" s="52"/>
       <c r="M84" s="53"/>
       <c r="N84" s="53"/>
       <c r="O84" s="53"/>
       <c r="P84" s="53"/>
-      <c r="Q84" s="53"/>
-      <c r="R84" s="53"/>
+      <c r="Q84" s="53">
+        <v>26</v>
+      </c>
+      <c r="R84" s="53">
+        <v>5</v>
+      </c>
       <c r="S84" s="53"/>
       <c r="T84" s="53"/>
       <c r="U84" s="53"/>
@@ -7400,19 +7473,19 @@
       <c r="AI84" s="58"/>
     </row>
     <row r="85" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70"/>
-      <c r="B85" s="72" t="s">
+      <c r="A85" s="90"/>
+      <c r="B85" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="75"/>
-      <c r="E85" s="78" t="s">
+      <c r="D85" s="87"/>
+      <c r="E85" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F85" s="78"/>
-      <c r="G85" s="80"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="142"/>
       <c r="H85" s="54" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -7455,30 +7528,38 @@
       <c r="AI85" s="58"/>
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="71"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="73"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="93"/>
       <c r="H86" s="68" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
+      <c r="I86" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86" s="68">
+        <v>3</v>
+      </c>
       <c r="K86" s="10">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L86" s="52"/>
       <c r="M86" s="53"/>
       <c r="N86" s="53"/>
       <c r="O86" s="53"/>
       <c r="P86" s="53"/>
-      <c r="Q86" s="53"/>
-      <c r="R86" s="53"/>
+      <c r="Q86" s="53">
+        <v>3</v>
+      </c>
+      <c r="R86" s="53">
+        <v>3</v>
+      </c>
       <c r="S86" s="53"/>
       <c r="T86" s="53"/>
       <c r="U86" s="53"/>
@@ -7498,15 +7579,15 @@
       <c r="AI86" s="58"/>
     </row>
     <row r="87" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="92" t="s">
+      <c r="A87" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="93"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="94"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="98"/>
-      <c r="G87" s="100"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="136"/>
       <c r="H87" s="20" t="s">
         <v>26</v>
       </c>
@@ -7602,13 +7683,13 @@
       <c r="AI87" s="58"/>
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="95"/>
-      <c r="B88" s="96"/>
-      <c r="C88" s="96"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="101"/>
+      <c r="A88" s="99"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="100"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="137"/>
       <c r="H88" s="7" t="s">
         <v>28</v>
       </c>
@@ -7616,7 +7697,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="62" cm="1">
         <f t="array" ref="K88">SUMPRODUCT((MOD(ROW(K$89:K$100),2)=0)*K$89:K$100)</f>
-        <v>0</v>
+        <v>3.6100000000000003</v>
       </c>
       <c r="L88" s="22" cm="1">
         <f t="array" ref="L88">SUMPRODUCT((MOD(ROW(L$89:L$100),2)=0)*L$89:L$100)</f>
@@ -7644,11 +7725,11 @@
       </c>
       <c r="R88" s="22" cm="1">
         <f t="array" ref="R88">SUMPRODUCT((MOD(ROW(R$89:R$100),2)=0)*R$89:R$100)</f>
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="S88" s="22" cm="1">
         <f t="array" ref="S88">SUMPRODUCT((MOD(ROW(S$89:S$100),2)=0)*S$89:S$100)</f>
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T88" s="22" cm="1">
         <f t="array" ref="T88">SUMPRODUCT((MOD(ROW(T$89:T$100),2)=0)*T$89:T$100)</f>
@@ -7704,17 +7785,17 @@
       <c r="AI88" s="58"/>
     </row>
     <row r="89" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="70">
+      <c r="A89" s="90">
         <v>1</v>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="85"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="90"/>
+      <c r="C89" s="104"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="79"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -7748,13 +7829,13 @@
       <c r="AI89" s="58"/>
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="71"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="91"/>
+      <c r="A90" s="91"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="80"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -7788,25 +7869,25 @@
       <c r="AI90" s="58"/>
     </row>
     <row r="91" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="70"/>
-      <c r="B91" s="72" t="s">
+      <c r="A91" s="90"/>
+      <c r="B91" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="74" t="s">
+      <c r="C91" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="D91" s="75"/>
-      <c r="E91" s="78" t="s">
+      <c r="D91" s="87"/>
+      <c r="E91" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F91" s="78"/>
-      <c r="G91" s="80"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="142"/>
       <c r="H91" s="54" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I91" s="54" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J91" s="54">
         <v>4</v>
@@ -7843,22 +7924,26 @@
       <c r="AI91" s="58"/>
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="71"/>
-      <c r="B92" s="73"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="79"/>
-      <c r="F92" s="79"/>
-      <c r="G92" s="73"/>
+      <c r="A92" s="91"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="95"/>
+      <c r="F92" s="95"/>
+      <c r="G92" s="93"/>
       <c r="H92" s="68" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
+      <c r="I92" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="J92" s="68">
+        <v>2</v>
+      </c>
       <c r="K92" s="10">
         <f>SUM(L92:W92)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L92" s="52"/>
       <c r="M92" s="53"/>
@@ -7866,7 +7951,9 @@
       <c r="O92" s="53"/>
       <c r="P92" s="53"/>
       <c r="Q92" s="53"/>
-      <c r="R92" s="53"/>
+      <c r="R92" s="53">
+        <v>2</v>
+      </c>
       <c r="S92" s="53"/>
       <c r="T92" s="53"/>
       <c r="U92" s="53"/>
@@ -7886,25 +7973,25 @@
       <c r="AI92" s="58"/>
     </row>
     <row r="93" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="70"/>
-      <c r="B93" s="72" t="s">
+      <c r="A93" s="90"/>
+      <c r="B93" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D93" s="75"/>
-      <c r="E93" s="78" t="s">
+      <c r="C93" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="87"/>
+      <c r="E93" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F93" s="78"/>
-      <c r="G93" s="80"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="142"/>
       <c r="H93" s="54" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I93" s="54" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J93" s="54">
         <v>1</v>
@@ -7941,22 +8028,26 @@
       <c r="AI93" s="58"/>
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="71"/>
-      <c r="B94" s="73"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="73"/>
+      <c r="A94" s="91"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="95"/>
+      <c r="G94" s="93"/>
       <c r="H94" s="68" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I94" s="68"/>
-      <c r="J94" s="68"/>
+      <c r="I94" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="J94" s="68">
+        <v>1</v>
+      </c>
       <c r="K94" s="10">
         <f>SUM(L94:W94)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L94" s="52"/>
       <c r="M94" s="53"/>
@@ -7964,7 +8055,9 @@
       <c r="O94" s="53"/>
       <c r="P94" s="53"/>
       <c r="Q94" s="53"/>
-      <c r="R94" s="53"/>
+      <c r="R94" s="53">
+        <v>0.16</v>
+      </c>
       <c r="S94" s="53"/>
       <c r="T94" s="53"/>
       <c r="U94" s="53"/>
@@ -7984,17 +8077,17 @@
       <c r="AI94" s="58"/>
     </row>
     <row r="95" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70">
+      <c r="A95" s="90">
         <v>2</v>
       </c>
-      <c r="B95" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="C95" s="85"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="90"/>
+      <c r="B95" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="104"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="79"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -8028,13 +8121,13 @@
       <c r="AI95" s="58"/>
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="71"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="86"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="89"/>
-      <c r="G96" s="91"/>
+      <c r="A96" s="91"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="80"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -8068,19 +8161,19 @@
       <c r="AI96" s="58"/>
     </row>
     <row r="97" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="70"/>
-      <c r="B97" s="72" t="s">
+      <c r="A97" s="90"/>
+      <c r="B97" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C97" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D97" s="75"/>
-      <c r="E97" s="78" t="s">
+      <c r="C97" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" s="87"/>
+      <c r="E97" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="78"/>
-      <c r="G97" s="80"/>
+      <c r="F97" s="94"/>
+      <c r="G97" s="142"/>
       <c r="H97" s="54" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -8123,22 +8216,26 @@
       <c r="AI97" s="58"/>
     </row>
     <row r="98" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="71"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="73"/>
+      <c r="A98" s="91"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="93"/>
       <c r="H98" s="68" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I98" s="68"/>
-      <c r="J98" s="68"/>
+      <c r="I98" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J98" s="68">
+        <v>5</v>
+      </c>
       <c r="K98" s="10">
         <f>SUM(L98:W98)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L98" s="52"/>
       <c r="M98" s="53"/>
@@ -8147,7 +8244,9 @@
       <c r="P98" s="53"/>
       <c r="Q98" s="53"/>
       <c r="R98" s="53"/>
-      <c r="S98" s="53"/>
+      <c r="S98" s="53">
+        <v>1.25</v>
+      </c>
       <c r="T98" s="53"/>
       <c r="U98" s="53"/>
       <c r="V98" s="53"/>
@@ -8166,25 +8265,25 @@
       <c r="AI98" s="58"/>
     </row>
     <row r="99" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70"/>
-      <c r="B99" s="72" t="s">
+      <c r="A99" s="90"/>
+      <c r="B99" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="D99" s="75"/>
-      <c r="E99" s="78" t="s">
+      <c r="C99" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99" s="87"/>
+      <c r="E99" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="78"/>
-      <c r="G99" s="80"/>
+      <c r="F99" s="94"/>
+      <c r="G99" s="142"/>
       <c r="H99" s="54" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I99" s="54" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J99" s="54">
         <v>1</v>
@@ -8221,22 +8320,26 @@
       <c r="AI99" s="58"/>
     </row>
     <row r="100" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="71"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="73"/>
+      <c r="A100" s="91"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="88"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="93"/>
       <c r="H100" s="68" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I100" s="68"/>
-      <c r="J100" s="68"/>
+      <c r="I100" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="J100" s="68">
+        <v>1</v>
+      </c>
       <c r="K100" s="10">
         <f>SUM(L100:W100)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L100" s="52"/>
       <c r="M100" s="53"/>
@@ -8245,7 +8348,9 @@
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
       <c r="R100" s="53"/>
-      <c r="S100" s="53"/>
+      <c r="S100" s="53">
+        <v>0.2</v>
+      </c>
       <c r="T100" s="53"/>
       <c r="U100" s="53"/>
       <c r="V100" s="53"/>
@@ -8264,15 +8369,15 @@
       <c r="AI100" s="58"/>
     </row>
     <row r="101" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="B101" s="93"/>
-      <c r="C101" s="93"/>
-      <c r="D101" s="94"/>
-      <c r="E101" s="98"/>
-      <c r="F101" s="98"/>
-      <c r="G101" s="100"/>
+      <c r="A101" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" s="97"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="98"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="136"/>
       <c r="H101" s="20" t="s">
         <v>26</v>
       </c>
@@ -8368,13 +8473,13 @@
       <c r="AI101" s="58"/>
     </row>
     <row r="102" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="95"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="97"/>
-      <c r="E102" s="99"/>
-      <c r="F102" s="99"/>
-      <c r="G102" s="101"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="100"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="137"/>
       <c r="H102" s="7" t="s">
         <v>28</v>
       </c>
@@ -8470,17 +8575,17 @@
       <c r="AI102" s="58"/>
     </row>
     <row r="103" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="70">
+      <c r="A103" s="90">
         <v>1</v>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C103" s="85"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="88"/>
-      <c r="F103" s="88"/>
-      <c r="G103" s="90"/>
+      <c r="C103" s="104"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="79"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -8514,13 +8619,13 @@
       <c r="AI103" s="58"/>
     </row>
     <row r="104" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="71"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="86"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="89"/>
-      <c r="F104" s="89"/>
-      <c r="G104" s="91"/>
+      <c r="A104" s="91"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="80"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -8554,19 +8659,19 @@
       <c r="AI104" s="58"/>
     </row>
     <row r="105" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="70"/>
-      <c r="B105" s="72" t="s">
+      <c r="A105" s="90"/>
+      <c r="B105" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C105" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="D105" s="75"/>
-      <c r="E105" s="78" t="s">
+      <c r="C105" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105" s="87"/>
+      <c r="E105" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F105" s="78"/>
-      <c r="G105" s="80"/>
+      <c r="F105" s="94"/>
+      <c r="G105" s="142"/>
       <c r="H105" s="54" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -8609,13 +8714,13 @@
       <c r="AI105" s="58"/>
     </row>
     <row r="106" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="71"/>
-      <c r="B106" s="73"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="73"/>
+      <c r="A106" s="91"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="93"/>
       <c r="H106" s="68" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -8652,19 +8757,19 @@
       <c r="AI106" s="58"/>
     </row>
     <row r="107" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="70"/>
-      <c r="B107" s="72" t="s">
+      <c r="A107" s="90"/>
+      <c r="B107" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C107" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D107" s="75"/>
-      <c r="E107" s="78" t="s">
+      <c r="C107" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="87"/>
+      <c r="E107" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F107" s="78"/>
-      <c r="G107" s="80"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="142"/>
       <c r="H107" s="54" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -8707,13 +8812,13 @@
       <c r="AI107" s="58"/>
     </row>
     <row r="108" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="71"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="79"/>
-      <c r="G108" s="73"/>
+      <c r="A108" s="91"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="88"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="95"/>
+      <c r="F108" s="95"/>
+      <c r="G108" s="93"/>
       <c r="H108" s="68" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -8750,17 +8855,17 @@
       <c r="AI108" s="58"/>
     </row>
     <row r="109" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="70">
+      <c r="A109" s="90">
         <v>2</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C109" s="85"/>
-      <c r="D109" s="75"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="90"/>
+      <c r="C109" s="104"/>
+      <c r="D109" s="87"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="79"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -8794,13 +8899,13 @@
       <c r="AI109" s="58"/>
     </row>
     <row r="110" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="71"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="86"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="89"/>
-      <c r="F110" s="89"/>
-      <c r="G110" s="91"/>
+      <c r="A110" s="91"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="80"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -8834,19 +8939,19 @@
       <c r="AI110" s="58"/>
     </row>
     <row r="111" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="70"/>
-      <c r="B111" s="72" t="s">
+      <c r="A111" s="90"/>
+      <c r="B111" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="74" t="s">
+      <c r="C111" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D111" s="75"/>
-      <c r="E111" s="78" t="s">
+      <c r="D111" s="87"/>
+      <c r="E111" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F111" s="78"/>
-      <c r="G111" s="80"/>
+      <c r="F111" s="94"/>
+      <c r="G111" s="142"/>
       <c r="H111" s="54" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -8889,13 +8994,13 @@
       <c r="AI111" s="58"/>
     </row>
     <row r="112" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="71"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="79"/>
-      <c r="F112" s="79"/>
-      <c r="G112" s="73"/>
+      <c r="A112" s="91"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="88"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="95"/>
+      <c r="F112" s="95"/>
+      <c r="G112" s="93"/>
       <c r="H112" s="68" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -8932,25 +9037,25 @@
       <c r="AI112" s="58"/>
     </row>
     <row r="113" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="70"/>
-      <c r="B113" s="72" t="s">
+      <c r="A113" s="90"/>
+      <c r="B113" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C113" s="74" t="s">
+      <c r="C113" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="78" t="s">
+      <c r="D113" s="87"/>
+      <c r="E113" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F113" s="78"/>
-      <c r="G113" s="80"/>
+      <c r="F113" s="94"/>
+      <c r="G113" s="142"/>
       <c r="H113" s="54" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I113" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J113" s="54">
         <v>1</v>
@@ -8987,13 +9092,13 @@
       <c r="AI113" s="58"/>
     </row>
     <row r="114" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="71"/>
-      <c r="B114" s="73"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="73"/>
+      <c r="A114" s="91"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="88"/>
+      <c r="D114" s="89"/>
+      <c r="E114" s="95"/>
+      <c r="F114" s="95"/>
+      <c r="G114" s="93"/>
       <c r="H114" s="68" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -9048,44 +9153,283 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="339">
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:D60"/>
@@ -9110,283 +9454,44 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:D54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L25:W36 L38:W38 L37 N37:W37 L45:AE46 L9:AE18 L21:AE22 L53:AE56 L49:AE50 X25:AE38 L58:AE58 L57:M57 O57:AE57 L60:AE60 L59:M59 O59:AE59 L41:AE42">
@@ -9716,18 +9821,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9749,18 +9854,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート.xlsx
+++ b/00_management/WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24385035-7943-4E75-895A-CDD86FFCA9C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51D0077-70B5-4B28-96B3-F3CEEC3F6E1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="86">
   <si>
     <t>チケット予約システム</t>
   </si>
@@ -342,9 +342,6 @@
     <t>新規作成</t>
   </si>
   <si>
-    <t>着手</t>
-  </si>
-  <si>
     <t>横井</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
     <t>横井、栢沼</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>完了</t>
+  </si>
 </sst>
 </file>
 
@@ -1640,6 +1640,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1649,37 +1751,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1689,64 +1803,52 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1756,128 +1858,12 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -2551,10 +2537,10 @@
   <dimension ref="A1:AI115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N100" sqref="N100"/>
+      <selection pane="bottomRight" activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2573,204 +2559,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="110" t="s">
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="110" t="s">
+      <c r="I1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="73">
+      <c r="L1" s="102">
         <v>43984</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="73">
+      <c r="M1" s="103"/>
+      <c r="N1" s="102">
         <v>43985</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="73">
+      <c r="O1" s="103"/>
+      <c r="P1" s="102">
         <v>43986</v>
       </c>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="73">
+      <c r="Q1" s="103"/>
+      <c r="R1" s="102">
         <v>43987</v>
       </c>
-      <c r="S1" s="74"/>
-      <c r="T1" s="73">
+      <c r="S1" s="103"/>
+      <c r="T1" s="102">
         <v>43990</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="73">
+      <c r="U1" s="103"/>
+      <c r="V1" s="102">
         <v>43991</v>
       </c>
-      <c r="W1" s="74"/>
-      <c r="X1" s="73">
+      <c r="W1" s="103"/>
+      <c r="X1" s="102">
         <v>43992</v>
       </c>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="73">
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="102">
         <v>43993</v>
       </c>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="73">
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="102">
         <v>43994</v>
       </c>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="73">
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="102">
         <v>43997</v>
       </c>
-      <c r="AE1" s="74"/>
+      <c r="AE1" s="103"/>
       <c r="AF1" s="58"/>
       <c r="AG1" s="58"/>
       <c r="AH1" s="58"/>
       <c r="AI1" s="58"/>
     </row>
     <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="70" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="70" t="s">
+      <c r="M2" s="105"/>
+      <c r="N2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="70" t="s">
+      <c r="O2" s="105"/>
+      <c r="P2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="70" t="s">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="71"/>
-      <c r="T2" s="70" t="s">
+      <c r="S2" s="105"/>
+      <c r="T2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="71"/>
-      <c r="V2" s="70" t="s">
+      <c r="U2" s="105"/>
+      <c r="V2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="71"/>
-      <c r="X2" s="70" t="s">
+      <c r="W2" s="105"/>
+      <c r="X2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="70" t="s">
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="70" t="s">
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="70" t="s">
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="71"/>
+      <c r="AE2" s="105"/>
       <c r="AF2" s="58"/>
       <c r="AG2" s="58"/>
       <c r="AH2" s="58"/>
       <c r="AI2" s="58"/>
     </row>
     <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="108" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="107"/>
-      <c r="N3" s="106" t="s">
+      <c r="M3" s="141"/>
+      <c r="N3" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="107"/>
-      <c r="P3" s="106" t="s">
+      <c r="O3" s="141"/>
+      <c r="P3" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="141"/>
+      <c r="R3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72" t="s">
+      <c r="S3" s="106"/>
+      <c r="T3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="106"/>
+      <c r="V3" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72" t="s">
+      <c r="W3" s="106"/>
+      <c r="X3" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72" t="s">
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72" t="s">
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72" t="s">
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="72"/>
+      <c r="AE3" s="106"/>
       <c r="AF3" s="58"/>
       <c r="AG3" s="58"/>
       <c r="AH3" s="58"/>
       <c r="AI3" s="58"/>
     </row>
     <row r="4" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="135"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="118"/>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2837,15 +2823,15 @@
       <c r="AI4" s="58"/>
     </row>
     <row r="5" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="140"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2889,11 +2875,11 @@
       </c>
       <c r="S5" s="17">
         <f>SUM(S7,S23,S43,S61,S79,S87,S101)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T5" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U5" s="17">
         <f t="shared" si="1"/>
@@ -2945,13 +2931,13 @@
       <c r="AI5" s="58"/>
     </row>
     <row r="6" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="141"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="113"/>
       <c r="H6" s="18" t="s">
         <v>28</v>
       </c>
@@ -2991,7 +2977,7 @@
       </c>
       <c r="S6" s="30">
         <f t="shared" si="3"/>
-        <v>1.45</v>
+        <v>3.42</v>
       </c>
       <c r="T6" s="30">
         <f t="shared" si="3"/>
@@ -3047,15 +3033,15 @@
       <c r="AI6" s="58"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="130"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
@@ -3153,13 +3139,13 @@
       <c r="AI7" s="58"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="131"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="138"/>
       <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
@@ -3255,17 +3241,17 @@
       <c r="AI8" s="58"/>
     </row>
     <row r="9" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="84">
+      <c r="A9" s="122">
         <v>1</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="79"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -3296,13 +3282,13 @@
       <c r="AI9" s="58"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="80"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -3333,27 +3319,27 @@
       <c r="AI10" s="58"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
-      <c r="B11" s="83" t="s">
+      <c r="A11" s="122"/>
+      <c r="B11" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="75" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="77"/>
+      <c r="F11" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="83"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="8">
         <v>1</v>
@@ -3390,19 +3376,19 @@
       <c r="AI11" s="58"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="85"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="78"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="84"/>
       <c r="H12" s="67" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="67">
         <v>1</v>
@@ -3439,27 +3425,27 @@
       <c r="AI12" s="58"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="84"/>
-      <c r="B13" s="83" t="s">
+      <c r="A13" s="122"/>
+      <c r="B13" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="75" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="77"/>
+      <c r="F13" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="83"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="8">
         <v>5</v>
@@ -3498,19 +3484,19 @@
       <c r="AI13" s="58"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="85"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="78"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="84"/>
       <c r="H14" s="67" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="67">
         <v>5</v>
@@ -3549,17 +3535,17 @@
       <c r="AI14" s="58"/>
     </row>
     <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="84">
+      <c r="A15" s="122">
         <v>2</v>
       </c>
-      <c r="B15" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="79"/>
+      <c r="B15" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3593,13 +3579,13 @@
       <c r="AI15" s="58"/>
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="85"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="80"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3633,21 +3619,21 @@
       <c r="AI16" s="58"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="84"/>
-      <c r="B17" s="83" t="s">
+      <c r="A17" s="122"/>
+      <c r="B17" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="75"/>
+      <c r="E17" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="77"/>
+      <c r="F17" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="83"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3692,19 +3678,19 @@
       <c r="AI17" s="58"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="85"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="78"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="67" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I18" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="67">
         <v>5</v>
@@ -3743,21 +3729,21 @@
       <c r="AI18" s="58"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="90"/>
-      <c r="B19" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="94" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="142"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="80"/>
       <c r="H19" s="54" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3802,19 +3788,19 @@
       <c r="AI19" s="58"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="91"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="93"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="68" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I20" s="68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" s="68">
         <v>5</v>
@@ -3853,27 +3839,27 @@
       <c r="AI20" s="58"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="84"/>
-      <c r="B21" s="83" t="s">
+      <c r="A21" s="122"/>
+      <c r="B21" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="75" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="77"/>
+      <c r="F21" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="83"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
@@ -3912,19 +3898,19 @@
       <c r="AI21" s="58"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="85"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="78"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="67" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I22" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22" s="67">
         <v>1</v>
@@ -3963,15 +3949,15 @@
       <c r="AI22" s="58"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="136"/>
+      <c r="A23" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="100"/>
       <c r="H23" s="20" t="s">
         <v>26</v>
       </c>
@@ -4069,13 +4055,13 @@
       <c r="AI23" s="58"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="99"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="137"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="101"/>
       <c r="H24" s="7" t="s">
         <v>28</v>
       </c>
@@ -4171,17 +4157,17 @@
       <c r="AI24" s="58"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="84">
+      <c r="A25" s="122">
         <v>1</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="79"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -4215,13 +4201,13 @@
       <c r="AI25" s="58"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="85"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="80"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="91"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -4255,25 +4241,27 @@
       <c r="AI26" s="58"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="84"/>
-      <c r="B27" s="83" t="s">
+      <c r="A27" s="122"/>
+      <c r="B27" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="75" t="s">
+      <c r="C27" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="77"/>
+      <c r="F27" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="83"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I27" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27" s="8">
         <v>1</v>
@@ -4310,19 +4298,19 @@
       <c r="AI27" s="58"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="85"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="78"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="84"/>
       <c r="H28" s="67" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I28" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" s="67">
         <v>5</v>
@@ -4359,25 +4347,27 @@
       <c r="AI28" s="58"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="84"/>
-      <c r="B29" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="75" t="s">
+      <c r="A29" s="122"/>
+      <c r="B29" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="75"/>
+      <c r="E29" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="77"/>
+      <c r="F29" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="83"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J29" s="8">
         <v>2</v>
@@ -4414,19 +4404,19 @@
       <c r="AI29" s="58"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="85"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="78"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="84"/>
       <c r="H30" s="67" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I30" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J30" s="67">
         <v>5</v>
@@ -4463,25 +4453,27 @@
       <c r="AI30" s="58"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="84"/>
-      <c r="B31" s="83" t="s">
+      <c r="A31" s="122"/>
+      <c r="B31" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="75" t="s">
+      <c r="D31" s="75"/>
+      <c r="E31" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="77"/>
+      <c r="F31" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="83"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I31" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31" s="8">
         <v>2</v>
@@ -4518,19 +4510,19 @@
       <c r="AI31" s="58"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="85"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="78"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="84"/>
       <c r="H32" s="67" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I32" s="69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32" s="67">
         <v>1</v>
@@ -4567,25 +4559,27 @@
       <c r="AI32" s="58"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="84"/>
-      <c r="B33" s="83" t="s">
+      <c r="A33" s="122"/>
+      <c r="B33" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="75" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="77"/>
+      <c r="F33" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="83"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" s="8">
         <v>2</v>
@@ -4622,19 +4616,19 @@
       <c r="AI33" s="58"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="85"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="78"/>
+      <c r="A34" s="123"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="84"/>
       <c r="H34" s="67" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I34" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J34" s="67">
         <v>1</v>
@@ -4671,17 +4665,17 @@
       <c r="AI34" s="58"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84">
+      <c r="A35" s="122">
         <v>2</v>
       </c>
-      <c r="B35" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="79"/>
+      <c r="B35" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="85"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -4715,13 +4709,13 @@
       <c r="AI35" s="58"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="85"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="80"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="91"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -4755,19 +4749,21 @@
       <c r="AI36" s="58"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="84"/>
-      <c r="B37" s="83" t="s">
+      <c r="A37" s="122"/>
+      <c r="B37" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="75"/>
+      <c r="E37" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="77"/>
+      <c r="F37" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="83"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -4810,13 +4806,13 @@
       <c r="AI37" s="58"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="85"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="78"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="84"/>
       <c r="H38" s="67" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4859,19 +4855,21 @@
       <c r="AI38" s="58"/>
     </row>
     <row r="39" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="90"/>
-      <c r="B39" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="94" t="s">
+      <c r="A39" s="70"/>
+      <c r="B39" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="94"/>
-      <c r="G39" s="142"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="80"/>
       <c r="H39" s="54" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4914,13 +4912,13 @@
       <c r="AI39" s="58"/>
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="91"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="93"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="68" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4963,25 +4961,27 @@
       <c r="AI40" s="58"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="84"/>
-      <c r="B41" s="83" t="s">
+      <c r="A41" s="122"/>
+      <c r="B41" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="75" t="s">
+      <c r="D41" s="75"/>
+      <c r="E41" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="75"/>
-      <c r="G41" s="77"/>
+      <c r="F41" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="83"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J41" s="8">
         <v>1</v>
@@ -5018,19 +5018,19 @@
       <c r="AI41" s="58"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="85"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="78"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="84"/>
       <c r="H42" s="67" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J42" s="67">
         <v>1</v>
@@ -5067,15 +5067,15 @@
       <c r="AI42" s="58"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="136"/>
+      <c r="A43" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="100"/>
       <c r="H43" s="20" t="s">
         <v>26</v>
       </c>
@@ -5171,13 +5171,13 @@
       <c r="AI43" s="58"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="99"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="137"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="101"/>
       <c r="H44" s="7" t="s">
         <v>28</v>
       </c>
@@ -5273,17 +5273,17 @@
       <c r="AI44" s="58"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="84">
+      <c r="A45" s="122">
         <v>1</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="79"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -5317,13 +5317,13 @@
       <c r="AI45" s="58"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="85"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="80"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="91"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -5357,19 +5357,21 @@
       <c r="AI46" s="58"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="90"/>
-      <c r="B47" s="92" t="s">
+      <c r="A47" s="70"/>
+      <c r="B47" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="94" t="s">
+      <c r="C47" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="75"/>
+      <c r="E47" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="142"/>
+      <c r="F47" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="80"/>
       <c r="H47" s="54" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -5412,13 +5414,13 @@
       <c r="AI47" s="58"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="91"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="93"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="68" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -5461,19 +5463,21 @@
       <c r="AI48" s="58"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="84"/>
-      <c r="B49" s="83" t="s">
+      <c r="A49" s="122"/>
+      <c r="B49" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="87"/>
-      <c r="E49" s="75" t="s">
+      <c r="D49" s="75"/>
+      <c r="E49" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="75"/>
-      <c r="G49" s="77"/>
+      <c r="F49" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" s="83"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -5516,13 +5520,13 @@
       <c r="AI49" s="58"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="85"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="78"/>
+      <c r="A50" s="123"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="84"/>
       <c r="H50" s="67" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -5569,19 +5573,21 @@
       <c r="AI50" s="58"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="90"/>
-      <c r="B51" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="94" t="s">
+      <c r="A51" s="70"/>
+      <c r="B51" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="75"/>
+      <c r="E51" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="94"/>
-      <c r="G51" s="142"/>
+      <c r="F51" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="80"/>
       <c r="H51" s="54" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -5624,13 +5630,13 @@
       <c r="AI51" s="58"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="91"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="93"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="68" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -5677,17 +5683,17 @@
       <c r="AI52" s="58"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="84">
+      <c r="A53" s="122">
         <v>2</v>
       </c>
-      <c r="B53" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="104"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="79"/>
+      <c r="B53" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="85"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="90"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -5721,13 +5727,13 @@
       <c r="AI53" s="58"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="85"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="80"/>
+      <c r="A54" s="123"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="91"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -5761,19 +5767,21 @@
       <c r="AI54" s="58"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="84"/>
-      <c r="B55" s="83" t="s">
+      <c r="A55" s="122"/>
+      <c r="B55" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="75"/>
+      <c r="E55" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="87"/>
-      <c r="E55" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="75"/>
-      <c r="G55" s="77"/>
+      <c r="F55" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="83"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -5816,13 +5824,13 @@
       <c r="AI55" s="58"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="85"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="78"/>
+      <c r="A56" s="123"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="84"/>
       <c r="H56" s="67" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -5867,19 +5875,21 @@
       <c r="AI56" s="58"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="84"/>
-      <c r="B57" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="87"/>
-      <c r="E57" s="75" t="s">
+      <c r="A57" s="122"/>
+      <c r="B57" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="75"/>
-      <c r="G57" s="77"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" s="83"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -5922,13 +5932,13 @@
       <c r="AI57" s="58"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="85"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="78"/>
+      <c r="A58" s="123"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="84"/>
       <c r="H58" s="67" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -5971,25 +5981,27 @@
       <c r="AI58" s="58"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="84"/>
-      <c r="B59" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="87"/>
-      <c r="E59" s="75" t="s">
+      <c r="A59" s="122"/>
+      <c r="B59" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="75"/>
+      <c r="E59" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="75"/>
-      <c r="G59" s="77"/>
+      <c r="F59" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="83"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J59" s="8">
         <v>1</v>
@@ -6026,19 +6038,19 @@
       <c r="AI59" s="58"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="85"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="78"/>
+      <c r="A60" s="123"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="84"/>
       <c r="H60" s="67" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J60" s="67">
         <v>1</v>
@@ -6077,15 +6089,15 @@
       <c r="AI60" s="58"/>
     </row>
     <row r="61" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="136"/>
+      <c r="A61" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="100"/>
       <c r="H61" s="20" t="s">
         <v>26</v>
       </c>
@@ -6181,13 +6193,13 @@
       <c r="AI61" s="58"/>
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="99"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="137"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="101"/>
       <c r="H62" s="7" t="s">
         <v>28</v>
       </c>
@@ -6283,17 +6295,17 @@
       <c r="AI62" s="58"/>
     </row>
     <row r="63" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="90">
+      <c r="A63" s="70">
         <v>1</v>
       </c>
-      <c r="B63" s="86" t="s">
+      <c r="B63" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="104"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="79"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="90"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -6327,13 +6339,13 @@
       <c r="AI63" s="58"/>
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="91"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="80"/>
+      <c r="A64" s="71"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="91"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -6367,25 +6379,27 @@
       <c r="AI64" s="58"/>
     </row>
     <row r="65" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="90"/>
-      <c r="B65" s="92" t="s">
+      <c r="A65" s="70"/>
+      <c r="B65" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="87"/>
-      <c r="E65" s="94" t="s">
+      <c r="C65" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="75"/>
+      <c r="E65" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="94"/>
-      <c r="G65" s="142"/>
+      <c r="F65" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" s="80"/>
       <c r="H65" s="54" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I65" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65" s="54">
         <v>5</v>
@@ -6422,19 +6436,19 @@
       <c r="AI65" s="58"/>
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="91"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="93"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="68" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I66" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J66" s="68">
         <v>5</v>
@@ -6473,19 +6487,21 @@
       <c r="AI66" s="58"/>
     </row>
     <row r="67" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="90"/>
-      <c r="B67" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="87"/>
-      <c r="E67" s="94" t="s">
+      <c r="A67" s="70"/>
+      <c r="B67" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="75"/>
+      <c r="E67" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="94"/>
-      <c r="G67" s="142"/>
+      <c r="F67" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="80"/>
       <c r="H67" s="54" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -6530,19 +6546,19 @@
       <c r="AI67" s="58"/>
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="91"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="93"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="68" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I68" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J68" s="68">
         <v>5</v>
@@ -6579,25 +6595,27 @@
       <c r="AI68" s="58"/>
     </row>
     <row r="69" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="90"/>
-      <c r="B69" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="87"/>
-      <c r="E69" s="94" t="s">
+      <c r="A69" s="70"/>
+      <c r="B69" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="75"/>
+      <c r="E69" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="94"/>
-      <c r="G69" s="142"/>
+      <c r="F69" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="80"/>
       <c r="H69" s="54" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I69" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J69" s="54">
         <v>4</v>
@@ -6634,19 +6652,19 @@
       <c r="AI69" s="58"/>
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="91"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="93"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="68" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I70" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J70" s="68">
         <v>4</v>
@@ -6683,17 +6701,17 @@
       <c r="AI70" s="58"/>
     </row>
     <row r="71" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="90">
+      <c r="A71" s="70">
         <v>2</v>
       </c>
-      <c r="B71" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="104"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="79"/>
+      <c r="B71" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="85"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="90"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -6727,13 +6745,13 @@
       <c r="AI71" s="58"/>
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="91"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="80"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="91"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -6767,19 +6785,21 @@
       <c r="AI72" s="58"/>
     </row>
     <row r="73" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="90"/>
-      <c r="B73" s="92" t="s">
+      <c r="A73" s="70"/>
+      <c r="B73" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="86" t="s">
+      <c r="C73" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="75"/>
+      <c r="E73" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="87"/>
-      <c r="E73" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="94"/>
-      <c r="G73" s="142"/>
+      <c r="F73" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" s="80"/>
       <c r="H73" s="54" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -6822,13 +6842,13 @@
       <c r="AI73" s="58"/>
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="91"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="93"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="68" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -6871,19 +6891,21 @@
       <c r="AI74" s="58"/>
     </row>
     <row r="75" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="90"/>
-      <c r="B75" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C75" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" s="87"/>
-      <c r="E75" s="94" t="s">
+      <c r="A75" s="70"/>
+      <c r="B75" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="94"/>
-      <c r="G75" s="142"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="80"/>
       <c r="H75" s="54" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -6926,13 +6948,13 @@
       <c r="AI75" s="58"/>
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="91"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="93"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="68" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -6940,7 +6962,9 @@
       <c r="I76" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J76" s="68"/>
+      <c r="J76" s="68">
+        <v>5</v>
+      </c>
       <c r="K76" s="10">
         <f t="shared" si="21"/>
         <v>1.3</v>
@@ -6973,25 +6997,27 @@
       <c r="AI76" s="58"/>
     </row>
     <row r="77" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="90"/>
-      <c r="B77" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="87"/>
-      <c r="E77" s="94" t="s">
+      <c r="A77" s="70"/>
+      <c r="B77" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="75"/>
+      <c r="E77" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="94"/>
-      <c r="G77" s="142"/>
+      <c r="F77" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77" s="80"/>
       <c r="H77" s="54" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I77" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J77" s="54">
         <v>1</v>
@@ -7028,19 +7054,23 @@
       <c r="AI77" s="58"/>
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="91"/>
-      <c r="B78" s="93"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="93"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="68" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
+      <c r="I78" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J78" s="68">
+        <v>1</v>
+      </c>
       <c r="K78" s="10">
         <f t="shared" si="21"/>
         <v>0.2</v>
@@ -7073,15 +7103,15 @@
       <c r="AI78" s="58"/>
     </row>
     <row r="79" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="98"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="136"/>
+      <c r="A79" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="98"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="100"/>
       <c r="H79" s="20" t="s">
         <v>26</v>
       </c>
@@ -7177,13 +7207,13 @@
       <c r="AI79" s="58"/>
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="99"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="137"/>
+      <c r="A80" s="95"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="101"/>
       <c r="H80" s="7" t="s">
         <v>28</v>
       </c>
@@ -7279,19 +7309,19 @@
       <c r="AI80" s="58"/>
     </row>
     <row r="81" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="90">
+      <c r="A81" s="70">
         <v>1</v>
       </c>
-      <c r="B81" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="104"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="81" t="s">
+      <c r="B81" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="85"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="F81" s="81"/>
-      <c r="G81" s="79"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="90"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -7325,13 +7355,13 @@
       <c r="AI81" s="58"/>
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="91"/>
-      <c r="B82" s="88"/>
-      <c r="C82" s="105"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="80"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="91"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -7365,19 +7395,21 @@
       <c r="AI82" s="58"/>
     </row>
     <row r="83" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="90"/>
-      <c r="B83" s="92" t="s">
+      <c r="A83" s="70"/>
+      <c r="B83" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="D83" s="87"/>
-      <c r="E83" s="94" t="s">
+      <c r="C83" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="75"/>
+      <c r="E83" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F83" s="94"/>
-      <c r="G83" s="142"/>
+      <c r="F83" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G83" s="80"/>
       <c r="H83" s="54" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -7422,13 +7454,13 @@
       <c r="AI83" s="58"/>
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="91"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="95"/>
-      <c r="F84" s="95"/>
-      <c r="G84" s="93"/>
+      <c r="A84" s="71"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="68" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -7473,19 +7505,21 @@
       <c r="AI84" s="58"/>
     </row>
     <row r="85" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="90"/>
-      <c r="B85" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C85" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="D85" s="87"/>
-      <c r="E85" s="94" t="s">
+      <c r="A85" s="70"/>
+      <c r="B85" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" s="75"/>
+      <c r="E85" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F85" s="94"/>
-      <c r="G85" s="142"/>
+      <c r="F85" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G85" s="80"/>
       <c r="H85" s="54" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -7528,19 +7562,19 @@
       <c r="AI85" s="58"/>
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="91"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="95"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="93"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="68" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I86" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J86" s="68">
         <v>3</v>
@@ -7579,15 +7613,15 @@
       <c r="AI86" s="58"/>
     </row>
     <row r="87" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="97"/>
-      <c r="C87" s="97"/>
-      <c r="D87" s="98"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="136"/>
+      <c r="A87" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="100"/>
       <c r="H87" s="20" t="s">
         <v>26</v>
       </c>
@@ -7683,13 +7717,13 @@
       <c r="AI87" s="58"/>
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="99"/>
-      <c r="B88" s="100"/>
-      <c r="C88" s="100"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="137"/>
+      <c r="A88" s="95"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="101"/>
       <c r="H88" s="7" t="s">
         <v>28</v>
       </c>
@@ -7785,17 +7819,17 @@
       <c r="AI88" s="58"/>
     </row>
     <row r="89" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="90">
+      <c r="A89" s="70">
         <v>1</v>
       </c>
-      <c r="B89" s="86" t="s">
+      <c r="B89" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="104"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="79"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="90"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -7829,13 +7863,13 @@
       <c r="AI89" s="58"/>
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="91"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="80"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="91"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -7869,25 +7903,27 @@
       <c r="AI90" s="58"/>
     </row>
     <row r="91" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="90"/>
-      <c r="B91" s="92" t="s">
+      <c r="A91" s="70"/>
+      <c r="B91" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D91" s="87"/>
-      <c r="E91" s="94" t="s">
+      <c r="D91" s="75"/>
+      <c r="E91" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F91" s="94"/>
-      <c r="G91" s="142"/>
+      <c r="F91" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G91" s="80"/>
       <c r="H91" s="54" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I91" s="54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J91" s="54">
         <v>4</v>
@@ -7924,19 +7960,19 @@
       <c r="AI91" s="58"/>
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="91"/>
-      <c r="B92" s="93"/>
-      <c r="C92" s="88"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="95"/>
-      <c r="F92" s="95"/>
-      <c r="G92" s="93"/>
+      <c r="A92" s="71"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="73"/>
       <c r="H92" s="68" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I92" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J92" s="68">
         <v>2</v>
@@ -7973,25 +8009,27 @@
       <c r="AI92" s="58"/>
     </row>
     <row r="93" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="90"/>
-      <c r="B93" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="D93" s="87"/>
-      <c r="E93" s="94" t="s">
+      <c r="A93" s="70"/>
+      <c r="B93" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="75"/>
+      <c r="E93" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F93" s="94"/>
-      <c r="G93" s="142"/>
+      <c r="F93" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G93" s="80"/>
       <c r="H93" s="54" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I93" s="54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J93" s="54">
         <v>1</v>
@@ -8028,19 +8066,19 @@
       <c r="AI93" s="58"/>
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="91"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="88"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="95"/>
-      <c r="G94" s="93"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="73"/>
       <c r="H94" s="68" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I94" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J94" s="68">
         <v>1</v>
@@ -8077,17 +8115,17 @@
       <c r="AI94" s="58"/>
     </row>
     <row r="95" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="90">
+      <c r="A95" s="70">
         <v>2</v>
       </c>
-      <c r="B95" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="104"/>
-      <c r="D95" s="87"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="79"/>
+      <c r="B95" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="85"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="90"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -8121,13 +8159,13 @@
       <c r="AI95" s="58"/>
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="91"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="105"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="80"/>
+      <c r="A96" s="71"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="91"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -8161,19 +8199,21 @@
       <c r="AI96" s="58"/>
     </row>
     <row r="97" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="90"/>
-      <c r="B97" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="D97" s="87"/>
-      <c r="E97" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="F97" s="94"/>
-      <c r="G97" s="142"/>
+      <c r="A97" s="70"/>
+      <c r="B97" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" s="75"/>
+      <c r="E97" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G97" s="80"/>
       <c r="H97" s="54" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -8216,13 +8256,13 @@
       <c r="AI97" s="58"/>
     </row>
     <row r="98" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="91"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="95"/>
-      <c r="G98" s="93"/>
+      <c r="A98" s="71"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="73"/>
       <c r="H98" s="68" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -8265,25 +8305,27 @@
       <c r="AI98" s="58"/>
     </row>
     <row r="99" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="90"/>
-      <c r="B99" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="D99" s="87"/>
-      <c r="E99" s="94" t="s">
+      <c r="A99" s="70"/>
+      <c r="B99" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" s="75"/>
+      <c r="E99" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="94"/>
-      <c r="G99" s="142"/>
+      <c r="F99" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G99" s="80"/>
       <c r="H99" s="54" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I99" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J99" s="54">
         <v>1</v>
@@ -8320,19 +8362,19 @@
       <c r="AI99" s="58"/>
     </row>
     <row r="100" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="91"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="95"/>
-      <c r="G100" s="93"/>
+      <c r="A100" s="71"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="73"/>
       <c r="H100" s="68" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I100" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J100" s="68">
         <v>1</v>
@@ -8369,15 +8411,15 @@
       <c r="AI100" s="58"/>
     </row>
     <row r="101" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="B101" s="97"/>
-      <c r="C101" s="97"/>
-      <c r="D101" s="98"/>
-      <c r="E101" s="102"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="136"/>
+      <c r="A101" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" s="93"/>
+      <c r="C101" s="93"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="98"/>
+      <c r="F101" s="98"/>
+      <c r="G101" s="100"/>
       <c r="H101" s="20" t="s">
         <v>26</v>
       </c>
@@ -8385,7 +8427,7 @@
       <c r="J101" s="20"/>
       <c r="K101" s="63" cm="1">
         <f t="array" ref="K101">SUMPRODUCT((MOD(ROW(K$103:K$114),2)=1)*K$103:K$114)</f>
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="L101" s="21" cm="1">
         <f t="array" ref="L101">SUMPRODUCT((MOD(ROW(L$103:L$114),2)=1)*L$103:L$114)</f>
@@ -8417,7 +8459,7 @@
       </c>
       <c r="S101" s="21" cm="1">
         <f t="array" ref="S101">SUMPRODUCT((MOD(ROW(S$103:S$114),2)=1)*S$103:S$114)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T101" s="21" cm="1">
         <f t="array" ref="T101">SUMPRODUCT((MOD(ROW(T$103:T$114),2)=1)*T$103:T$114)</f>
@@ -8473,13 +8515,13 @@
       <c r="AI101" s="58"/>
     </row>
     <row r="102" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="99"/>
-      <c r="B102" s="100"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="103"/>
-      <c r="G102" s="137"/>
+      <c r="A102" s="95"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="101"/>
       <c r="H102" s="7" t="s">
         <v>28</v>
       </c>
@@ -8487,7 +8529,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="61" cm="1">
         <f t="array" ref="K102">SUMPRODUCT((MOD(ROW(K$103:K$114),2)=0)*K$103:K$114)</f>
-        <v>0</v>
+        <v>1.9699999999999998</v>
       </c>
       <c r="L102" s="22" cm="1">
         <f t="array" ref="L102">SUMPRODUCT((MOD(ROW(L$103:L$114),2)=0)*L$103:L$114)</f>
@@ -8519,7 +8561,7 @@
       </c>
       <c r="S102" s="22" cm="1">
         <f t="array" ref="S102">SUMPRODUCT((MOD(ROW(S$103:S$114),2)=0)*S$103:S$114)</f>
-        <v>0</v>
+        <v>1.9699999999999998</v>
       </c>
       <c r="T102" s="22" cm="1">
         <f t="array" ref="T102">SUMPRODUCT((MOD(ROW(T$103:T$114),2)=0)*T$103:T$114)</f>
@@ -8575,17 +8617,17 @@
       <c r="AI102" s="58"/>
     </row>
     <row r="103" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="90">
+      <c r="A103" s="70">
         <v>1</v>
       </c>
-      <c r="B103" s="86" t="s">
+      <c r="B103" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C103" s="104"/>
-      <c r="D103" s="87"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="79"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="90"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -8619,13 +8661,13 @@
       <c r="AI103" s="58"/>
     </row>
     <row r="104" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="91"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="105"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="80"/>
+      <c r="A104" s="71"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="91"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -8659,19 +8701,21 @@
       <c r="AI104" s="58"/>
     </row>
     <row r="105" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="90"/>
-      <c r="B105" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C105" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="D105" s="87"/>
-      <c r="E105" s="94" t="s">
+      <c r="A105" s="70"/>
+      <c r="B105" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" s="75"/>
+      <c r="E105" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F105" s="94"/>
-      <c r="G105" s="142"/>
+      <c r="F105" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G105" s="80"/>
       <c r="H105" s="54" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -8695,7 +8739,6 @@
         <v>1</v>
       </c>
       <c r="R105" s="51"/>
-      <c r="S105" s="51"/>
       <c r="T105" s="51"/>
       <c r="U105" s="51"/>
       <c r="V105" s="51"/>
@@ -8714,22 +8757,26 @@
       <c r="AI105" s="58"/>
     </row>
     <row r="106" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="91"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
-      <c r="G106" s="93"/>
+      <c r="A106" s="71"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="73"/>
       <c r="H106" s="68" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I106" s="68"/>
-      <c r="J106" s="68"/>
+      <c r="I106" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" s="68">
+        <v>5</v>
+      </c>
       <c r="K106" s="10">
         <f>SUM(L106:W106)</f>
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="L106" s="52"/>
       <c r="M106" s="53"/>
@@ -8738,7 +8785,9 @@
       <c r="P106" s="53"/>
       <c r="Q106" s="53"/>
       <c r="R106" s="53"/>
-      <c r="S106" s="53"/>
+      <c r="S106" s="51">
+        <v>1.65</v>
+      </c>
       <c r="T106" s="53"/>
       <c r="U106" s="53"/>
       <c r="V106" s="53"/>
@@ -8757,19 +8806,21 @@
       <c r="AI106" s="58"/>
     </row>
     <row r="107" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="90"/>
-      <c r="B107" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C107" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="D107" s="87"/>
-      <c r="E107" s="94" t="s">
+      <c r="A107" s="70"/>
+      <c r="B107" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107" s="75"/>
+      <c r="E107" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F107" s="94"/>
-      <c r="G107" s="142"/>
+      <c r="F107" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G107" s="80"/>
       <c r="H107" s="54" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -8812,22 +8863,26 @@
       <c r="AI107" s="58"/>
     </row>
     <row r="108" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="91"/>
-      <c r="B108" s="93"/>
-      <c r="C108" s="88"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
-      <c r="G108" s="93"/>
+      <c r="A108" s="71"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="68" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I108" s="68"/>
-      <c r="J108" s="68"/>
+      <c r="I108" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J108" s="68">
+        <v>5</v>
+      </c>
       <c r="K108" s="10">
         <f>SUM(L108:W108)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L108" s="52"/>
       <c r="M108" s="53"/>
@@ -8836,7 +8891,9 @@
       <c r="P108" s="53"/>
       <c r="Q108" s="53"/>
       <c r="R108" s="53"/>
-      <c r="S108" s="53"/>
+      <c r="S108" s="53">
+        <v>0.16</v>
+      </c>
       <c r="T108" s="53"/>
       <c r="U108" s="53"/>
       <c r="V108" s="53"/>
@@ -8855,17 +8912,17 @@
       <c r="AI108" s="58"/>
     </row>
     <row r="109" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="90">
+      <c r="A109" s="70">
         <v>2</v>
       </c>
-      <c r="B109" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C109" s="104"/>
-      <c r="D109" s="87"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="79"/>
+      <c r="B109" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="85"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="90"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -8899,13 +8956,13 @@
       <c r="AI109" s="58"/>
     </row>
     <row r="110" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="91"/>
-      <c r="B110" s="88"/>
-      <c r="C110" s="105"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="80"/>
+      <c r="A110" s="71"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="91"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -8939,19 +8996,21 @@
       <c r="AI110" s="58"/>
     </row>
     <row r="111" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="90"/>
-      <c r="B111" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" s="86" t="s">
+      <c r="A111" s="70"/>
+      <c r="B111" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="75"/>
+      <c r="E111" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D111" s="87"/>
-      <c r="E111" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="F111" s="94"/>
-      <c r="G111" s="142"/>
+      <c r="F111" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G111" s="80"/>
       <c r="H111" s="54" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -8964,7 +9023,7 @@
       </c>
       <c r="K111" s="9">
         <f>SUM(L111:W111)</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L111" s="50"/>
       <c r="M111" s="51"/>
@@ -8975,7 +9034,9 @@
         <v>1.25</v>
       </c>
       <c r="R111" s="51"/>
-      <c r="S111" s="51"/>
+      <c r="S111" s="51">
+        <v>1.25</v>
+      </c>
       <c r="T111" s="51"/>
       <c r="U111" s="51"/>
       <c r="V111" s="51"/>
@@ -8994,19 +9055,23 @@
       <c r="AI111" s="58"/>
     </row>
     <row r="112" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="91"/>
-      <c r="B112" s="93"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="89"/>
-      <c r="E112" s="95"/>
-      <c r="F112" s="95"/>
-      <c r="G112" s="93"/>
+      <c r="A112" s="71"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="73"/>
       <c r="H112" s="68" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I112" s="68"/>
-      <c r="J112" s="68"/>
+      <c r="I112" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J112" s="68">
+        <v>5</v>
+      </c>
       <c r="K112" s="10">
         <f>SUM(L112:W112)</f>
         <v>0</v>
@@ -9037,25 +9102,27 @@
       <c r="AI112" s="58"/>
     </row>
     <row r="113" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="90"/>
-      <c r="B113" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C113" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D113" s="87"/>
-      <c r="E113" s="94" t="s">
+      <c r="A113" s="70"/>
+      <c r="B113" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" s="75"/>
+      <c r="E113" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F113" s="94"/>
-      <c r="G113" s="142"/>
+      <c r="F113" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G113" s="80"/>
       <c r="H113" s="54" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I113" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J113" s="54">
         <v>1</v>
@@ -9092,22 +9159,26 @@
       <c r="AI113" s="58"/>
     </row>
     <row r="114" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="91"/>
-      <c r="B114" s="93"/>
-      <c r="C114" s="88"/>
-      <c r="D114" s="89"/>
-      <c r="E114" s="95"/>
-      <c r="F114" s="95"/>
-      <c r="G114" s="93"/>
+      <c r="A114" s="71"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="73"/>
       <c r="H114" s="68" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I114" s="68"/>
-      <c r="J114" s="68"/>
+      <c r="I114" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="J114" s="68">
+        <v>1</v>
+      </c>
       <c r="K114" s="10">
         <f>SUM(L114:W114)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L114" s="52"/>
       <c r="M114" s="53"/>
@@ -9116,7 +9187,9 @@
       <c r="P114" s="53"/>
       <c r="Q114" s="53"/>
       <c r="R114" s="53"/>
-      <c r="S114" s="53"/>
+      <c r="S114" s="53">
+        <v>0.16</v>
+      </c>
       <c r="T114" s="53"/>
       <c r="U114" s="53"/>
       <c r="V114" s="53"/>
@@ -9153,6 +9226,321 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="339">
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D20"/>
@@ -9177,369 +9565,46 @@
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L25:W36 L38:W38 L37 N37:W37 L45:AE46 L9:AE18 L21:AE22 L53:AE56 L49:AE50 X25:AE38 L58:AE58 L57:M57 O57:AE57 L60:AE60 L59:M59 O59:AE59 L41:AE42">
-    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="L25:W36 L38:W38 L37 N37:W37 L45:AE46 L9:AE18 L21:AE22 L53:AE56 L49:AE50 X25:AE38 L58:AE58 L57:M57 O57:AE57 L60:AE60 L59:M59 O59:AE59 L41:AE42 L103:AE104 L105:R105 T105:AE105 L106:AE114">
+    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63:AE78">
-    <cfRule type="expression" dxfId="27" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="35" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L63), L63&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L63), L63&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L81:AE84 L69:AE70">
-    <cfRule type="expression" dxfId="25" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L69), L69&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L69), L69&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L89:AE100">
-    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L89), L89&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L89), L89&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:W40 L39 N39:W39 X39:AE40">
-    <cfRule type="expression" dxfId="21" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="29" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="30" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L39), L39&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L103:AE114">
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L103), L103&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="26" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L103), L103&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:AE20">
@@ -9821,18 +9886,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9854,18 +9919,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>